--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="23" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -23,21 +23,30 @@
     <sheet name="car_values" sheetId="83" r:id="rId14"/>
     <sheet name="carrier_to_cars" sheetId="82" r:id="rId15"/>
     <sheet name="orders" sheetId="90" r:id="rId16"/>
-    <sheet name="order_values" sheetId="91" r:id="rId17"/>
-    <sheet name="order_progress" sheetId="92" r:id="rId18"/>
-    <sheet name="order_status" sheetId="93" r:id="rId19"/>
-    <sheet name="estimates" sheetId="94" r:id="rId20"/>
-    <sheet name="estimate_items" sheetId="95" r:id="rId21"/>
-    <sheet name="estimate_temps" sheetId="96" r:id="rId22"/>
-    <sheet name="items" sheetId="97" r:id="rId23"/>
-    <sheet name="reports" sheetId="98" r:id="rId24"/>
-    <sheet name="report_temps" sheetId="99" r:id="rId25"/>
-    <sheet name="boards" sheetId="49" r:id="rId26"/>
-    <sheet name="messages" sheetId="70" r:id="rId27"/>
-    <sheet name="message_unopeneds" sheetId="71" r:id="rId28"/>
-    <sheet name="news" sheetId="51" r:id="rId29"/>
-    <sheet name="evaluations" sheetId="100" r:id="rId30"/>
-    <sheet name="prefs" sheetId="80" r:id="rId31"/>
+    <sheet name="order_requests" sheetId="109" r:id="rId17"/>
+    <sheet name="order_request_options" sheetId="108" r:id="rId18"/>
+    <sheet name="cargos" sheetId="101" r:id="rId19"/>
+    <sheet name="cargo_values" sheetId="91" r:id="rId20"/>
+    <sheet name="order_to_cargos" sheetId="103" r:id="rId21"/>
+    <sheet name="cargo_categories" sheetId="102" r:id="rId22"/>
+    <sheet name="cargo_names" sheetId="104" r:id="rId23"/>
+    <sheet name="cargo_forms" sheetId="105" r:id="rId24"/>
+    <sheet name="order_progress" sheetId="92" r:id="rId25"/>
+    <sheet name="order_status" sheetId="93" r:id="rId26"/>
+    <sheet name="estimates" sheetId="94" r:id="rId27"/>
+    <sheet name="estimate_items" sheetId="95" r:id="rId28"/>
+    <sheet name="estimate_temps" sheetId="96" r:id="rId29"/>
+    <sheet name="items" sheetId="97" r:id="rId30"/>
+    <sheet name="reports" sheetId="98" r:id="rId31"/>
+    <sheet name="report_temps" sheetId="99" r:id="rId32"/>
+    <sheet name="boards" sheetId="49" r:id="rId33"/>
+    <sheet name="messages" sheetId="70" r:id="rId34"/>
+    <sheet name="message_unopeneds" sheetId="71" r:id="rId35"/>
+    <sheet name="news" sheetId="51" r:id="rId36"/>
+    <sheet name="evaluations" sheetId="100" r:id="rId37"/>
+    <sheet name="evaluation_stars" sheetId="106" r:id="rId38"/>
+    <sheet name="evaluation_items" sheetId="107" r:id="rId39"/>
+    <sheet name="prefs" sheetId="80" r:id="rId40"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -49,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="499">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -856,24 +865,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>箱型トラック</t>
-    <rPh sb="0" eb="2">
-      <t>ハコガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10tまでのトレーラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>それ以上</t>
-    <rPh sb="2" eb="4">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CLS-01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -882,20 +873,6 @@
   </si>
   <si>
     <t>CLS-03</t>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意の名前</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>種別</t>
@@ -905,16 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最大積載量</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セキサイリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>幅</t>
     <rPh sb="0" eb="1">
       <t>ハバ</t>
@@ -947,10 +914,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>60t</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.4m</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -970,10 +933,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とれーらー1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CAR-01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -985,15 +944,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>とらっく1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>トラック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8t</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1113,18 +1064,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>status_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1313,10 +1252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>region</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1327,6 +1262,1213 @@
   <si>
     <t>ハリマのワイ</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>validated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>published_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cargo_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cargo_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cargo_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc02</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc03</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc04</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc05</t>
+  </si>
+  <si>
+    <t>13t以下のウィング車</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13t以下の平車</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32t以下のトレーラー</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70t以下の重量物特殊車両</t>
+    <rPh sb="3" eb="5">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200t以下の特殊大型輸送車両</t>
+    <rPh sb="4" eb="6">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オオガタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLS-04</t>
+  </si>
+  <si>
+    <t>CLS-05</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc06</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc07</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc08</t>
+  </si>
+  <si>
+    <t>CGC-170405-135700-abc09</t>
+  </si>
+  <si>
+    <t>鋼材</t>
+    <rPh sb="0" eb="2">
+      <t>コウザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機械部品</t>
+    <rPh sb="0" eb="2">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長尺品</t>
+    <rPh sb="0" eb="2">
+      <t>チョウジャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量物70t以下</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量物100t以下</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量物150t以下</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量物150t超</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGF-170405-135700-abc01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc02</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc03</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc04</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc05</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc06</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc07</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc08</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc09</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc10</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc11</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc12</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc13</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc14</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc15</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc16</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc17</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc18</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc19</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc20</t>
+  </si>
+  <si>
+    <t>厚板</t>
+    <rPh sb="0" eb="2">
+      <t>アツイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸棒</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線材</t>
+    <rPh sb="0" eb="2">
+      <t>センザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工機部品</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デーコン（鉄筋）</t>
+    <rPh sb="5" eb="7">
+      <t>テッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネジコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄粉</t>
+    <rPh sb="0" eb="2">
+      <t>テップン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クランク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリンダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラダーストック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金型</t>
+    <rPh sb="0" eb="2">
+      <t>カナガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋梁</t>
+    <rPh sb="0" eb="2">
+      <t>キョウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋脚</t>
+    <rPh sb="0" eb="2">
+      <t>キョウキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋桁</t>
+    <rPh sb="0" eb="2">
+      <t>ハシゲタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車両</t>
+    <rPh sb="0" eb="2">
+      <t>シャリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精密機械</t>
+    <rPh sb="0" eb="2">
+      <t>セイミツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減速機</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンソクキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc21</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc22</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc23</t>
+  </si>
+  <si>
+    <t>CGN-170405-135700-abc24</t>
+  </si>
+  <si>
+    <t>裸</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台木</t>
+    <rPh sb="0" eb="2">
+      <t>ダイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッカン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGF-170405-135700-abc02</t>
+  </si>
+  <si>
+    <t>CGF-170405-135700-abc03</t>
+  </si>
+  <si>
+    <t>CGF-170405-135700-abc04</t>
+  </si>
+  <si>
+    <t>CGF-170405-135700-abc05</t>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>option_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>car</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>equipment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab002</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab003</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab004</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab005</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab006</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab007</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab008</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab009</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab010</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab011</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab012</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab013</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab014</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab015</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab016</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab017</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab018</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab019</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab020</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab021</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab022</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab023</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab024</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab025</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab026</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab027</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab028</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab029</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab030</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab031</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab032</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab033</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab034</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab035</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab036</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab037</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab038</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab039</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab040</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab041</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab042</t>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab043</t>
+  </si>
+  <si>
+    <t>板バネトラック</t>
+    <rPh sb="0" eb="1">
+      <t>イタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアサストラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィングトラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアサスウィングトラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低床トラック</t>
+    <rPh sb="0" eb="2">
+      <t>テイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中低床トラック</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高床トラック</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニック車 6t/8t/13t</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウィング車</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高床フラットトレーラー</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中低床トレーラー</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低床トレーラー</t>
+    <rPh sb="0" eb="2">
+      <t>テイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低床エアサストレーラー</t>
+    <rPh sb="0" eb="2">
+      <t>テイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショートトレーラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舵切エアサストレーラー</t>
+    <rPh sb="0" eb="1">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舵切伸縮エアサストレーラー</t>
+    <rPh sb="0" eb="1">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準内傾斜トレーラー</t>
+    <rPh sb="0" eb="3">
+      <t>キジュンナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緩和傾斜トレーラー</t>
+    <rPh sb="0" eb="2">
+      <t>カンワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伸縮トレーラー</t>
+    <rPh sb="0" eb="2">
+      <t>シンシュク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量物積載低床トレーラー</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セキサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンク台車</t>
+    <rPh sb="3" eb="5">
+      <t>ダイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポールトレーラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチトレーラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多軸連結車</t>
+    <rPh sb="0" eb="2">
+      <t>タジク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レンケツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前止用スタンション</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横止用スタンション</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>りん木</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルエアサス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後輪エアサス</t>
+    <rPh sb="0" eb="2">
+      <t>コウリン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センターフック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センタースタンション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毛布</t>
+    <rPh sb="0" eb="2">
+      <t>モウフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内掛けシート</t>
+    <rPh sb="0" eb="2">
+      <t>ウチカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外掛けシート</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R形状台車</t>
+    <rPh sb="1" eb="3">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アオリ付</t>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷締め方法</t>
+    <rPh sb="0" eb="1">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全服装</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フクソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限外許可申請</t>
+    <rPh sb="0" eb="2">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gマーク取得</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライブレコーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタルレコーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量物特殊台車</t>
+    <rPh sb="0" eb="5">
+      <t>ジュウリョウブツトクシュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対</t>
+    <rPh sb="0" eb="1">
+      <t>ツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枚</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVI-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レスポンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クオリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告内容</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案へのレスポンス</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>積み卸しの対応</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安全配慮</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>報告への対応</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVI-02</t>
+  </si>
+  <si>
+    <t>EVI-03</t>
+  </si>
+  <si>
+    <t>EVI-04</t>
+  </si>
+  <si>
+    <t>EVI-05</t>
+  </si>
+  <si>
+    <t>EVI-06</t>
+  </si>
+  <si>
+    <t>EVI-07</t>
+  </si>
+  <si>
+    <t>EVI-08</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +2692,154 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="92">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2350,7 +3639,7 @@
   </sheetPr>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2438,7 +3727,7 @@
         <v>141</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
@@ -2539,12 +3828,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:Q1">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="90" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2558,10 +3847,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2584,10 +3873,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -2595,40 +3884,71 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1">
-        <v>15000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="C4" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" s="12">
         <v>30000</v>
       </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="12">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="77" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="76" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2666,7 +3986,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2674,18 +3994,18 @@
         <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2748,13 +4068,13 @@
         <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E2" s="15">
         <v>43185.5</v>
@@ -2772,16 +4092,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E3" s="15">
         <v>43120.888888888891</v>
@@ -2793,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -2963,12 +4283,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="71" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2984,7 +4304,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3001,7 +4321,7 @@
         <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -3021,40 +4341,40 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3067,10 +4387,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3105,214 +4425,158 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+        <v>213</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+        <v>213</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D5" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D6" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="12">
-        <v>6</v>
+        <v>215</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="12">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
+        <v>215</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
+        <v>215</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="12">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="12">
+        <v>215</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="12">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="66" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="65" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3328,7 +4592,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3345,23 +4609,23 @@
         <v>199</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="64" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="63" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="62" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3377,7 +4641,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3468,12 +4732,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="61" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3489,7 +4753,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3499,27 +4763,22 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>245</v>
+        <v>378</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="38" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3532,38 +4791,620 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>243</v>
+        <v>379</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>248</v>
+        <v>380</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="36" priority="2">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="35" priority="1">
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3576,113 +5417,58 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="31.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>265</v>
+        <v>283</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="34" priority="2">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="33" priority="1">
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3767,12 +5553,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="68" priority="3">
+    <cfRule type="expression" dxfId="89" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3782,6 +5568,693 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="54" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="53" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="52" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="51" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="50" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="49" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G1:XFD1">
+    <cfRule type="expression" dxfId="48" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="47" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="46" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="36.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="G1:XFD1">
+    <cfRule type="expression" dxfId="45" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="44" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:F1">
+    <cfRule type="expression" dxfId="43" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="42" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="41" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="31.25" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="40" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="39" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3799,7 +6272,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>180</v>
@@ -3838,12 +6311,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3851,7 +6324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3870,7 +6343,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>189</v>
@@ -3888,12 +6361,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3901,7 +6374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -3920,7 +6393,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>191</v>
@@ -3935,416 +6408,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="6" width="21.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="26" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="25" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="19.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="24" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="23" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="23.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="22" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="21" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="4" width="33.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="C6" s="9"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="C11" s="9"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="20" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="19" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:L1">
-    <cfRule type="expression" dxfId="18" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="11" customWidth="1"/>
-    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="16" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="14" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="2" width="35.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="12" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="11" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="10" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="8" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4662,12 +6735,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="87" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="86" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4678,62 +6751,219 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="32" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="19.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="30" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="29" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="23.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="27" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="4" width="33.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>279</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="7" priority="4">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="6" priority="3">
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="4" priority="1">
+  <conditionalFormatting sqref="C1:L1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4742,15 +6972,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.499984740745262"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="expression" dxfId="22" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="expression" dxfId="21" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="expression" dxfId="20" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="2" width="35.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="18" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -4762,559 +7100,452 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="expression" dxfId="12" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E2" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E3" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E4" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E5" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E6" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E7" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E8" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43196.375</v>
+      </c>
+      <c r="E9" s="7">
+        <v>72781.375</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43196.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="4:6">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="4:6">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="4:6">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="4:6">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="4:6">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6697,12 +8928,588 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6820,12 +9627,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="84" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="83" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6889,7 +9696,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6966,12 +9773,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7020,12 +9827,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="58" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="23" activeTab="38"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="611">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -274,14 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/img/user/2018/03/UP-180326-141059-aaaaa_md.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/img/user/2018/03/UP-180326-141059-aaaab_md.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>631ba0008db2a7cdedc31c7d2f2c79ba8ba1955a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2469,6 +2461,371 @@
   </si>
   <si>
     <t>EVI-08</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa02</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa03</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa04</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa05</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa06</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa07</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa08</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa09</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa10</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa11</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa12</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa13</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa14</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa15</t>
+  </si>
+  <si>
+    <t>USR-180407-132400-aaa16</t>
+  </si>
+  <si>
+    <t>cbb632cabf5a840c31ca51de75676bb190efa14c</t>
+  </si>
+  <si>
+    <t>bd91ae9844aaf04c122e5350eea93703886c6851</t>
+  </si>
+  <si>
+    <t>fb5f93bee821c21fe1d143733c7ecec4e842b108</t>
+  </si>
+  <si>
+    <t>0b6f699fb54192607a61b6401565bf4b8b0728ae</t>
+  </si>
+  <si>
+    <t>77e151c34f73f7620f47311ccd383b32f107010e</t>
+  </si>
+  <si>
+    <t>13936e950d5d3a97070d22a54cc88e8f96091d21</t>
+  </si>
+  <si>
+    <t>e65703a3316e2ff98f6e9295cc29322c2e5a53f0</t>
+  </si>
+  <si>
+    <t>ecca87d5c15ce5e85a5fbfceaa0ed4e302922103</t>
+  </si>
+  <si>
+    <t>ff0c96dcee311e2a2660cfb90c2dff60f5944e0d</t>
+  </si>
+  <si>
+    <t>2fa2e04a9929698692e66312f15c56672a42336b</t>
+  </si>
+  <si>
+    <t>e480fad58b6e4324748f13715753a279aa38b12c</t>
+  </si>
+  <si>
+    <t>99c0df20a2dfe140c36bec4ec09819c8c34ac4f9</t>
+  </si>
+  <si>
+    <t>9c8b0b86037ef4edcdbdd46bd97e666451808f2d</t>
+  </si>
+  <si>
+    <t>a757046008f88c983a3abc4f5d9e3138972519f8</t>
+  </si>
+  <si>
+    <t>ac790add36c1d114ed9d7d238f7f8be95ce7a2f8</t>
+  </si>
+  <si>
+    <t>618b62b7ba0e1a361c58e67de49b93caf20b26d3</t>
+  </si>
+  <si>
+    <t>sample01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Harima5577</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample02</t>
+  </si>
+  <si>
+    <t>Harima5578</t>
+  </si>
+  <si>
+    <t>sample03</t>
+  </si>
+  <si>
+    <t>Harima5579</t>
+  </si>
+  <si>
+    <t>sample04</t>
+  </si>
+  <si>
+    <t>Harima5580</t>
+  </si>
+  <si>
+    <t>sample05</t>
+  </si>
+  <si>
+    <t>Harima5581</t>
+  </si>
+  <si>
+    <t>sample06</t>
+  </si>
+  <si>
+    <t>Harima5582</t>
+  </si>
+  <si>
+    <t>sample07</t>
+  </si>
+  <si>
+    <t>Harima5583</t>
+  </si>
+  <si>
+    <t>sample08</t>
+  </si>
+  <si>
+    <t>Harima5584</t>
+  </si>
+  <si>
+    <t>sample09</t>
+  </si>
+  <si>
+    <t>Harima5585</t>
+  </si>
+  <si>
+    <t>sample10</t>
+  </si>
+  <si>
+    <t>Harima5586</t>
+  </si>
+  <si>
+    <t>sample11</t>
+  </si>
+  <si>
+    <t>Harima5587</t>
+  </si>
+  <si>
+    <t>sample12</t>
+  </si>
+  <si>
+    <t>Harima5588</t>
+  </si>
+  <si>
+    <t>sample13</t>
+  </si>
+  <si>
+    <t>Harima5589</t>
+  </si>
+  <si>
+    <t>sample14</t>
+  </si>
+  <si>
+    <t>Harima5590</t>
+  </si>
+  <si>
+    <t>sample15</t>
+  </si>
+  <si>
+    <t>Harima5591</t>
+  </si>
+  <si>
+    <t>sample16</t>
+  </si>
+  <si>
+    <t>Harima5592</t>
+  </si>
+  <si>
+    <t>イチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヨン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キュウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウイチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウニ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウヨン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュウロク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample01@hoge.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sample02@hoge.com</t>
+  </si>
+  <si>
+    <t>sample03@hoge.com</t>
+  </si>
+  <si>
+    <t>sample04@hoge.com</t>
+  </si>
+  <si>
+    <t>sample05@hoge.com</t>
+  </si>
+  <si>
+    <t>sample06@hoge.com</t>
+  </si>
+  <si>
+    <t>sample07@hoge.com</t>
+  </si>
+  <si>
+    <t>sample08@hoge.com</t>
+  </si>
+  <si>
+    <t>sample09@hoge.com</t>
+  </si>
+  <si>
+    <t>sample10@hoge.com</t>
+  </si>
+  <si>
+    <t>sample11@hoge.com</t>
+  </si>
+  <si>
+    <t>sample12@hoge.com</t>
+  </si>
+  <si>
+    <t>sample13@hoge.com</t>
+  </si>
+  <si>
+    <t>sample14@hoge.com</t>
+  </si>
+  <si>
+    <t>sample15@hoge.com</t>
+  </si>
+  <si>
+    <t>sample16@hoge.com</t>
+  </si>
+  <si>
+    <t>012-3456-0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012-3456-0002</t>
+  </si>
+  <si>
+    <t>012-3456-0003</t>
+  </si>
+  <si>
+    <t>012-3456-0004</t>
+  </si>
+  <si>
+    <t>012-3456-0005</t>
+  </si>
+  <si>
+    <t>012-3456-0006</t>
+  </si>
+  <si>
+    <t>012-3456-0007</t>
+  </si>
+  <si>
+    <t>012-3456-0008</t>
+  </si>
+  <si>
+    <t>012-3456-0009</t>
+  </si>
+  <si>
+    <t>012-3456-0010</t>
+  </si>
+  <si>
+    <t>012-3456-0011</t>
+  </si>
+  <si>
+    <t>012-3456-0012</t>
+  </si>
+  <si>
+    <t>012-3456-0013</t>
+  </si>
+  <si>
+    <t>012-3456-0014</t>
+  </si>
+  <si>
+    <t>012-3456-0015</t>
+  </si>
+  <si>
+    <t>012-3456-0016</t>
+  </si>
+  <si>
+    <t>http://s3.transporter.fun/img/photo/2018/04/UPL-180406-174003-OekbR_md.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://s3.transporter.fun/img/photo/2018/04/UPL-180406-174019-Et9GY_md.jpg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2638,9 +2995,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2674,6 +3028,9 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2692,14 +3049,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
@@ -3637,10 +3987,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -3712,7 +4062,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>39</v>
@@ -3720,14 +4070,8 @@
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
@@ -3748,7 +4092,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>50</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1">
@@ -3756,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
@@ -3765,10 +4109,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>44</v>
@@ -3789,51 +4133,386 @@
         <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>51</v>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B7" s="4"/>
+      <c r="A7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B8" s="4"/>
+      <c r="A8" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B9" s="4"/>
+      <c r="A9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B11" s="4"/>
+      <c r="A11" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>608</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:Q1">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="90" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3862,21 +4541,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -3884,10 +4563,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -3895,60 +4574,60 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="12">
+        <v>300</v>
+      </c>
+      <c r="C4" s="11">
         <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="12">
+      <c r="B5" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="11">
         <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B6" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C6" s="12">
+      <c r="B6" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="11">
         <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="12"/>
+      <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="77" priority="3">
+    <cfRule type="expression" dxfId="76" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="76" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3973,39 +4652,39 @@
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="14" customFormat="1" ht="18">
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4042,253 +4721,253 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>43185.5</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>43187.5</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="14">
         <v>43185.5</v>
       </c>
-      <c r="J2" s="15"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>43120.888888888891</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>43127.888888888891</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+        <v>230</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="5:10">
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="5:10">
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="5:10">
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="5:10">
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="5:10">
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="5:10">
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="5:10">
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="5:10">
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="5:10">
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="5:10">
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="5:10">
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="5:10">
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="5:10">
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="5:10">
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4313,15 +4992,15 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="14" customFormat="1" ht="18">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4341,10 +5020,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -4352,10 +5031,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -4364,17 +5043,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="69" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4399,18 +5078,18 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="21" customHeight="1">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4425,13 +5104,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4439,69 +5118,69 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="12">
+        <v>211</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="12">
+        <v>211</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="12">
+      <c r="B5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="12">
+        <v>211</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="11">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -4509,74 +5188,74 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="12">
+        <v>213</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="11">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="12">
+        <v>213</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="12">
+        <v>213</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="11">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="66" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="65" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4601,31 +5280,31 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" ht="18">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="64" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="63" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4651,93 +5330,93 @@
   <sheetData>
     <row r="1" spans="1:26" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="V1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4763,22 +5442,22 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4809,602 +5488,602 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>472</v>
+        <v>427</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>472</v>
+        <v>428</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>472</v>
+        <v>429</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>472</v>
+        <v>381</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>473</v>
+        <v>381</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>473</v>
+        <v>381</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>473</v>
+        <v>381</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>473</v>
+        <v>381</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>473</v>
+        <v>381</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>474</v>
+        <v>381</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>474</v>
+        <v>381</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>474</v>
+        <v>381</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>474</v>
+        <v>381</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>474</v>
+        <v>381</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>475</v>
+        <v>381</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>476</v>
+        <v>408</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>476</v>
+        <v>409</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>477</v>
+        <v>410</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>456</v>
+        <v>411</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>457</v>
+        <v>412</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>478</v>
+        <v>413</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>459</v>
+        <v>414</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>479</v>
+        <v>415</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>477</v>
+        <v>416</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>479</v>
+        <v>417</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>479</v>
+        <v>418</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>478</v>
+        <v>419</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>465</v>
+        <v>420</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>466</v>
+        <v>383</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>467</v>
+        <v>383</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>468</v>
+        <v>383</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>469</v>
+        <v>383</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>470</v>
+        <v>383</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>471</v>
+        <v>383</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5430,45 +6109,45 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="55" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5499,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
@@ -5510,10 +6189,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -5521,10 +6200,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -5553,12 +6232,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="89" priority="3">
+    <cfRule type="expression" dxfId="88" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="87" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5585,24 +6264,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5628,21 +6307,21 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="52" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5670,96 +6349,96 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>314</v>
+        <v>296</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>315</v>
+        <v>297</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>316</v>
+        <v>305</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>317</v>
+        <v>306</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>318</v>
+        <v>307</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>319</v>
+        <v>308</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5787,218 +6466,218 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>344</v>
+        <v>322</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>345</v>
+        <v>323</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>346</v>
+        <v>324</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>347</v>
+        <v>325</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>348</v>
+        <v>326</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>349</v>
+        <v>327</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>350</v>
+        <v>328</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>351</v>
+        <v>329</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>352</v>
+        <v>330</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>353</v>
+        <v>331</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>354</v>
+        <v>332</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>355</v>
+        <v>333</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>356</v>
+        <v>334</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>357</v>
+        <v>335</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>358</v>
+        <v>336</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>359</v>
+        <v>337</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>360</v>
+        <v>338</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>314</v>
+        <v>365</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="48" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6026,66 +6705,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>371</v>
+        <v>373</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>372</v>
+        <v>374</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="45" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="44" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6110,24 +6789,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="41" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6152,7 +6831,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -6160,93 +6839,93 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>246</v>
+        <v>254</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>249</v>
+        <v>257</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>250</v>
+        <v>258</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>252</v>
+        <v>260</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6272,51 +6951,51 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6343,30 +7022,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6393,10 +7072,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -6408,12 +7087,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6442,12 +7121,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
@@ -6456,25 +7135,25 @@
       <c r="B2" s="1">
         <v>99</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="6"/>
+        <v>72</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
@@ -6489,7 +7168,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6497,250 +7176,250 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="6"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="6"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="6"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" spans="3:3">
-      <c r="C28" s="6"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" spans="3:3">
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="6"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="6"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="6"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="6"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="6"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" spans="3:3">
-      <c r="C55" s="6"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="6"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="58" spans="3:3">
-      <c r="C58" s="6"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="6"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="6"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" spans="3:3">
-      <c r="C61" s="6"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" spans="3:3">
-      <c r="C62" s="6"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" spans="3:3">
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" s="6"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="3:3">
-      <c r="C67" s="6"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="6"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" spans="3:3">
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" spans="3:3">
-      <c r="C70" s="6"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" spans="3:3">
-      <c r="C72" s="6"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" spans="3:3">
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="76" spans="3:3">
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="3:3">
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="6"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" spans="3:3">
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" spans="3:3">
-      <c r="C85" s="6"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="6"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="6"/>
+      <c r="C88" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="87" priority="3">
+    <cfRule type="expression" dxfId="86" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="86" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6767,33 +7446,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="32" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6819,36 +7498,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6874,27 +7553,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="28" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6924,13 +7603,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -6942,28 +7621,28 @@
       <c r="L1" s="3"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="C11" s="9"/>
+      <c r="C11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:L1">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6988,7 +7667,7 @@
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="10" customWidth="1"/>
     <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
@@ -7003,7 +7682,7 @@
       <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -7014,22 +7693,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="22" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="20" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7067,12 +7746,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="19" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7124,22 +7803,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="16" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7167,19 +7846,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7187,22 +7866,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7230,24 +7909,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7263,7 +7942,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -7277,270 +7956,270 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="D2" s="7">
+        <v>482</v>
+      </c>
+      <c r="D2" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="D3" s="7">
+        <v>483</v>
+      </c>
+      <c r="D3" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D4" s="7">
+        <v>484</v>
+      </c>
+      <c r="D4" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="D5" s="7">
+        <v>479</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="D6" s="7">
+        <v>493</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D7" s="7">
+        <v>494</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D8" s="7">
+        <v>495</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" s="7">
+        <v>496</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="D9" s="6">
         <v>43196.375</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>72781.375</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>43196.375</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="4:6">
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="4:6">
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="4:6">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="4:6">
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="4:6">
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7572,40 +8251,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -7613,1322 +8292,1322 @@
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E3" s="1">
         <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B13" s="7"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B15" s="7"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1">
-      <c r="B16" s="7"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B17" s="7"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B18" s="7"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B20" s="7"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B22" s="7"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B23" s="7"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B24" s="7"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B25" s="7"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B26" s="7"/>
+      <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B27" s="7"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B28" s="7"/>
+      <c r="B28" s="6"/>
     </row>
     <row r="29" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B29" s="7"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B30" s="7"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
     </row>
     <row r="32" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B33" s="7"/>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B36" s="7"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B37" s="7"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B38" s="7"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B39" s="7"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B40" s="7"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B41" s="7"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B42" s="7"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B43" s="7"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B44" s="7"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B45" s="7"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B46" s="7"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B47" s="7"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B48" s="7"/>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B49" s="7"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B50" s="7"/>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B51" s="7"/>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B52" s="7"/>
+      <c r="B52" s="6"/>
     </row>
     <row r="53" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B53" s="7"/>
+      <c r="B53" s="6"/>
     </row>
     <row r="54" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B54" s="7"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B55" s="7"/>
+      <c r="B55" s="6"/>
     </row>
     <row r="56" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B56" s="7"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B57" s="7"/>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B58" s="7"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B59" s="7"/>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B60" s="7"/>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B61" s="7"/>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B62" s="7"/>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B63" s="7"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B64" s="7"/>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B65" s="7"/>
+      <c r="B65" s="6"/>
     </row>
     <row r="66" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B66" s="7"/>
+      <c r="B66" s="6"/>
     </row>
     <row r="67" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B67" s="7"/>
+      <c r="B67" s="6"/>
     </row>
     <row r="68" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B68" s="7"/>
+      <c r="B68" s="6"/>
     </row>
     <row r="69" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B69" s="7"/>
+      <c r="B69" s="6"/>
     </row>
     <row r="70" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B70" s="7"/>
+      <c r="B70" s="6"/>
     </row>
     <row r="71" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B71" s="7"/>
+      <c r="B71" s="6"/>
     </row>
     <row r="72" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B72" s="7"/>
+      <c r="B72" s="6"/>
     </row>
     <row r="73" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B73" s="7"/>
+      <c r="B73" s="6"/>
     </row>
     <row r="74" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B74" s="7"/>
+      <c r="B74" s="6"/>
     </row>
     <row r="75" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B75" s="7"/>
+      <c r="B75" s="6"/>
     </row>
     <row r="76" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B76" s="7"/>
+      <c r="B76" s="6"/>
     </row>
     <row r="77" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B77" s="7"/>
+      <c r="B77" s="6"/>
     </row>
     <row r="78" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B78" s="7"/>
+      <c r="B78" s="6"/>
     </row>
     <row r="79" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B79" s="7"/>
+      <c r="B79" s="6"/>
     </row>
     <row r="80" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B80" s="7"/>
+      <c r="B80" s="6"/>
     </row>
     <row r="81" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B81" s="7"/>
+      <c r="B81" s="6"/>
     </row>
     <row r="82" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B82" s="7"/>
+      <c r="B82" s="6"/>
     </row>
     <row r="83" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B83" s="7"/>
+      <c r="B83" s="6"/>
     </row>
     <row r="84" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B84" s="7"/>
+      <c r="B84" s="6"/>
     </row>
     <row r="85" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B85" s="7"/>
+      <c r="B85" s="6"/>
     </row>
     <row r="86" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B86" s="7"/>
+      <c r="B86" s="6"/>
     </row>
     <row r="87" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B87" s="7"/>
+      <c r="B87" s="6"/>
     </row>
     <row r="88" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B88" s="7"/>
+      <c r="B88" s="6"/>
     </row>
     <row r="89" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B89" s="7"/>
+      <c r="B89" s="6"/>
     </row>
     <row r="90" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B90" s="7"/>
+      <c r="B90" s="6"/>
     </row>
     <row r="91" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B91" s="7"/>
+      <c r="B91" s="6"/>
     </row>
     <row r="92" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B92" s="7"/>
+      <c r="B92" s="6"/>
     </row>
     <row r="93" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B93" s="7"/>
+      <c r="B93" s="6"/>
     </row>
     <row r="94" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B94" s="7"/>
+      <c r="B94" s="6"/>
     </row>
     <row r="95" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B95" s="7"/>
+      <c r="B95" s="6"/>
     </row>
     <row r="96" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B96" s="7"/>
+      <c r="B96" s="6"/>
     </row>
     <row r="97" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B97" s="7"/>
+      <c r="B97" s="6"/>
     </row>
     <row r="98" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B98" s="7"/>
+      <c r="B98" s="6"/>
     </row>
     <row r="99" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B99" s="7"/>
+      <c r="B99" s="6"/>
     </row>
     <row r="100" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B100" s="7"/>
+      <c r="B100" s="6"/>
     </row>
     <row r="101" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B101" s="7"/>
+      <c r="B101" s="6"/>
     </row>
     <row r="102" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B102" s="7"/>
+      <c r="B102" s="6"/>
     </row>
     <row r="103" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B103" s="7"/>
+      <c r="B103" s="6"/>
     </row>
     <row r="104" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B104" s="7"/>
+      <c r="B104" s="6"/>
     </row>
     <row r="105" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B105" s="7"/>
+      <c r="B105" s="6"/>
     </row>
     <row r="106" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B106" s="7"/>
+      <c r="B106" s="6"/>
     </row>
     <row r="107" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B107" s="7"/>
+      <c r="B107" s="6"/>
     </row>
     <row r="108" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B108" s="7"/>
+      <c r="B108" s="6"/>
     </row>
     <row r="109" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B109" s="7"/>
+      <c r="B109" s="6"/>
     </row>
     <row r="110" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B110" s="7"/>
+      <c r="B110" s="6"/>
     </row>
     <row r="111" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B111" s="7"/>
+      <c r="B111" s="6"/>
     </row>
     <row r="112" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B112" s="7"/>
+      <c r="B112" s="6"/>
     </row>
     <row r="113" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B113" s="7"/>
+      <c r="B113" s="6"/>
     </row>
     <row r="114" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B114" s="7"/>
+      <c r="B114" s="6"/>
     </row>
     <row r="115" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B115" s="7"/>
+      <c r="B115" s="6"/>
     </row>
     <row r="116" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B116" s="7"/>
+      <c r="B116" s="6"/>
     </row>
     <row r="117" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B117" s="7"/>
+      <c r="B117" s="6"/>
     </row>
     <row r="118" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B118" s="7"/>
+      <c r="B118" s="6"/>
     </row>
     <row r="119" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B119" s="7"/>
+      <c r="B119" s="6"/>
     </row>
     <row r="120" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B120" s="7"/>
+      <c r="B120" s="6"/>
     </row>
     <row r="121" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B121" s="7"/>
+      <c r="B121" s="6"/>
     </row>
     <row r="122" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B122" s="7"/>
+      <c r="B122" s="6"/>
     </row>
     <row r="123" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B123" s="7"/>
+      <c r="B123" s="6"/>
     </row>
     <row r="124" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B124" s="7"/>
+      <c r="B124" s="6"/>
     </row>
     <row r="125" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B125" s="7"/>
+      <c r="B125" s="6"/>
     </row>
     <row r="126" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B126" s="7"/>
+      <c r="B126" s="6"/>
     </row>
     <row r="127" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B127" s="7"/>
+      <c r="B127" s="6"/>
     </row>
     <row r="128" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B128" s="7"/>
+      <c r="B128" s="6"/>
     </row>
     <row r="129" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B129" s="7"/>
+      <c r="B129" s="6"/>
     </row>
     <row r="130" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B130" s="7"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B131" s="7"/>
+      <c r="B131" s="6"/>
     </row>
     <row r="132" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B132" s="7"/>
+      <c r="B132" s="6"/>
     </row>
     <row r="133" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B133" s="7"/>
+      <c r="B133" s="6"/>
     </row>
     <row r="134" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B134" s="7"/>
+      <c r="B134" s="6"/>
     </row>
     <row r="135" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B135" s="7"/>
+      <c r="B135" s="6"/>
     </row>
     <row r="136" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B136" s="7"/>
+      <c r="B136" s="6"/>
     </row>
     <row r="137" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B137" s="7"/>
+      <c r="B137" s="6"/>
     </row>
     <row r="138" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B138" s="7"/>
+      <c r="B138" s="6"/>
     </row>
     <row r="139" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B139" s="7"/>
+      <c r="B139" s="6"/>
     </row>
     <row r="140" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B140" s="7"/>
+      <c r="B140" s="6"/>
     </row>
     <row r="141" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B141" s="7"/>
+      <c r="B141" s="6"/>
     </row>
     <row r="142" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B142" s="7"/>
+      <c r="B142" s="6"/>
     </row>
     <row r="143" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B143" s="7"/>
+      <c r="B143" s="6"/>
     </row>
     <row r="144" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B144" s="7"/>
+      <c r="B144" s="6"/>
     </row>
     <row r="145" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B145" s="7"/>
+      <c r="B145" s="6"/>
     </row>
     <row r="146" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B146" s="7"/>
+      <c r="B146" s="6"/>
     </row>
     <row r="147" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B147" s="7"/>
+      <c r="B147" s="6"/>
     </row>
     <row r="148" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B148" s="7"/>
+      <c r="B148" s="6"/>
     </row>
     <row r="149" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B149" s="7"/>
+      <c r="B149" s="6"/>
     </row>
     <row r="150" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B150" s="7"/>
+      <c r="B150" s="6"/>
     </row>
     <row r="151" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B151" s="7"/>
+      <c r="B151" s="6"/>
     </row>
     <row r="152" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B152" s="7"/>
+      <c r="B152" s="6"/>
     </row>
     <row r="153" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B153" s="7"/>
+      <c r="B153" s="6"/>
     </row>
     <row r="154" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B154" s="7"/>
+      <c r="B154" s="6"/>
     </row>
     <row r="155" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B155" s="7"/>
+      <c r="B155" s="6"/>
     </row>
     <row r="156" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B156" s="7"/>
+      <c r="B156" s="6"/>
     </row>
     <row r="157" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B157" s="7"/>
+      <c r="B157" s="6"/>
     </row>
     <row r="158" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B158" s="7"/>
+      <c r="B158" s="6"/>
     </row>
     <row r="159" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B159" s="7"/>
+      <c r="B159" s="6"/>
     </row>
     <row r="160" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B160" s="7"/>
+      <c r="B160" s="6"/>
     </row>
     <row r="161" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B161" s="7"/>
+      <c r="B161" s="6"/>
     </row>
     <row r="162" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B162" s="7"/>
+      <c r="B162" s="6"/>
     </row>
     <row r="163" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B163" s="7"/>
+      <c r="B163" s="6"/>
     </row>
     <row r="164" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B164" s="7"/>
+      <c r="B164" s="6"/>
     </row>
     <row r="165" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B165" s="7"/>
+      <c r="B165" s="6"/>
     </row>
     <row r="166" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B166" s="7"/>
+      <c r="B166" s="6"/>
     </row>
     <row r="167" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B167" s="7"/>
+      <c r="B167" s="6"/>
     </row>
     <row r="168" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B168" s="7"/>
+      <c r="B168" s="6"/>
     </row>
     <row r="169" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B169" s="7"/>
+      <c r="B169" s="6"/>
     </row>
     <row r="170" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B170" s="7"/>
+      <c r="B170" s="6"/>
     </row>
     <row r="171" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B171" s="7"/>
+      <c r="B171" s="6"/>
     </row>
     <row r="172" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B172" s="7"/>
+      <c r="B172" s="6"/>
     </row>
     <row r="173" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B173" s="7"/>
+      <c r="B173" s="6"/>
     </row>
     <row r="174" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B174" s="7"/>
+      <c r="B174" s="6"/>
     </row>
     <row r="175" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B175" s="7"/>
+      <c r="B175" s="6"/>
     </row>
     <row r="176" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B176" s="7"/>
+      <c r="B176" s="6"/>
     </row>
     <row r="177" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B177" s="7"/>
+      <c r="B177" s="6"/>
     </row>
     <row r="178" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B178" s="7"/>
+      <c r="B178" s="6"/>
     </row>
     <row r="179" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B179" s="7"/>
+      <c r="B179" s="6"/>
     </row>
     <row r="180" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B180" s="7"/>
+      <c r="B180" s="6"/>
     </row>
     <row r="181" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B181" s="7"/>
+      <c r="B181" s="6"/>
     </row>
     <row r="182" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B182" s="7"/>
+      <c r="B182" s="6"/>
     </row>
     <row r="183" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B183" s="7"/>
+      <c r="B183" s="6"/>
     </row>
     <row r="184" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B184" s="7"/>
+      <c r="B184" s="6"/>
     </row>
     <row r="185" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B185" s="7"/>
+      <c r="B185" s="6"/>
     </row>
     <row r="186" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B186" s="7"/>
+      <c r="B186" s="6"/>
     </row>
     <row r="187" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B187" s="7"/>
+      <c r="B187" s="6"/>
     </row>
     <row r="188" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B188" s="7"/>
+      <c r="B188" s="6"/>
     </row>
     <row r="189" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B189" s="7"/>
+      <c r="B189" s="6"/>
     </row>
     <row r="190" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B190" s="7"/>
+      <c r="B190" s="6"/>
     </row>
     <row r="191" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B191" s="7"/>
+      <c r="B191" s="6"/>
     </row>
     <row r="192" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B192" s="7"/>
+      <c r="B192" s="6"/>
     </row>
     <row r="193" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B193" s="7"/>
+      <c r="B193" s="6"/>
     </row>
     <row r="194" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B194" s="7"/>
+      <c r="B194" s="6"/>
     </row>
     <row r="195" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B195" s="7"/>
+      <c r="B195" s="6"/>
     </row>
     <row r="196" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B196" s="7"/>
+      <c r="B196" s="6"/>
     </row>
     <row r="197" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B197" s="7"/>
+      <c r="B197" s="6"/>
     </row>
     <row r="198" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B198" s="7"/>
+      <c r="B198" s="6"/>
     </row>
     <row r="199" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B199" s="7"/>
+      <c r="B199" s="6"/>
     </row>
     <row r="200" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B200" s="7"/>
+      <c r="B200" s="6"/>
     </row>
     <row r="201" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B201" s="7"/>
+      <c r="B201" s="6"/>
     </row>
     <row r="202" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B202" s="7"/>
+      <c r="B202" s="6"/>
     </row>
     <row r="203" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B203" s="7"/>
+      <c r="B203" s="6"/>
     </row>
     <row r="204" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B204" s="7"/>
+      <c r="B204" s="6"/>
     </row>
     <row r="205" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B205" s="7"/>
+      <c r="B205" s="6"/>
     </row>
     <row r="206" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B206" s="7"/>
+      <c r="B206" s="6"/>
     </row>
     <row r="207" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B207" s="7"/>
+      <c r="B207" s="6"/>
     </row>
     <row r="208" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B208" s="7"/>
+      <c r="B208" s="6"/>
     </row>
     <row r="209" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B209" s="7"/>
+      <c r="B209" s="6"/>
     </row>
     <row r="210" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B210" s="7"/>
+      <c r="B210" s="6"/>
     </row>
     <row r="211" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B211" s="7"/>
+      <c r="B211" s="6"/>
     </row>
     <row r="212" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B212" s="7"/>
+      <c r="B212" s="6"/>
     </row>
     <row r="213" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B213" s="7"/>
+      <c r="B213" s="6"/>
     </row>
     <row r="214" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B214" s="7"/>
+      <c r="B214" s="6"/>
     </row>
     <row r="215" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B215" s="7"/>
+      <c r="B215" s="6"/>
     </row>
     <row r="216" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B216" s="7"/>
+      <c r="B216" s="6"/>
     </row>
     <row r="217" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B217" s="7"/>
+      <c r="B217" s="6"/>
     </row>
     <row r="218" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B218" s="7"/>
+      <c r="B218" s="6"/>
     </row>
     <row r="219" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B219" s="7"/>
+      <c r="B219" s="6"/>
     </row>
     <row r="220" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B220" s="7"/>
+      <c r="B220" s="6"/>
     </row>
     <row r="221" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B221" s="7"/>
+      <c r="B221" s="6"/>
     </row>
     <row r="222" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B222" s="7"/>
+      <c r="B222" s="6"/>
     </row>
     <row r="223" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B223" s="7"/>
+      <c r="B223" s="6"/>
     </row>
     <row r="224" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B224" s="7"/>
+      <c r="B224" s="6"/>
     </row>
     <row r="225" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B225" s="7"/>
+      <c r="B225" s="6"/>
     </row>
     <row r="226" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B226" s="7"/>
+      <c r="B226" s="6"/>
     </row>
     <row r="227" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B227" s="7"/>
+      <c r="B227" s="6"/>
     </row>
     <row r="228" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B228" s="7"/>
+      <c r="B228" s="6"/>
     </row>
     <row r="229" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B229" s="7"/>
+      <c r="B229" s="6"/>
     </row>
     <row r="230" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B230" s="7"/>
+      <c r="B230" s="6"/>
     </row>
     <row r="231" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B231" s="7"/>
+      <c r="B231" s="6"/>
     </row>
     <row r="232" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B232" s="7"/>
+      <c r="B232" s="6"/>
     </row>
     <row r="233" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B233" s="7"/>
+      <c r="B233" s="6"/>
     </row>
     <row r="234" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B234" s="7"/>
+      <c r="B234" s="6"/>
     </row>
     <row r="235" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B235" s="7"/>
+      <c r="B235" s="6"/>
     </row>
     <row r="236" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B236" s="7"/>
+      <c r="B236" s="6"/>
     </row>
     <row r="237" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B237" s="7"/>
+      <c r="B237" s="6"/>
     </row>
     <row r="238" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B238" s="7"/>
+      <c r="B238" s="6"/>
     </row>
     <row r="239" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B239" s="7"/>
+      <c r="B239" s="6"/>
     </row>
     <row r="240" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B240" s="7"/>
+      <c r="B240" s="6"/>
     </row>
     <row r="241" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B241" s="7"/>
+      <c r="B241" s="6"/>
     </row>
     <row r="242" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B242" s="7"/>
+      <c r="B242" s="6"/>
     </row>
     <row r="243" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B243" s="7"/>
+      <c r="B243" s="6"/>
     </row>
     <row r="244" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B244" s="7"/>
+      <c r="B244" s="6"/>
     </row>
     <row r="245" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B245" s="7"/>
+      <c r="B245" s="6"/>
     </row>
     <row r="246" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B246" s="7"/>
+      <c r="B246" s="6"/>
     </row>
     <row r="247" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B247" s="7"/>
+      <c r="B247" s="6"/>
     </row>
     <row r="248" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B248" s="7"/>
+      <c r="B248" s="6"/>
     </row>
     <row r="249" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B249" s="7"/>
+      <c r="B249" s="6"/>
     </row>
     <row r="250" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B250" s="7"/>
+      <c r="B250" s="6"/>
     </row>
     <row r="251" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B251" s="7"/>
+      <c r="B251" s="6"/>
     </row>
     <row r="252" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B252" s="7"/>
+      <c r="B252" s="6"/>
     </row>
     <row r="253" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B253" s="7"/>
+      <c r="B253" s="6"/>
     </row>
     <row r="254" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B254" s="7"/>
+      <c r="B254" s="6"/>
     </row>
     <row r="255" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B255" s="7"/>
+      <c r="B255" s="6"/>
     </row>
     <row r="256" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B256" s="7"/>
+      <c r="B256" s="6"/>
     </row>
     <row r="257" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B257" s="7"/>
+      <c r="B257" s="6"/>
     </row>
     <row r="258" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B258" s="7"/>
+      <c r="B258" s="6"/>
     </row>
     <row r="259" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B259" s="7"/>
+      <c r="B259" s="6"/>
     </row>
     <row r="260" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B260" s="7"/>
+      <c r="B260" s="6"/>
     </row>
     <row r="261" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B261" s="7"/>
+      <c r="B261" s="6"/>
     </row>
     <row r="262" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B262" s="7"/>
+      <c r="B262" s="6"/>
     </row>
     <row r="263" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B263" s="7"/>
+      <c r="B263" s="6"/>
     </row>
     <row r="264" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B264" s="7"/>
+      <c r="B264" s="6"/>
     </row>
     <row r="265" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B265" s="7"/>
+      <c r="B265" s="6"/>
     </row>
     <row r="266" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B266" s="7"/>
+      <c r="B266" s="6"/>
     </row>
     <row r="267" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B267" s="7"/>
+      <c r="B267" s="6"/>
     </row>
     <row r="268" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B268" s="7"/>
+      <c r="B268" s="6"/>
     </row>
     <row r="269" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B269" s="7"/>
+      <c r="B269" s="6"/>
     </row>
     <row r="270" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B270" s="7"/>
+      <c r="B270" s="6"/>
     </row>
     <row r="271" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B271" s="7"/>
+      <c r="B271" s="6"/>
     </row>
     <row r="272" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B272" s="7"/>
+      <c r="B272" s="6"/>
     </row>
     <row r="273" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B273" s="7"/>
+      <c r="B273" s="6"/>
     </row>
     <row r="274" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B274" s="7"/>
+      <c r="B274" s="6"/>
     </row>
     <row r="275" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B275" s="7"/>
+      <c r="B275" s="6"/>
     </row>
     <row r="276" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B276" s="7"/>
+      <c r="B276" s="6"/>
     </row>
     <row r="277" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B277" s="7"/>
+      <c r="B277" s="6"/>
     </row>
     <row r="278" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B278" s="7"/>
+      <c r="B278" s="6"/>
     </row>
     <row r="279" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B279" s="7"/>
+      <c r="B279" s="6"/>
     </row>
     <row r="280" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B280" s="7"/>
+      <c r="B280" s="6"/>
     </row>
     <row r="281" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B281" s="7"/>
+      <c r="B281" s="6"/>
     </row>
     <row r="282" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B282" s="7"/>
+      <c r="B282" s="6"/>
     </row>
     <row r="283" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B283" s="7"/>
+      <c r="B283" s="6"/>
     </row>
     <row r="284" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B284" s="7"/>
+      <c r="B284" s="6"/>
     </row>
     <row r="285" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B285" s="7"/>
+      <c r="B285" s="6"/>
     </row>
     <row r="286" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B286" s="7"/>
+      <c r="B286" s="6"/>
     </row>
     <row r="287" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B287" s="7"/>
+      <c r="B287" s="6"/>
     </row>
     <row r="288" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B288" s="7"/>
+      <c r="B288" s="6"/>
     </row>
     <row r="289" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B289" s="7"/>
+      <c r="B289" s="6"/>
     </row>
     <row r="290" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B290" s="7"/>
+      <c r="B290" s="6"/>
     </row>
     <row r="291" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B291" s="7"/>
+      <c r="B291" s="6"/>
     </row>
     <row r="292" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B292" s="7"/>
+      <c r="B292" s="6"/>
     </row>
     <row r="293" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B293" s="7"/>
+      <c r="B293" s="6"/>
     </row>
     <row r="294" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B294" s="7"/>
+      <c r="B294" s="6"/>
     </row>
     <row r="295" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B295" s="7"/>
+      <c r="B295" s="6"/>
     </row>
     <row r="296" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B296" s="7"/>
+      <c r="B296" s="6"/>
     </row>
     <row r="297" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B297" s="7"/>
+      <c r="B297" s="6"/>
     </row>
     <row r="298" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B298" s="7"/>
+      <c r="B298" s="6"/>
     </row>
     <row r="299" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B299" s="7"/>
+      <c r="B299" s="6"/>
     </row>
     <row r="300" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B300" s="7"/>
+      <c r="B300" s="6"/>
     </row>
     <row r="301" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B301" s="7"/>
+      <c r="B301" s="6"/>
     </row>
     <row r="302" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B302" s="7"/>
+      <c r="B302" s="6"/>
     </row>
     <row r="303" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B303" s="7"/>
+      <c r="B303" s="6"/>
     </row>
     <row r="304" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B304" s="7"/>
+      <c r="B304" s="6"/>
     </row>
     <row r="305" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B305" s="7"/>
+      <c r="B305" s="6"/>
     </row>
     <row r="306" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B306" s="7"/>
+      <c r="B306" s="6"/>
     </row>
     <row r="307" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B307" s="7"/>
+      <c r="B307" s="6"/>
     </row>
     <row r="308" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B308" s="7"/>
+      <c r="B308" s="6"/>
     </row>
     <row r="309" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B309" s="7"/>
+      <c r="B309" s="6"/>
     </row>
     <row r="310" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B310" s="7"/>
+      <c r="B310" s="6"/>
     </row>
     <row r="311" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B311" s="7"/>
+      <c r="B311" s="6"/>
     </row>
     <row r="312" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B312" s="7"/>
+      <c r="B312" s="6"/>
     </row>
     <row r="313" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B313" s="7"/>
+      <c r="B313" s="6"/>
     </row>
     <row r="314" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B314" s="7"/>
+      <c r="B314" s="6"/>
     </row>
     <row r="315" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B315" s="7"/>
+      <c r="B315" s="6"/>
     </row>
     <row r="316" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B316" s="7"/>
+      <c r="B316" s="6"/>
     </row>
     <row r="317" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B317" s="7"/>
+      <c r="B317" s="6"/>
     </row>
     <row r="318" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B318" s="7"/>
+      <c r="B318" s="6"/>
     </row>
     <row r="319" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B319" s="7"/>
+      <c r="B319" s="6"/>
     </row>
     <row r="320" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B320" s="7"/>
+      <c r="B320" s="6"/>
     </row>
     <row r="321" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B321" s="7"/>
+      <c r="B321" s="6"/>
     </row>
     <row r="322" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B322" s="7"/>
+      <c r="B322" s="6"/>
     </row>
     <row r="323" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B323" s="7"/>
+      <c r="B323" s="6"/>
     </row>
     <row r="324" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B324" s="7"/>
+      <c r="B324" s="6"/>
     </row>
     <row r="325" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B325" s="7"/>
+      <c r="B325" s="6"/>
     </row>
     <row r="326" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B326" s="7"/>
+      <c r="B326" s="6"/>
     </row>
     <row r="327" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B327" s="7"/>
+      <c r="B327" s="6"/>
     </row>
     <row r="328" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B328" s="7"/>
+      <c r="B328" s="6"/>
     </row>
     <row r="329" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B329" s="7"/>
+      <c r="B329" s="6"/>
     </row>
     <row r="330" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B330" s="7"/>
+      <c r="B330" s="6"/>
     </row>
     <row r="331" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B331" s="7"/>
+      <c r="B331" s="6"/>
     </row>
     <row r="332" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B332" s="7"/>
+      <c r="B332" s="6"/>
     </row>
     <row r="333" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B333" s="7"/>
+      <c r="B333" s="6"/>
     </row>
     <row r="334" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B334" s="7"/>
+      <c r="B334" s="6"/>
     </row>
     <row r="335" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B335" s="7"/>
+      <c r="B335" s="6"/>
     </row>
     <row r="336" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B336" s="7"/>
+      <c r="B336" s="6"/>
     </row>
     <row r="337" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B337" s="7"/>
+      <c r="B337" s="6"/>
     </row>
     <row r="338" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B338" s="7"/>
+      <c r="B338" s="6"/>
     </row>
     <row r="339" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B339" s="7"/>
+      <c r="B339" s="6"/>
     </row>
     <row r="340" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B340" s="7"/>
+      <c r="B340" s="6"/>
     </row>
     <row r="341" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B341" s="7"/>
+      <c r="B341" s="6"/>
     </row>
     <row r="342" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B342" s="7"/>
+      <c r="B342" s="6"/>
     </row>
     <row r="343" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B343" s="7"/>
+      <c r="B343" s="6"/>
     </row>
     <row r="344" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B344" s="7"/>
+      <c r="B344" s="6"/>
     </row>
     <row r="345" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B345" s="7"/>
+      <c r="B345" s="6"/>
     </row>
     <row r="346" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B346" s="7"/>
+      <c r="B346" s="6"/>
     </row>
     <row r="347" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B347" s="7"/>
+      <c r="B347" s="6"/>
     </row>
     <row r="348" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B348" s="7"/>
+      <c r="B348" s="6"/>
     </row>
     <row r="349" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B349" s="7"/>
+      <c r="B349" s="6"/>
     </row>
     <row r="350" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B350" s="7"/>
-      <c r="C350" s="8"/>
+      <c r="B350" s="6"/>
+      <c r="C350" s="7"/>
     </row>
     <row r="352" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B352" s="7"/>
+      <c r="B352" s="6"/>
     </row>
     <row r="353" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B353" s="7"/>
+      <c r="B353" s="6"/>
     </row>
     <row r="354" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B354" s="7"/>
+      <c r="B354" s="6"/>
     </row>
     <row r="355" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B355" s="7"/>
+      <c r="B355" s="6"/>
     </row>
     <row r="356" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B356" s="7"/>
+      <c r="B356" s="6"/>
     </row>
     <row r="357" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B357" s="7"/>
+      <c r="B357" s="6"/>
     </row>
     <row r="358" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B358" s="7"/>
+      <c r="B358" s="6"/>
     </row>
     <row r="359" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B359" s="7"/>
+      <c r="B359" s="6"/>
     </row>
     <row r="360" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B360" s="7"/>
+      <c r="B360" s="6"/>
     </row>
     <row r="361" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B361" s="7"/>
+      <c r="B361" s="6"/>
     </row>
     <row r="362" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B362" s="7"/>
+      <c r="B362" s="6"/>
     </row>
     <row r="363" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B363" s="7"/>
+      <c r="B363" s="6"/>
     </row>
     <row r="364" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B364" s="7"/>
+      <c r="B364" s="6"/>
     </row>
     <row r="365" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B365" s="7"/>
+      <c r="B365" s="6"/>
     </row>
     <row r="366" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B366" s="7"/>
+      <c r="B366" s="6"/>
     </row>
     <row r="367" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B367" s="7"/>
+      <c r="B367" s="6"/>
     </row>
     <row r="368" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B368" s="7"/>
+      <c r="B368" s="6"/>
     </row>
     <row r="369" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B369" s="7"/>
+      <c r="B369" s="6"/>
     </row>
     <row r="370" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B370" s="7"/>
+      <c r="B370" s="6"/>
     </row>
     <row r="371" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B371" s="7"/>
+      <c r="B371" s="6"/>
     </row>
     <row r="372" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B372" s="7"/>
+      <c r="B372" s="6"/>
     </row>
     <row r="373" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B373" s="7"/>
+      <c r="B373" s="6"/>
     </row>
     <row r="374" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B374" s="7"/>
+      <c r="B374" s="6"/>
     </row>
     <row r="375" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B375" s="7"/>
+      <c r="B375" s="6"/>
     </row>
     <row r="376" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B376" s="7"/>
+      <c r="B376" s="6"/>
     </row>
     <row r="377" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B377" s="7"/>
+      <c r="B377" s="6"/>
     </row>
     <row r="378" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B378" s="7"/>
+      <c r="B378" s="6"/>
     </row>
     <row r="379" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B379" s="7"/>
+      <c r="B379" s="6"/>
     </row>
     <row r="380" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B380" s="7"/>
+      <c r="B380" s="6"/>
     </row>
     <row r="381" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B381" s="7"/>
+      <c r="B381" s="6"/>
     </row>
     <row r="382" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B382" s="7"/>
+      <c r="B382" s="6"/>
     </row>
     <row r="383" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B383" s="7"/>
+      <c r="B383" s="6"/>
     </row>
     <row r="384" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B384" s="7"/>
+      <c r="B384" s="6"/>
     </row>
     <row r="385" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B385" s="7"/>
+      <c r="B385" s="6"/>
     </row>
     <row r="386" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B386" s="7"/>
+      <c r="B386" s="6"/>
     </row>
     <row r="387" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B387" s="7"/>
+      <c r="B387" s="6"/>
     </row>
     <row r="388" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B388" s="7"/>
+      <c r="B388" s="6"/>
     </row>
     <row r="389" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B389" s="7"/>
+      <c r="B389" s="6"/>
     </row>
     <row r="390" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B390" s="7"/>
+      <c r="B390" s="6"/>
     </row>
     <row r="391" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B391" s="7"/>
+      <c r="B391" s="6"/>
     </row>
     <row r="392" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B392" s="7"/>
+      <c r="B392" s="6"/>
     </row>
     <row r="393" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B393" s="7"/>
+      <c r="B393" s="6"/>
     </row>
     <row r="394" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B394" s="7"/>
+      <c r="B394" s="6"/>
     </row>
     <row r="395" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B395" s="7"/>
+      <c r="B395" s="6"/>
     </row>
     <row r="396" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B396" s="7"/>
+      <c r="B396" s="6"/>
     </row>
     <row r="397" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B397" s="7"/>
+      <c r="B397" s="6"/>
     </row>
     <row r="398" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B398" s="7"/>
+      <c r="B398" s="6"/>
     </row>
     <row r="399" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B399" s="7"/>
+      <c r="B399" s="6"/>
     </row>
     <row r="400" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B400" s="7"/>
+      <c r="B400" s="6"/>
     </row>
     <row r="401" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B401" s="7"/>
+      <c r="B401" s="6"/>
     </row>
     <row r="402" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B402" s="7"/>
+      <c r="B402" s="6"/>
     </row>
     <row r="403" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B403" s="7"/>
+      <c r="B403" s="6"/>
     </row>
     <row r="404" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B404" s="7"/>
+      <c r="B404" s="6"/>
     </row>
     <row r="405" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B405" s="7"/>
+      <c r="B405" s="6"/>
     </row>
     <row r="406" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B406" s="7"/>
+      <c r="B406" s="6"/>
     </row>
     <row r="407" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B407" s="7"/>
+      <c r="B407" s="6"/>
     </row>
     <row r="408" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B408" s="7"/>
+      <c r="B408" s="6"/>
     </row>
     <row r="409" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B409" s="7"/>
+      <c r="B409" s="6"/>
     </row>
     <row r="410" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B410" s="7"/>
+      <c r="B410" s="6"/>
     </row>
     <row r="411" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B411" s="7"/>
+      <c r="B411" s="6"/>
     </row>
     <row r="412" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B412" s="7"/>
+      <c r="B412" s="6"/>
     </row>
     <row r="413" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B413" s="7"/>
+      <c r="B413" s="6"/>
     </row>
     <row r="414" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B414" s="7"/>
+      <c r="B414" s="6"/>
     </row>
     <row r="415" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B415" s="7"/>
+      <c r="B415" s="6"/>
     </row>
     <row r="416" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B416" s="7"/>
+      <c r="B416" s="6"/>
     </row>
     <row r="417" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B417" s="7"/>
+      <c r="B417" s="6"/>
     </row>
     <row r="418" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B418" s="7"/>
+      <c r="B418" s="6"/>
     </row>
     <row r="419" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B419" s="7"/>
+      <c r="B419" s="6"/>
     </row>
     <row r="420" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B420" s="7"/>
+      <c r="B420" s="6"/>
     </row>
     <row r="421" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B421" s="7"/>
+      <c r="B421" s="6"/>
     </row>
     <row r="422" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B422" s="7"/>
+      <c r="B422" s="6"/>
     </row>
     <row r="423" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B423" s="7"/>
+      <c r="B423" s="6"/>
     </row>
     <row r="424" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B424" s="7"/>
+      <c r="B424" s="6"/>
     </row>
     <row r="425" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B425" s="7"/>
+      <c r="B425" s="6"/>
     </row>
     <row r="426" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B426" s="7"/>
+      <c r="B426" s="6"/>
     </row>
     <row r="427" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B427" s="7"/>
+      <c r="B427" s="6"/>
     </row>
     <row r="428" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B428" s="7"/>
+      <c r="B428" s="6"/>
     </row>
     <row r="429" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B429" s="7"/>
+      <c r="B429" s="6"/>
     </row>
     <row r="430" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B430" s="7"/>
+      <c r="B430" s="6"/>
     </row>
     <row r="431" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B431" s="7"/>
+      <c r="B431" s="6"/>
     </row>
     <row r="432" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B432" s="7"/>
+      <c r="B432" s="6"/>
     </row>
     <row r="433" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B433" s="7"/>
+      <c r="B433" s="6"/>
     </row>
     <row r="434" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B434" s="7"/>
+      <c r="B434" s="6"/>
     </row>
     <row r="435" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B435" s="7"/>
+      <c r="B435" s="6"/>
     </row>
     <row r="436" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B436" s="7"/>
+      <c r="B436" s="6"/>
     </row>
     <row r="437" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B437" s="7"/>
+      <c r="B437" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="84" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8957,13 +9636,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8975,10 +9654,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8986,10 +9665,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8997,10 +9676,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9008,10 +9687,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9019,10 +9698,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9030,10 +9709,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9041,10 +9720,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9052,10 +9731,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9063,10 +9742,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9074,10 +9753,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9085,10 +9764,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9096,10 +9775,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9107,10 +9786,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9118,10 +9797,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9129,10 +9808,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9140,10 +9819,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9151,10 +9830,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9162,10 +9841,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9173,10 +9852,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9184,10 +9863,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9195,10 +9874,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9206,10 +9885,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9217,10 +9896,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9228,10 +9907,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9239,10 +9918,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9250,10 +9929,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9261,10 +9940,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9272,10 +9951,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9283,10 +9962,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9294,10 +9973,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9305,10 +9984,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9316,10 +9995,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -9327,10 +10006,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -9338,10 +10017,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -9349,10 +10028,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -9360,10 +10039,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9371,10 +10050,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9382,10 +10061,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9393,10 +10072,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9404,10 +10083,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9415,10 +10094,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9426,10 +10105,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -9437,10 +10116,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -9448,10 +10127,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -9459,10 +10138,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -9470,10 +10149,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -9481,31 +10160,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9539,100 +10218,100 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>82</v>
       </c>
       <c r="F2" s="1">
         <v>28</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="F3" s="1">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="83" priority="3">
+    <cfRule type="expression" dxfId="82" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9679,24 +10358,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9721,35 +10400,35 @@
     <col min="2" max="2" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -9757,13 +10436,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -9773,12 +10452,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9803,7 +10482,7 @@
     <col min="2" max="2" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -9812,14 +10491,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1"/>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -9827,12 +10506,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="78" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="614">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -334,10 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>zip_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -415,10 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>676-0022</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高砂市</t>
     <rPh sb="0" eb="2">
       <t>タカサゴ</t>
@@ -705,10 +697,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>send_zip_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>send_pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,10 +718,6 @@
   </si>
   <si>
     <t>arrive_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrive_zip_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2825,6 +2809,34 @@
   </si>
   <si>
     <t>http://s3.transporter.fun/img/photo/2018/04/UPL-180406-174019-Et9GY_md.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zip2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send_zip1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send_zip2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrive_zip1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrive_zip2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2982,7 +2994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3031,6 +3043,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -3049,7 +3064,49 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="97">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3989,7 +4046,7 @@
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
@@ -4071,7 +4128,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
@@ -4092,7 +4149,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.25" customHeight="1">
@@ -4109,10 +4166,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>44</v>
@@ -4133,386 +4190,386 @@
         <v>49</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="20.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="20.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.25" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="20.25" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.25" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:Q1">
-    <cfRule type="expression" dxfId="90" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="89" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4541,21 +4598,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4563,10 +4620,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4574,10 +4631,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4585,10 +4642,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4596,10 +4653,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4617,17 +4674,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="76" priority="3">
+    <cfRule type="expression" dxfId="79" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4657,34 +4714,34 @@
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4721,39 +4778,39 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E2" s="14">
         <v>43185.5</v>
@@ -4771,16 +4828,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E3" s="14">
         <v>43120.888888888891</v>
@@ -4792,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4962,12 +5019,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="73" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4994,13 +5051,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5020,10 +5077,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -5031,10 +5088,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -5043,17 +5100,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="71" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5080,16 +5137,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5104,13 +5161,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5118,13 +5175,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -5132,13 +5189,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -5146,13 +5203,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -5160,13 +5217,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -5174,13 +5231,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5188,13 +5245,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5202,13 +5259,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5216,13 +5273,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>217</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5230,13 +5287,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5245,17 +5302,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="67" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5285,26 +5342,26 @@
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5317,10 +5374,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5328,95 +5385,111 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="60" priority="2">
+  <conditionalFormatting sqref="A1:G1 I1:O1 Q1:XFD1">
+    <cfRule type="expression" dxfId="63" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="62" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="61" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5442,22 +5515,22 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="60" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5488,602 +5561,602 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="58" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6109,45 +6182,45 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6189,10 +6262,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6200,10 +6273,10 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6232,12 +6305,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="88" priority="3">
+    <cfRule type="expression" dxfId="92" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="91" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6264,24 +6337,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="54" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6307,21 +6380,21 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6349,82 +6422,82 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6433,12 +6506,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="49" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6466,218 +6539,218 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="49" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6705,66 +6778,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6789,24 +6862,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6831,7 +6904,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -6839,93 +6912,93 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6951,51 +7024,51 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="37" priority="1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7022,30 +7095,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7072,10 +7145,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -7087,12 +7160,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7142,7 +7215,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -7151,7 +7224,7 @@
         <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -7168,7 +7241,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7176,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -7414,12 +7487,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="86" priority="3">
+    <cfRule type="expression" dxfId="90" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="85" priority="2">
+    <cfRule type="expression" dxfId="89" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7446,33 +7519,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7498,36 +7571,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7553,27 +7626,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="29" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7603,13 +7676,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7632,17 +7705,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="27" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:L1">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7693,22 +7766,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="24" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7746,12 +7819,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7803,22 +7876,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="18" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="16" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7846,19 +7919,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7866,22 +7939,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="12" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7909,7 +7982,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -7921,12 +7994,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7956,35 +8029,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -7998,13 +8071,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -8018,13 +8091,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -8038,13 +8111,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -8058,13 +8131,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8078,13 +8151,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8098,13 +8171,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8118,13 +8191,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -8209,17 +8282,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8275,16 +8348,16 @@
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -8292,13 +8365,13 @@
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1">
         <v>4.2</v>
@@ -9607,7 +9680,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="84" priority="2">
+    <cfRule type="expression" dxfId="88" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9636,13 +9709,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -9654,10 +9727,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9665,10 +9738,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9676,10 +9749,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9687,10 +9760,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9698,10 +9771,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9709,10 +9782,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9720,10 +9793,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9731,10 +9804,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9742,10 +9815,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9753,10 +9826,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9764,10 +9837,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9775,10 +9848,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9786,10 +9859,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9797,10 +9870,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9808,10 +9881,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9819,10 +9892,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9830,10 +9903,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9841,10 +9914,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9852,10 +9925,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9863,10 +9936,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9874,10 +9947,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9885,10 +9958,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9896,10 +9969,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9907,10 +9980,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9918,10 +9991,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9929,10 +10002,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9940,10 +10013,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9951,10 +10024,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9962,10 +10035,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9973,10 +10046,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9984,10 +10057,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -9995,10 +10068,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10006,10 +10079,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10017,10 +10090,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10028,10 +10101,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10039,10 +10112,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10050,10 +10123,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10061,10 +10134,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10072,10 +10145,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10083,10 +10156,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10094,10 +10167,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10105,10 +10178,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10116,10 +10189,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10127,10 +10200,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10138,10 +10211,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10149,10 +10222,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10160,31 +10233,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10197,10 +10270,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -10209,14 +10282,14 @@
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="5" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
@@ -10230,88 +10303,102 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="11">
+        <v>676</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="11">
+        <v>676</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" s="1">
+        <v>28</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1">
-        <v>28</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1">
-        <v>28</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1:I1">
-    <cfRule type="expression" dxfId="83" priority="4">
+  <conditionalFormatting sqref="B1:D1 F1:J1">
+    <cfRule type="expression" dxfId="87" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="86" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10358,24 +10445,24 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="81" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10402,7 +10489,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -10419,16 +10506,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -10436,13 +10523,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
@@ -10452,12 +10539,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="83" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="82" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10506,12 +10593,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="81" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="80" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/akito/www.transporter.fun/root/laravel/database/seeds/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2BBEF-6AE0-B443-888D-2D305C51F2CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="15"/>
+    <workbookView xWindow="1360" yWindow="2280" windowWidth="36440" windowHeight="16440" tabRatio="880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="610">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -375,10 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADR-180326-165310-aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -602,9 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OWN-180326-165310-aaaaa</t>
-  </si>
-  <si>
     <t>OWN-180326-165310-aaaab</t>
   </si>
   <si>
@@ -612,33 +611,6 @@
   </si>
   <si>
     <t>CRR-180326-165310-aaaab</t>
-  </si>
-  <si>
-    <t>ハリマニックス株式会社</t>
-    <rPh sb="7" eb="11">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企画制作課</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主任</t>
-    <rPh sb="0" eb="2">
-      <t>シュニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>carrier_id</t>
@@ -2837,13 +2809,17 @@
   </si>
   <si>
     <t>arrive_zip2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_account</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\&amp;&quot;0:00:00&quot;"/>
@@ -3064,7 +3040,42 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3750,6 +3761,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4040,30 +4054,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="13.625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="48.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="13.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.33203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="17.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="48.1640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" customHeight="1">
+    <row r="1" spans="1:22" ht="20.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4110,11 +4127,26 @@
         <v>34</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="20.25" customHeight="1">
+      <c r="V1" s="3"/>
+    </row>
+    <row r="2" spans="1:22" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -4128,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>29</v>
@@ -4148,11 +4180,29 @@
       <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1">
+      <c r="O2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="11">
+        <v>676</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="R2" s="1">
+        <v>28</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
@@ -4166,10 +4216,10 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>44</v>
@@ -4189,387 +4239,415 @@
       <c r="M3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.25" customHeight="1">
+      <c r="O3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="11">
+        <v>676</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="R3" s="1">
+        <v>28</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="10" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>511</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A7" s="1" t="s">
+    <row r="12" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B12" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="H7" s="11" t="s">
+      <c r="C12" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="C13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A9" s="1" t="s">
+    <row r="14" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="C14" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="C15" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A11" s="1" t="s">
+    <row r="16" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="C16" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.25" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="20.25" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1 D1:Q1">
-    <cfRule type="expression" dxfId="94" priority="2">
+  <conditionalFormatting sqref="A1 D1:O1 U1:V1">
+    <cfRule type="expression" dxfId="101" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="100" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:T1">
+    <cfRule type="expression" dxfId="99" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4579,7 +4657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4589,30 +4667,30 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4620,10 +4698,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4631,10 +4709,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4642,10 +4720,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4653,10 +4731,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4674,17 +4752,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="79" priority="3">
+    <cfRule type="expression" dxfId="78" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4693,7 +4771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4703,45 +4781,45 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="31.75" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:2" s="13" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="76" priority="1">
+    <cfRule type="expression" dxfId="75" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4750,7 +4828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4760,13 +4838,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="23.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="23.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4778,39 +4856,39 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E2" s="14">
         <v>43185.5</v>
@@ -4828,16 +4906,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E3" s="14">
         <v>43120.888888888891</v>
@@ -4849,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -5019,12 +5097,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5033,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5043,21 +5121,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:18" s="13" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -5077,10 +5155,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -5088,10 +5166,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -5100,17 +5178,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="70" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5119,7 +5197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5129,7 +5207,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -5137,16 +5215,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -5161,13 +5239,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -5175,13 +5253,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>203</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -5189,13 +5267,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -5203,13 +5281,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>205</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -5217,13 +5295,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -5231,13 +5309,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5245,13 +5323,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5259,13 +5337,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5273,13 +5351,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5287,13 +5365,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>214</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5302,17 +5380,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="68" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="67" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="67" priority="3">
+    <cfRule type="expression" dxfId="66" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5321,7 +5399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5331,37 +5409,37 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="34.25" style="1" customWidth="1"/>
+    <col min="1" max="3" width="34.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:3" s="13" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5370,126 +5448,126 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:G1 I1:O1 Q1:XFD1">
-    <cfRule type="expression" dxfId="63" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="61" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5498,7 +5576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5508,29 +5586,29 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="60" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5539,7 +5617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5549,667 +5627,603 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="59" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="58" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>285</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6228,122 +6242,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:H41"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="47.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="35" spans="6:8" ht="20.25" customHeight="1">
-      <c r="F35" ph="1"/>
-      <c r="G35" ph="1"/>
-      <c r="H35" ph="1"/>
-    </row>
-    <row r="36" spans="6:8" ht="20.25" customHeight="1">
-      <c r="F36" ph="1"/>
-      <c r="G36" ph="1"/>
-      <c r="H36" ph="1"/>
-    </row>
-    <row r="39" spans="6:8" ht="20.25" customHeight="1">
-      <c r="F39" ph="1"/>
-      <c r="G39" ph="1"/>
-      <c r="H39" ph="1"/>
-    </row>
-    <row r="41" spans="6:8" ht="20.25" customHeight="1">
-      <c r="F41" ph="1"/>
-      <c r="G41" ph="1"/>
-      <c r="H41" ph="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="92" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="91" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>288</v>
+        <v>273</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -6362,28 +6306,122 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20.25" customHeight="1">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="35" spans="6:8" ht="20.25" customHeight="1">
+      <c r="F35" ph="1"/>
+      <c r="G35" ph="1"/>
+      <c r="H35" ph="1"/>
+    </row>
+    <row r="36" spans="6:8" ht="20.25" customHeight="1">
+      <c r="F36" ph="1"/>
+      <c r="G36" ph="1"/>
+      <c r="H36" ph="1"/>
+    </row>
+    <row r="39" spans="6:8" ht="20.25" customHeight="1">
+      <c r="F39" ph="1"/>
+      <c r="G39" ph="1"/>
+      <c r="H39" ph="1"/>
+    </row>
+    <row r="41" spans="6:8" ht="20.25" customHeight="1">
+      <c r="F41" ph="1"/>
+      <c r="G41" ph="1"/>
+      <c r="H41" ph="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="expression" dxfId="97" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="96" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>271</v>
+        <v>282</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6402,8 +6440,48 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="51" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="50" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6413,91 +6491,91 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="32.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -6506,12 +6584,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="51" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="50" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6520,7 +6598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6530,7 +6608,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="1" customWidth="1"/>
@@ -6539,218 +6617,218 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="49" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6759,7 +6837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6769,75 +6847,75 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="36.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="44" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="43" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="42" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6846,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6854,140 +6932,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="43" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="42" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="2" width="31.25" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -7006,8 +6965,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="2" width="31.1640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="39" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="38" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7017,58 +7095,58 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="18.25" style="1"/>
+    <col min="1" max="16384" width="18.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7077,7 +7155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7087,7 +7165,7 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -7095,30 +7173,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="34" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7127,7 +7205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7137,7 +7215,7 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -7145,396 +7223,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="35" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="34" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:C88"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1">
-        <v>99</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="5"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="3:3">
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="5"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="3:3">
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="3:3">
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="3:3">
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="3:3">
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="5"/>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="5"/>
-    </row>
-    <row r="59" spans="3:3">
-      <c r="C59" s="5"/>
-    </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="3:3">
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="3:3">
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="3:3">
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="3:3">
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="3:3">
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="3:3">
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="3:3">
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" s="5"/>
-    </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="5"/>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="3:3">
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="90" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="89" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="6" width="21.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7553,43 +7251,333 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:C84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="5"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="5"/>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="95" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="94" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="19.75" style="1"/>
+    <col min="1" max="6" width="21.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7608,34 +7596,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="23.25" style="1"/>
+    <col min="1" max="16384" width="19.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>236</v>
+        <v>182</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7654,9 +7651,55 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="23.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="27" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="26" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L11"/>
@@ -7665,10 +7708,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="33.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="4" width="33.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7676,13 +7719,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7705,17 +7748,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="27" priority="5">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:L1">
-    <cfRule type="expression" dxfId="25" priority="1">
+    <cfRule type="expression" dxfId="23" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7725,8 +7768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F1"/>
@@ -7735,14 +7778,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -7766,22 +7809,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="24" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7790,8 +7833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
@@ -7800,12 +7843,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="35.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="3" max="4" width="39.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7819,12 +7862,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="18" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7833,8 +7876,8 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
@@ -7843,11 +7886,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7876,22 +7919,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7901,7 +7944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -7911,27 +7954,27 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="8" width="17.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7939,22 +7982,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7964,7 +8007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -7974,15 +8017,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -7994,12 +8037,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="8" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8009,7 +8052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8019,45 +8062,45 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="22.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -8071,13 +8114,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -8091,13 +8134,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -8111,13 +8154,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -8131,13 +8174,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>477</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8151,13 +8194,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8171,13 +8214,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8191,13 +8234,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -8282,17 +8325,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8302,27 +8345,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:L437"/>
+  <dimension ref="A1:R437"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="12" width="11.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="18" width="11.83203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" customHeight="1">
+    <row r="1" spans="1:18" ht="20.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -8338,82 +8385,85 @@
       <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1">
+      <c r="B2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" customHeight="1">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="20.25" customHeight="1">
+    <row r="5" spans="1:18" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="20.25" customHeight="1">
+    <row r="6" spans="1:18" ht="20.25" customHeight="1">
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="20.25" customHeight="1">
+    <row r="7" spans="1:18" ht="20.25" customHeight="1">
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1">
+    <row r="8" spans="1:18" ht="20.25" customHeight="1">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="20.25" customHeight="1">
+    <row r="9" spans="1:18" ht="20.25" customHeight="1">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1">
+    <row r="10" spans="1:18" ht="20.25" customHeight="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="20.25" customHeight="1">
+    <row r="11" spans="1:18" ht="20.25" customHeight="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1">
+    <row r="12" spans="1:18" ht="20.25" customHeight="1">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="20.25" customHeight="1">
+    <row r="13" spans="1:18" ht="20.25" customHeight="1">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1">
+    <row r="14" spans="1:18" ht="20.25" customHeight="1">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="20.25" customHeight="1">
+    <row r="15" spans="1:18" ht="20.25" customHeight="1">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1">
+    <row r="16" spans="1:18" ht="20.25" customHeight="1">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="20.25" customHeight="1">
@@ -9680,7 +9730,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="88" priority="2">
+    <cfRule type="expression" dxfId="93" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:J1">
+    <cfRule type="expression" dxfId="92" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="expression" dxfId="91" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="90" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9690,7 +9755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -9700,22 +9765,22 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -9727,10 +9792,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9738,10 +9803,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9749,10 +9814,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9760,10 +9825,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9771,10 +9836,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -9782,10 +9847,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9793,10 +9858,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -9804,10 +9869,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -9815,10 +9880,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -9826,10 +9891,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9837,10 +9902,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -9848,10 +9913,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -9859,10 +9924,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -9870,10 +9935,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -9881,10 +9946,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9892,10 +9957,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9903,10 +9968,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9914,10 +9979,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9925,10 +9990,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9936,10 +10001,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9947,10 +10012,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9958,10 +10023,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9969,10 +10034,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9980,10 +10045,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9991,10 +10056,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -10002,10 +10067,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -10013,10 +10078,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -10024,10 +10089,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -10035,10 +10100,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -10046,10 +10111,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -10057,10 +10122,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -10068,10 +10133,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -10079,10 +10144,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -10090,10 +10155,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -10101,10 +10166,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -10112,10 +10177,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -10123,10 +10188,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -10134,10 +10199,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -10145,10 +10210,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -10156,10 +10221,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10167,10 +10232,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -10178,10 +10243,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10189,10 +10254,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10200,10 +10265,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10211,10 +10276,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10222,10 +10287,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10233,31 +10298,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10266,27 +10331,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10303,10 +10368,10 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>65</v>
@@ -10323,82 +10388,82 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>135</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>136</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:D1 F1:J1">
-    <cfRule type="expression" dxfId="87" priority="5">
+    <cfRule type="expression" dxfId="89" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="86" priority="4">
+    <cfRule type="expression" dxfId="88" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="85" priority="1">
+    <cfRule type="expression" dxfId="87" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10408,22 +10473,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10462,7 +10527,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10471,25 +10536,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="6" max="8" width="17.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:11" s="12" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>57</v>
@@ -10503,48 +10572,73 @@
       <c r="E1" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="F1" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="16"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>4.2</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="16"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="85" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="82" priority="1">
+    <cfRule type="expression" dxfId="84" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:J1">
+    <cfRule type="expression" dxfId="83" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="expression" dxfId="82" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="81" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10553,7 +10647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -10563,13 +10657,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="12" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10593,12 +10687,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="81" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="80" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10607,7 +10701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -10617,7 +10711,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/akito/www.transporter.fun/root/laravel/database/seeds/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2BBEF-6AE0-B443-888D-2D305C51F2CE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2280" windowWidth="36440" windowHeight="16440" tabRatio="880" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -64,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="536">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -2435,39 +2429,6 @@
     <t>USR-180407-132400-aaa05</t>
   </si>
   <si>
-    <t>USR-180407-132400-aaa06</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa07</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa08</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa09</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa10</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa11</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa12</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa13</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa14</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa15</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa16</t>
-  </si>
-  <si>
     <t>cbb632cabf5a840c31ca51de75676bb190efa14c</t>
   </si>
   <si>
@@ -2483,39 +2444,6 @@
     <t>77e151c34f73f7620f47311ccd383b32f107010e</t>
   </si>
   <si>
-    <t>13936e950d5d3a97070d22a54cc88e8f96091d21</t>
-  </si>
-  <si>
-    <t>e65703a3316e2ff98f6e9295cc29322c2e5a53f0</t>
-  </si>
-  <si>
-    <t>ecca87d5c15ce5e85a5fbfceaa0ed4e302922103</t>
-  </si>
-  <si>
-    <t>ff0c96dcee311e2a2660cfb90c2dff60f5944e0d</t>
-  </si>
-  <si>
-    <t>2fa2e04a9929698692e66312f15c56672a42336b</t>
-  </si>
-  <si>
-    <t>e480fad58b6e4324748f13715753a279aa38b12c</t>
-  </si>
-  <si>
-    <t>99c0df20a2dfe140c36bec4ec09819c8c34ac4f9</t>
-  </si>
-  <si>
-    <t>9c8b0b86037ef4edcdbdd46bd97e666451808f2d</t>
-  </si>
-  <si>
-    <t>a757046008f88c983a3abc4f5d9e3138972519f8</t>
-  </si>
-  <si>
-    <t>ac790add36c1d114ed9d7d238f7f8be95ce7a2f8</t>
-  </si>
-  <si>
-    <t>618b62b7ba0e1a361c58e67de49b93caf20b26d3</t>
-  </si>
-  <si>
     <t>sample01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2527,93 +2455,15 @@
     <t>sample02</t>
   </si>
   <si>
-    <t>Harima5578</t>
-  </si>
-  <si>
     <t>sample03</t>
   </si>
   <si>
-    <t>Harima5579</t>
-  </si>
-  <si>
     <t>sample04</t>
   </si>
   <si>
-    <t>Harima5580</t>
-  </si>
-  <si>
     <t>sample05</t>
   </si>
   <si>
-    <t>Harima5581</t>
-  </si>
-  <si>
-    <t>sample06</t>
-  </si>
-  <si>
-    <t>Harima5582</t>
-  </si>
-  <si>
-    <t>sample07</t>
-  </si>
-  <si>
-    <t>Harima5583</t>
-  </si>
-  <si>
-    <t>sample08</t>
-  </si>
-  <si>
-    <t>Harima5584</t>
-  </si>
-  <si>
-    <t>sample09</t>
-  </si>
-  <si>
-    <t>Harima5585</t>
-  </si>
-  <si>
-    <t>sample10</t>
-  </si>
-  <si>
-    <t>Harima5586</t>
-  </si>
-  <si>
-    <t>sample11</t>
-  </si>
-  <si>
-    <t>Harima5587</t>
-  </si>
-  <si>
-    <t>sample12</t>
-  </si>
-  <si>
-    <t>Harima5588</t>
-  </si>
-  <si>
-    <t>sample13</t>
-  </si>
-  <si>
-    <t>Harima5589</t>
-  </si>
-  <si>
-    <t>sample14</t>
-  </si>
-  <si>
-    <t>Harima5590</t>
-  </si>
-  <si>
-    <t>sample15</t>
-  </si>
-  <si>
-    <t>Harima5591</t>
-  </si>
-  <si>
-    <t>sample16</t>
-  </si>
-  <si>
-    <t>Harima5592</t>
-  </si>
-  <si>
     <t>イチ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2634,50 +2484,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キュウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウイチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウニ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウサン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウヨン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジュウロク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sample01@hoge.com</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2694,39 +2500,6 @@
     <t>sample05@hoge.com</t>
   </si>
   <si>
-    <t>sample06@hoge.com</t>
-  </si>
-  <si>
-    <t>sample07@hoge.com</t>
-  </si>
-  <si>
-    <t>sample08@hoge.com</t>
-  </si>
-  <si>
-    <t>sample09@hoge.com</t>
-  </si>
-  <si>
-    <t>sample10@hoge.com</t>
-  </si>
-  <si>
-    <t>sample11@hoge.com</t>
-  </si>
-  <si>
-    <t>sample12@hoge.com</t>
-  </si>
-  <si>
-    <t>sample13@hoge.com</t>
-  </si>
-  <si>
-    <t>sample14@hoge.com</t>
-  </si>
-  <si>
-    <t>sample15@hoge.com</t>
-  </si>
-  <si>
-    <t>sample16@hoge.com</t>
-  </si>
-  <si>
     <t>012-3456-0001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2743,39 +2516,6 @@
     <t>012-3456-0005</t>
   </si>
   <si>
-    <t>012-3456-0006</t>
-  </si>
-  <si>
-    <t>012-3456-0007</t>
-  </si>
-  <si>
-    <t>012-3456-0008</t>
-  </si>
-  <si>
-    <t>012-3456-0009</t>
-  </si>
-  <si>
-    <t>012-3456-0010</t>
-  </si>
-  <si>
-    <t>012-3456-0011</t>
-  </si>
-  <si>
-    <t>012-3456-0012</t>
-  </si>
-  <si>
-    <t>012-3456-0013</t>
-  </si>
-  <si>
-    <t>012-3456-0014</t>
-  </si>
-  <si>
-    <t>012-3456-0015</t>
-  </si>
-  <si>
-    <t>012-3456-0016</t>
-  </si>
-  <si>
     <t>http://s3.transporter.fun/img/photo/2018/04/UPL-180406-174003-OekbR_md.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2813,13 +2553,59 @@
   </si>
   <si>
     <t>user_account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORO-170405-144200-ab000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望なし</t>
+    <rPh sb="0" eb="2">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWN-180326-165310-aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリマニックス株式会社</t>
+    <rPh sb="7" eb="11">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企画制作課</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主任</t>
+    <rPh sb="0" eb="2">
+      <t>シュニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\&amp;&quot;0:00:00&quot;"/>
@@ -4054,30 +3840,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:T3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="13.6640625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.33203125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="17.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="48.1640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="12" width="13.625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="17.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="48.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1">
@@ -4127,10 +3913,10 @@
         <v>34</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>602</v>
+        <v>521</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>603</v>
+        <v>522</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>65</v>
@@ -4148,37 +3934,40 @@
     </row>
     <row r="2" spans="1:22" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>80</v>
@@ -4187,7 +3976,7 @@
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>604</v>
+        <v>523</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4199,45 +3988,45 @@
         <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>136</v>
+        <v>532</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>80</v>
@@ -4246,7 +4035,7 @@
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>604</v>
+        <v>523</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -4258,7 +4047,7 @@
         <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
@@ -4266,22 +4055,22 @@
         <v>488</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>584</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
@@ -4289,22 +4078,22 @@
         <v>489</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>553</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>585</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
@@ -4312,22 +4101,22 @@
         <v>490</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>554</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
@@ -4335,22 +4124,22 @@
         <v>491</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>555</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
@@ -4358,275 +4147,22 @@
         <v>492</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>556</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>560</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B18" s="15" t="s">
         <v>518</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -4657,7 +4193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4667,10 +4203,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4771,7 +4307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4781,13 +4317,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1">
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -4828,7 +4364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4838,13 +4374,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="23.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5111,7 +4647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5121,13 +4657,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>141</v>
       </c>
@@ -5197,7 +4733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5207,7 +4743,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -5399,7 +4935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5409,13 +4945,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="34.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -5448,7 +4984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5458,7 +4994,7 @@
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -5486,10 +5022,10 @@
         <v>152</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>605</v>
+        <v>524</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>606</v>
+        <v>525</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>153</v>
@@ -5510,10 +5046,10 @@
         <v>158</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>607</v>
+        <v>526</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>608</v>
+        <v>527</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>159</v>
@@ -5576,7 +5112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5586,7 +5122,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -5617,23 +5153,23 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5656,27 +5192,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>529</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>418</v>
+        <v>530</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>461</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>461</v>
@@ -5684,13 +5220,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>461</v>
@@ -5698,13 +5234,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>421</v>
+      <c r="C5" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>461</v>
@@ -5712,27 +5248,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>462</v>
@@ -5740,13 +5276,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>462</v>
@@ -5754,13 +5290,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>462</v>
@@ -5768,13 +5304,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>462</v>
@@ -5782,27 +5318,27 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>463</v>
@@ -5810,13 +5346,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>463</v>
@@ -5824,13 +5360,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>463</v>
@@ -5838,13 +5374,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>463</v>
@@ -5852,27 +5388,27 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>464</v>
@@ -5880,13 +5416,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>464</v>
@@ -5894,13 +5430,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>464</v>
@@ -5908,13 +5444,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>464</v>
@@ -5922,13 +5458,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>464</v>
@@ -5936,13 +5472,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>464</v>
@@ -5950,13 +5486,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>464</v>
@@ -5964,13 +5500,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>464</v>
@@ -5978,13 +5514,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>464</v>
@@ -5992,27 +5528,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>373</v>
+        <v>398</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>465</v>
+        <v>441</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>465</v>
@@ -6020,116 +5556,116 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>468</v>
@@ -6137,92 +5673,106 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>374</v>
+        <v>411</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6243,7 +5793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6253,7 +5803,7 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6307,7 +5857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6317,11 +5867,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
@@ -6340,7 +5890,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>609</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>73</v>
@@ -6351,7 +5901,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>609</v>
+        <v>528</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -6398,7 +5948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6408,7 +5958,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6441,7 +5991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6451,7 +6001,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6481,7 +6031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6491,10 +6041,10 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6598,7 +6148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6608,7 +6158,7 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="1" customWidth="1"/>
@@ -6837,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6847,9 +6397,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -6924,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6932,9 +6482,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6966,7 +6516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6974,9 +6524,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="31.1640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7085,7 +6635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7095,9 +6645,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="18.1640625" style="1"/>
+    <col min="1" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -7155,7 +6705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7165,7 +6715,7 @@
       <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -7205,7 +6755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7215,7 +6765,7 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -7252,7 +6802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7262,12 +6812,12 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7544,7 +7094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7554,9 +7104,9 @@
       <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="6" width="21.1640625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7597,7 +7147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7607,9 +7157,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="19.6640625" style="1"/>
+    <col min="1" max="16384" width="19.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -7652,7 +7202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7662,9 +7212,9 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="23.1640625" style="1"/>
+    <col min="1" max="16384" width="23.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -7698,7 +7248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7708,10 +7258,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="4" width="33.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="33.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7768,7 +7318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7778,14 +7328,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -7833,7 +7383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7843,12 +7393,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="35.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7876,7 +7426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -7886,11 +7436,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7944,7 +7494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -7954,10 +7504,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8007,7 +7557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8017,10 +7567,10 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8052,7 +7602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8062,12 +7612,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="22.83203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8345,28 +7895,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:R437"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
-    <col min="12" max="18" width="11.83203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="18" width="11.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" customHeight="1">
@@ -8386,10 +7936,10 @@
         <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>602</v>
+        <v>521</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>603</v>
+        <v>522</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>65</v>
@@ -8412,29 +7962,45 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="33" customHeight="1">
-      <c r="B2" s="6"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="11">
+        <v>676</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="20.25" customHeight="1">
       <c r="B3" s="6"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1">
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:18" ht="20.25" customHeight="1">
       <c r="B7" s="6"/>
@@ -9755,7 +9321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -9765,11 +9331,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10331,27 +9897,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10368,10 +9934,10 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>602</v>
+        <v>521</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>603</v>
+        <v>522</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>65</v>
@@ -10403,7 +9969,7 @@
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>604</v>
+        <v>523</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -10435,7 +10001,7 @@
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>604</v>
+        <v>523</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -10473,22 +10039,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10536,7 +10102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -10546,17 +10112,17 @@
       <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="6" max="8" width="17.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="6" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1">
+    <row r="1" spans="1:11" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
@@ -10573,10 +10139,10 @@
         <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>602</v>
+        <v>521</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>603</v>
+        <v>522</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>65</v>
@@ -10647,7 +10213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -10657,13 +10223,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10701,7 +10267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -10711,7 +10277,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="3"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="12" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -28,25 +28,24 @@
     <sheet name="cargos" sheetId="101" r:id="rId19"/>
     <sheet name="cargo_values" sheetId="91" r:id="rId20"/>
     <sheet name="order_to_cargos" sheetId="103" r:id="rId21"/>
-    <sheet name="cargo_categories" sheetId="102" r:id="rId22"/>
-    <sheet name="cargo_names" sheetId="104" r:id="rId23"/>
-    <sheet name="cargo_forms" sheetId="105" r:id="rId24"/>
-    <sheet name="order_progress" sheetId="92" r:id="rId25"/>
-    <sheet name="order_status" sheetId="93" r:id="rId26"/>
-    <sheet name="estimates" sheetId="94" r:id="rId27"/>
-    <sheet name="estimate_items" sheetId="95" r:id="rId28"/>
-    <sheet name="estimate_temps" sheetId="96" r:id="rId29"/>
-    <sheet name="items" sheetId="97" r:id="rId30"/>
-    <sheet name="reports" sheetId="98" r:id="rId31"/>
-    <sheet name="report_temps" sheetId="99" r:id="rId32"/>
-    <sheet name="boards" sheetId="49" r:id="rId33"/>
-    <sheet name="messages" sheetId="70" r:id="rId34"/>
-    <sheet name="message_unopeneds" sheetId="71" r:id="rId35"/>
-    <sheet name="news" sheetId="51" r:id="rId36"/>
-    <sheet name="evaluations" sheetId="100" r:id="rId37"/>
-    <sheet name="evaluation_stars" sheetId="106" r:id="rId38"/>
-    <sheet name="evaluation_items" sheetId="107" r:id="rId39"/>
-    <sheet name="prefs" sheetId="80" r:id="rId40"/>
+    <sheet name="cargo_names" sheetId="104" r:id="rId22"/>
+    <sheet name="cargo_forms" sheetId="105" r:id="rId23"/>
+    <sheet name="order_progress" sheetId="92" r:id="rId24"/>
+    <sheet name="order_statuses" sheetId="93" r:id="rId25"/>
+    <sheet name="estimates" sheetId="94" r:id="rId26"/>
+    <sheet name="estimate_items" sheetId="95" r:id="rId27"/>
+    <sheet name="estimate_temps" sheetId="96" r:id="rId28"/>
+    <sheet name="items" sheetId="97" r:id="rId29"/>
+    <sheet name="reports" sheetId="98" r:id="rId30"/>
+    <sheet name="report_temps" sheetId="99" r:id="rId31"/>
+    <sheet name="boards" sheetId="49" r:id="rId32"/>
+    <sheet name="messages" sheetId="70" r:id="rId33"/>
+    <sheet name="message_unopeneds" sheetId="71" r:id="rId34"/>
+    <sheet name="news" sheetId="51" r:id="rId35"/>
+    <sheet name="evaluations" sheetId="100" r:id="rId36"/>
+    <sheet name="evaluation_stars" sheetId="106" r:id="rId37"/>
+    <sheet name="evaluation_items" sheetId="107" r:id="rId38"/>
+    <sheet name="prefs" sheetId="80" r:id="rId39"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="517">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -1234,10 +1233,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>category_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,10 +1249,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>category_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1300,22 +1291,6 @@
   <si>
     <t>value</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc02</t>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc03</t>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc04</t>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc05</t>
   </si>
   <si>
     <t>13t以下のウィング車</t>
@@ -1392,104 +1367,12 @@
     <t>CLS-05</t>
   </si>
   <si>
-    <t>CGC-170405-135700-abc06</t>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc07</t>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc08</t>
-  </si>
-  <si>
-    <t>CGC-170405-135700-abc09</t>
-  </si>
-  <si>
-    <t>鋼材</t>
-    <rPh sb="0" eb="2">
-      <t>コウザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機械</t>
-    <rPh sb="0" eb="2">
-      <t>キカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>機械部品</t>
     <rPh sb="0" eb="2">
       <t>キカイ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ブヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長尺品</t>
-    <rPh sb="0" eb="2">
-      <t>チョウジャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重量物70t以下</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重量物100t以下</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重量物150t以下</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重量物150t超</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2826,28 +2709,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="99">
     <dxf>
       <fill>
         <patternFill>
@@ -3913,10 +3775,10 @@
         <v>34</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>65</v>
@@ -3976,7 +3838,7 @@
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -3988,7 +3850,7 @@
         <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4005,7 +3867,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>259</v>
@@ -4035,7 +3897,7 @@
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -4047,143 +3909,143 @@
         <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:O1 U1:V1">
-    <cfRule type="expression" dxfId="101" priority="4">
+    <cfRule type="expression" dxfId="98" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="100" priority="3">
+    <cfRule type="expression" dxfId="97" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1">
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="96" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4226,7 +4088,7 @@
         <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4237,7 +4099,7 @@
         <v>190</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4248,7 +4110,7 @@
         <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4256,10 +4118,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4267,10 +4129,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4288,17 +4150,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="78" priority="3">
+    <cfRule type="expression" dxfId="75" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="76" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4350,12 +4212,12 @@
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="75" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="71" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4633,12 +4495,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4714,17 +4576,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="70" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4916,17 +4778,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="68" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="67" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4965,17 +4827,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5022,10 +4884,10 @@
         <v>152</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>153</v>
@@ -5046,10 +4908,10 @@
         <v>158</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>159</v>
@@ -5088,22 +4950,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:G1 I1:O1 Q1:XFD1">
-    <cfRule type="expression" dxfId="62" priority="4">
+    <cfRule type="expression" dxfId="59" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="60" priority="2">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="59" priority="1">
+    <cfRule type="expression" dxfId="56" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5129,22 +4991,22 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="58" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5175,616 +5037,616 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5797,10 +5659,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5808,47 +5670,39 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="55" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="54" priority="2">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5890,7 +5744,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>73</v>
@@ -5901,7 +5755,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -5933,12 +5787,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="96" priority="1">
+    <cfRule type="expression" dxfId="93" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5955,7 +5809,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5965,53 +5819,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="53" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="52" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6030,116 +5844,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="11"/>
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="49" priority="2">
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="48" priority="1">
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6147,7 +5884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6155,7 +5892,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6167,202 +5904,202 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6386,7 +6123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6394,7 +6131,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6406,50 +6143,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6473,14 +6210,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -6515,14 +6254,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -6634,7 +6375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6704,7 +6445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6754,7 +6495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6794,6 +6535,59 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
     <cfRule type="expression" dxfId="32" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7080,12 +6874,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="92" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="91" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7094,59 +6888,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="31" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="30" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -7201,7 +6942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -7247,7 +6988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7317,7 +7058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7382,7 +7123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -7425,7 +7166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7493,7 +7234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7556,7 +7297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7601,7 +7342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -7625,7 +7366,7 @@
         <v>262</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -7644,13 +7385,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -7664,13 +7405,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -7684,13 +7425,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -7704,13 +7445,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -7724,13 +7465,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -7744,13 +7485,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -7764,13 +7505,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -7784,13 +7525,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -7894,1433 +7635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:R437"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="18" width="11.875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="20.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F2" s="11">
-        <v>676</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="H2" s="1">
-        <v>28</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="7" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B187" s="6"/>
-    </row>
-    <row r="188" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B188" s="6"/>
-    </row>
-    <row r="189" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B189" s="6"/>
-    </row>
-    <row r="190" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B190" s="6"/>
-    </row>
-    <row r="191" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B191" s="6"/>
-    </row>
-    <row r="192" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B192" s="6"/>
-    </row>
-    <row r="193" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B193" s="6"/>
-    </row>
-    <row r="194" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B194" s="6"/>
-    </row>
-    <row r="195" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B195" s="6"/>
-    </row>
-    <row r="196" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B197" s="6"/>
-    </row>
-    <row r="198" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B198" s="6"/>
-    </row>
-    <row r="199" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B199" s="6"/>
-    </row>
-    <row r="200" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B200" s="6"/>
-    </row>
-    <row r="201" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B201" s="6"/>
-    </row>
-    <row r="202" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B202" s="6"/>
-    </row>
-    <row r="203" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B203" s="6"/>
-    </row>
-    <row r="204" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B204" s="6"/>
-    </row>
-    <row r="205" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B206" s="6"/>
-    </row>
-    <row r="207" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B207" s="6"/>
-    </row>
-    <row r="208" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B208" s="6"/>
-    </row>
-    <row r="209" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B209" s="6"/>
-    </row>
-    <row r="210" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B210" s="6"/>
-    </row>
-    <row r="211" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B211" s="6"/>
-    </row>
-    <row r="212" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B214" s="6"/>
-    </row>
-    <row r="215" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B215" s="6"/>
-    </row>
-    <row r="216" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B217" s="6"/>
-    </row>
-    <row r="218" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B218" s="6"/>
-    </row>
-    <row r="219" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B219" s="6"/>
-    </row>
-    <row r="220" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B220" s="6"/>
-    </row>
-    <row r="221" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B221" s="6"/>
-    </row>
-    <row r="222" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B222" s="6"/>
-    </row>
-    <row r="223" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B223" s="6"/>
-    </row>
-    <row r="224" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B225" s="6"/>
-    </row>
-    <row r="226" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B230" s="6"/>
-    </row>
-    <row r="231" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B233" s="6"/>
-    </row>
-    <row r="234" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B234" s="6"/>
-    </row>
-    <row r="235" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B238" s="6"/>
-    </row>
-    <row r="239" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B239" s="6"/>
-    </row>
-    <row r="240" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B247" s="6"/>
-    </row>
-    <row r="248" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B248" s="6"/>
-    </row>
-    <row r="249" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B249" s="6"/>
-    </row>
-    <row r="250" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B250" s="6"/>
-    </row>
-    <row r="251" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B251" s="6"/>
-    </row>
-    <row r="252" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B252" s="6"/>
-    </row>
-    <row r="253" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B253" s="6"/>
-    </row>
-    <row r="254" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B254" s="6"/>
-    </row>
-    <row r="255" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B255" s="6"/>
-    </row>
-    <row r="256" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B256" s="6"/>
-    </row>
-    <row r="257" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B258" s="6"/>
-    </row>
-    <row r="259" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B259" s="6"/>
-    </row>
-    <row r="260" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B260" s="6"/>
-    </row>
-    <row r="261" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B261" s="6"/>
-    </row>
-    <row r="262" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B262" s="6"/>
-    </row>
-    <row r="263" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B263" s="6"/>
-    </row>
-    <row r="264" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B264" s="6"/>
-    </row>
-    <row r="265" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B265" s="6"/>
-    </row>
-    <row r="266" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B266" s="6"/>
-    </row>
-    <row r="267" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B267" s="6"/>
-    </row>
-    <row r="268" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B268" s="6"/>
-    </row>
-    <row r="269" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B269" s="6"/>
-    </row>
-    <row r="270" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B270" s="6"/>
-    </row>
-    <row r="271" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="272" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="273" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B273" s="6"/>
-    </row>
-    <row r="274" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="275" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="276" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B276" s="6"/>
-    </row>
-    <row r="277" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B277" s="6"/>
-    </row>
-    <row r="278" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B278" s="6"/>
-    </row>
-    <row r="279" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B279" s="6"/>
-    </row>
-    <row r="280" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B280" s="6"/>
-    </row>
-    <row r="281" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B281" s="6"/>
-    </row>
-    <row r="282" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B282" s="6"/>
-    </row>
-    <row r="283" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B283" s="6"/>
-    </row>
-    <row r="284" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B284" s="6"/>
-    </row>
-    <row r="285" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B285" s="6"/>
-    </row>
-    <row r="286" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B286" s="6"/>
-    </row>
-    <row r="287" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B287" s="6"/>
-    </row>
-    <row r="288" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B288" s="6"/>
-    </row>
-    <row r="289" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B289" s="6"/>
-    </row>
-    <row r="290" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B290" s="6"/>
-    </row>
-    <row r="291" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B291" s="6"/>
-    </row>
-    <row r="292" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B292" s="6"/>
-    </row>
-    <row r="293" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B293" s="6"/>
-    </row>
-    <row r="294" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B294" s="6"/>
-    </row>
-    <row r="295" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B295" s="6"/>
-    </row>
-    <row r="296" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B296" s="6"/>
-    </row>
-    <row r="297" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B297" s="6"/>
-    </row>
-    <row r="298" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B298" s="6"/>
-    </row>
-    <row r="299" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B299" s="6"/>
-    </row>
-    <row r="300" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B300" s="6"/>
-    </row>
-    <row r="301" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B301" s="6"/>
-    </row>
-    <row r="302" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B302" s="6"/>
-    </row>
-    <row r="303" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B303" s="6"/>
-    </row>
-    <row r="304" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B304" s="6"/>
-    </row>
-    <row r="305" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B305" s="6"/>
-    </row>
-    <row r="306" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B306" s="6"/>
-    </row>
-    <row r="307" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B307" s="6"/>
-    </row>
-    <row r="308" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B308" s="6"/>
-    </row>
-    <row r="309" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B309" s="6"/>
-    </row>
-    <row r="310" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B310" s="6"/>
-    </row>
-    <row r="311" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B311" s="6"/>
-    </row>
-    <row r="312" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B312" s="6"/>
-    </row>
-    <row r="313" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B313" s="6"/>
-    </row>
-    <row r="314" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B314" s="6"/>
-    </row>
-    <row r="315" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B315" s="6"/>
-    </row>
-    <row r="316" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B316" s="6"/>
-    </row>
-    <row r="317" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="318" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B318" s="6"/>
-    </row>
-    <row r="319" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B319" s="6"/>
-    </row>
-    <row r="320" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B320" s="6"/>
-    </row>
-    <row r="321" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="322" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B322" s="6"/>
-    </row>
-    <row r="323" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B323" s="6"/>
-    </row>
-    <row r="324" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B324" s="6"/>
-    </row>
-    <row r="325" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B325" s="6"/>
-    </row>
-    <row r="326" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B326" s="6"/>
-    </row>
-    <row r="327" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B327" s="6"/>
-    </row>
-    <row r="328" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B328" s="6"/>
-    </row>
-    <row r="329" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B329" s="6"/>
-    </row>
-    <row r="330" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B330" s="6"/>
-    </row>
-    <row r="331" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B331" s="6"/>
-    </row>
-    <row r="332" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B332" s="6"/>
-    </row>
-    <row r="333" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B333" s="6"/>
-    </row>
-    <row r="334" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B334" s="6"/>
-    </row>
-    <row r="335" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B335" s="6"/>
-    </row>
-    <row r="336" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B336" s="6"/>
-    </row>
-    <row r="337" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B337" s="6"/>
-    </row>
-    <row r="338" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B338" s="6"/>
-    </row>
-    <row r="339" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B339" s="6"/>
-    </row>
-    <row r="340" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B340" s="6"/>
-    </row>
-    <row r="341" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B341" s="6"/>
-    </row>
-    <row r="342" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B342" s="6"/>
-    </row>
-    <row r="343" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B343" s="6"/>
-    </row>
-    <row r="344" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B344" s="6"/>
-    </row>
-    <row r="345" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B345" s="6"/>
-    </row>
-    <row r="346" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B346" s="6"/>
-    </row>
-    <row r="347" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B347" s="6"/>
-    </row>
-    <row r="348" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B348" s="6"/>
-    </row>
-    <row r="349" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B349" s="6"/>
-    </row>
-    <row r="350" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B350" s="6"/>
-      <c r="C350" s="7"/>
-    </row>
-    <row r="352" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B352" s="6"/>
-    </row>
-    <row r="353" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B353" s="6"/>
-    </row>
-    <row r="354" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B354" s="6"/>
-    </row>
-    <row r="355" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B355" s="6"/>
-    </row>
-    <row r="356" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B356" s="6"/>
-    </row>
-    <row r="357" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B357" s="6"/>
-    </row>
-    <row r="358" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B358" s="6"/>
-    </row>
-    <row r="359" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B359" s="6"/>
-    </row>
-    <row r="360" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B360" s="6"/>
-    </row>
-    <row r="361" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B361" s="6"/>
-    </row>
-    <row r="362" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B362" s="6"/>
-    </row>
-    <row r="363" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B363" s="6"/>
-    </row>
-    <row r="364" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="365" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B365" s="6"/>
-    </row>
-    <row r="366" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B366" s="6"/>
-    </row>
-    <row r="367" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="368" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B368" s="6"/>
-    </row>
-    <row r="369" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B369" s="6"/>
-    </row>
-    <row r="370" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B370" s="6"/>
-    </row>
-    <row r="371" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B371" s="6"/>
-    </row>
-    <row r="372" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B372" s="6"/>
-    </row>
-    <row r="373" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B373" s="6"/>
-    </row>
-    <row r="374" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B374" s="6"/>
-    </row>
-    <row r="375" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B375" s="6"/>
-    </row>
-    <row r="376" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B376" s="6"/>
-    </row>
-    <row r="377" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B377" s="6"/>
-    </row>
-    <row r="378" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B378" s="6"/>
-    </row>
-    <row r="379" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B379" s="6"/>
-    </row>
-    <row r="380" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B380" s="6"/>
-    </row>
-    <row r="381" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B381" s="6"/>
-    </row>
-    <row r="382" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B382" s="6"/>
-    </row>
-    <row r="383" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B383" s="6"/>
-    </row>
-    <row r="384" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B384" s="6"/>
-    </row>
-    <row r="385" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B385" s="6"/>
-    </row>
-    <row r="386" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B386" s="6"/>
-    </row>
-    <row r="387" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B387" s="6"/>
-    </row>
-    <row r="388" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B388" s="6"/>
-    </row>
-    <row r="389" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B389" s="6"/>
-    </row>
-    <row r="390" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B390" s="6"/>
-    </row>
-    <row r="391" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B391" s="6"/>
-    </row>
-    <row r="392" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B392" s="6"/>
-    </row>
-    <row r="393" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B393" s="6"/>
-    </row>
-    <row r="394" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B394" s="6"/>
-    </row>
-    <row r="395" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B395" s="6"/>
-    </row>
-    <row r="396" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B396" s="6"/>
-    </row>
-    <row r="397" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B397" s="6"/>
-    </row>
-    <row r="398" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B398" s="6"/>
-    </row>
-    <row r="399" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B399" s="6"/>
-    </row>
-    <row r="400" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B400" s="6"/>
-    </row>
-    <row r="401" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B401" s="6"/>
-    </row>
-    <row r="402" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B402" s="6"/>
-    </row>
-    <row r="403" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B403" s="6"/>
-    </row>
-    <row r="404" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B404" s="6"/>
-    </row>
-    <row r="405" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B405" s="6"/>
-    </row>
-    <row r="406" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B406" s="6"/>
-    </row>
-    <row r="407" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B407" s="6"/>
-    </row>
-    <row r="408" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B408" s="6"/>
-    </row>
-    <row r="409" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="410" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="411" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B411" s="6"/>
-    </row>
-    <row r="412" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B412" s="6"/>
-    </row>
-    <row r="413" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="414" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B414" s="6"/>
-    </row>
-    <row r="415" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B415" s="6"/>
-    </row>
-    <row r="416" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B416" s="6"/>
-    </row>
-    <row r="417" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B417" s="6"/>
-    </row>
-    <row r="418" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B418" s="6"/>
-    </row>
-    <row r="419" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B419" s="6"/>
-    </row>
-    <row r="420" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B420" s="6"/>
-    </row>
-    <row r="421" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B421" s="6"/>
-    </row>
-    <row r="422" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B422" s="6"/>
-    </row>
-    <row r="423" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B423" s="6"/>
-    </row>
-    <row r="424" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B424" s="6"/>
-    </row>
-    <row r="425" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B425" s="6"/>
-    </row>
-    <row r="426" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B426" s="6"/>
-    </row>
-    <row r="427" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B427" s="6"/>
-    </row>
-    <row r="428" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B428" s="6"/>
-    </row>
-    <row r="429" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B429" s="6"/>
-    </row>
-    <row r="430" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B430" s="6"/>
-    </row>
-    <row r="431" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B431" s="6"/>
-    </row>
-    <row r="432" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B432" s="6"/>
-    </row>
-    <row r="433" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B433" s="6"/>
-    </row>
-    <row r="434" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B434" s="6"/>
-    </row>
-    <row r="435" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B435" s="6"/>
-    </row>
-    <row r="436" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B436" s="6"/>
-    </row>
-    <row r="437" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B437" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="93" priority="5">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:J1">
-    <cfRule type="expression" dxfId="92" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="91" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="90" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
@@ -9893,6 +8208,1432 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:R437"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="18" width="11.875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" ht="33" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2" s="11">
+        <v>676</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="7" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B105" s="6"/>
+    </row>
+    <row r="106" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B113" s="6"/>
+    </row>
+    <row r="114" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B114" s="6"/>
+    </row>
+    <row r="115" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B115" s="6"/>
+    </row>
+    <row r="116" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B116" s="6"/>
+    </row>
+    <row r="117" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B133" s="6"/>
+    </row>
+    <row r="134" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B137" s="6"/>
+    </row>
+    <row r="138" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B142" s="6"/>
+    </row>
+    <row r="143" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B143" s="6"/>
+    </row>
+    <row r="144" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B147" s="6"/>
+    </row>
+    <row r="148" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B148" s="6"/>
+    </row>
+    <row r="149" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B149" s="6"/>
+    </row>
+    <row r="150" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B150" s="6"/>
+    </row>
+    <row r="151" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B154" s="6"/>
+    </row>
+    <row r="155" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B155" s="6"/>
+    </row>
+    <row r="156" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B158" s="6"/>
+    </row>
+    <row r="159" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B160" s="6"/>
+    </row>
+    <row r="161" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B161" s="6"/>
+    </row>
+    <row r="162" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B162" s="6"/>
+    </row>
+    <row r="163" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B163" s="6"/>
+    </row>
+    <row r="164" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B164" s="6"/>
+    </row>
+    <row r="165" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B165" s="6"/>
+    </row>
+    <row r="166" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B166" s="6"/>
+    </row>
+    <row r="167" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B167" s="6"/>
+    </row>
+    <row r="168" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B171" s="6"/>
+    </row>
+    <row r="172" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B173" s="6"/>
+    </row>
+    <row r="174" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B174" s="6"/>
+    </row>
+    <row r="175" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B175" s="6"/>
+    </row>
+    <row r="176" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B176" s="6"/>
+    </row>
+    <row r="177" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B177" s="6"/>
+    </row>
+    <row r="178" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B178" s="6"/>
+    </row>
+    <row r="179" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B181" s="6"/>
+    </row>
+    <row r="182" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B182" s="6"/>
+    </row>
+    <row r="183" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B185" s="6"/>
+    </row>
+    <row r="186" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B186" s="6"/>
+    </row>
+    <row r="187" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B187" s="6"/>
+    </row>
+    <row r="188" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B188" s="6"/>
+    </row>
+    <row r="189" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B189" s="6"/>
+    </row>
+    <row r="190" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B190" s="6"/>
+    </row>
+    <row r="191" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B191" s="6"/>
+    </row>
+    <row r="192" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B192" s="6"/>
+    </row>
+    <row r="193" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B193" s="6"/>
+    </row>
+    <row r="194" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B194" s="6"/>
+    </row>
+    <row r="195" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B195" s="6"/>
+    </row>
+    <row r="196" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B196" s="6"/>
+    </row>
+    <row r="197" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B197" s="6"/>
+    </row>
+    <row r="198" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B198" s="6"/>
+    </row>
+    <row r="199" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B199" s="6"/>
+    </row>
+    <row r="200" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B200" s="6"/>
+    </row>
+    <row r="201" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B201" s="6"/>
+    </row>
+    <row r="202" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B202" s="6"/>
+    </row>
+    <row r="203" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B203" s="6"/>
+    </row>
+    <row r="204" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B204" s="6"/>
+    </row>
+    <row r="205" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B205" s="6"/>
+    </row>
+    <row r="206" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B206" s="6"/>
+    </row>
+    <row r="207" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B207" s="6"/>
+    </row>
+    <row r="208" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B208" s="6"/>
+    </row>
+    <row r="209" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B209" s="6"/>
+    </row>
+    <row r="210" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B211" s="6"/>
+    </row>
+    <row r="212" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B212" s="6"/>
+    </row>
+    <row r="213" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B213" s="6"/>
+    </row>
+    <row r="214" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B214" s="6"/>
+    </row>
+    <row r="215" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B215" s="6"/>
+    </row>
+    <row r="216" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B216" s="6"/>
+    </row>
+    <row r="217" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B217" s="6"/>
+    </row>
+    <row r="218" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B218" s="6"/>
+    </row>
+    <row r="219" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B219" s="6"/>
+    </row>
+    <row r="220" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B220" s="6"/>
+    </row>
+    <row r="221" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B221" s="6"/>
+    </row>
+    <row r="222" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B222" s="6"/>
+    </row>
+    <row r="223" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B223" s="6"/>
+    </row>
+    <row r="224" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B224" s="6"/>
+    </row>
+    <row r="225" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B225" s="6"/>
+    </row>
+    <row r="226" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B227" s="6"/>
+    </row>
+    <row r="228" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B228" s="6"/>
+    </row>
+    <row r="229" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B229" s="6"/>
+    </row>
+    <row r="230" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B230" s="6"/>
+    </row>
+    <row r="231" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B231" s="6"/>
+    </row>
+    <row r="232" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B232" s="6"/>
+    </row>
+    <row r="233" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B233" s="6"/>
+    </row>
+    <row r="234" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B235" s="6"/>
+    </row>
+    <row r="236" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B238" s="6"/>
+    </row>
+    <row r="239" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B239" s="6"/>
+    </row>
+    <row r="240" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B241" s="6"/>
+    </row>
+    <row r="242" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B243" s="6"/>
+    </row>
+    <row r="244" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B244" s="6"/>
+    </row>
+    <row r="245" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B245" s="6"/>
+    </row>
+    <row r="246" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B246" s="6"/>
+    </row>
+    <row r="247" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B247" s="6"/>
+    </row>
+    <row r="248" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B248" s="6"/>
+    </row>
+    <row r="249" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B249" s="6"/>
+    </row>
+    <row r="250" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B250" s="6"/>
+    </row>
+    <row r="251" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B251" s="6"/>
+    </row>
+    <row r="252" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B252" s="6"/>
+    </row>
+    <row r="253" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B253" s="6"/>
+    </row>
+    <row r="254" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B254" s="6"/>
+    </row>
+    <row r="255" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B255" s="6"/>
+    </row>
+    <row r="256" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B256" s="6"/>
+    </row>
+    <row r="257" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B257" s="6"/>
+    </row>
+    <row r="258" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B258" s="6"/>
+    </row>
+    <row r="259" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B259" s="6"/>
+    </row>
+    <row r="260" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B260" s="6"/>
+    </row>
+    <row r="261" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B261" s="6"/>
+    </row>
+    <row r="262" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B262" s="6"/>
+    </row>
+    <row r="263" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B263" s="6"/>
+    </row>
+    <row r="264" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B264" s="6"/>
+    </row>
+    <row r="265" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B265" s="6"/>
+    </row>
+    <row r="266" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B266" s="6"/>
+    </row>
+    <row r="267" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B267" s="6"/>
+    </row>
+    <row r="268" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B268" s="6"/>
+    </row>
+    <row r="269" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B269" s="6"/>
+    </row>
+    <row r="270" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B270" s="6"/>
+    </row>
+    <row r="271" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="272" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B272" s="6"/>
+    </row>
+    <row r="273" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B273" s="6"/>
+    </row>
+    <row r="274" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B274" s="6"/>
+    </row>
+    <row r="275" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B275" s="6"/>
+    </row>
+    <row r="276" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B276" s="6"/>
+    </row>
+    <row r="277" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B277" s="6"/>
+    </row>
+    <row r="278" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B278" s="6"/>
+    </row>
+    <row r="279" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B279" s="6"/>
+    </row>
+    <row r="280" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B280" s="6"/>
+    </row>
+    <row r="281" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B281" s="6"/>
+    </row>
+    <row r="282" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B282" s="6"/>
+    </row>
+    <row r="283" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B283" s="6"/>
+    </row>
+    <row r="284" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B284" s="6"/>
+    </row>
+    <row r="285" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B285" s="6"/>
+    </row>
+    <row r="286" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B286" s="6"/>
+    </row>
+    <row r="287" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B287" s="6"/>
+    </row>
+    <row r="288" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B288" s="6"/>
+    </row>
+    <row r="289" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B289" s="6"/>
+    </row>
+    <row r="290" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B290" s="6"/>
+    </row>
+    <row r="291" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B291" s="6"/>
+    </row>
+    <row r="292" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B292" s="6"/>
+    </row>
+    <row r="293" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B293" s="6"/>
+    </row>
+    <row r="294" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B294" s="6"/>
+    </row>
+    <row r="295" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B295" s="6"/>
+    </row>
+    <row r="296" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B296" s="6"/>
+    </row>
+    <row r="297" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B297" s="6"/>
+    </row>
+    <row r="298" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B298" s="6"/>
+    </row>
+    <row r="299" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B299" s="6"/>
+    </row>
+    <row r="300" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B300" s="6"/>
+    </row>
+    <row r="301" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B301" s="6"/>
+    </row>
+    <row r="302" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B302" s="6"/>
+    </row>
+    <row r="303" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B303" s="6"/>
+    </row>
+    <row r="304" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B304" s="6"/>
+    </row>
+    <row r="305" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B305" s="6"/>
+    </row>
+    <row r="306" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B306" s="6"/>
+    </row>
+    <row r="307" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B307" s="6"/>
+    </row>
+    <row r="308" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B308" s="6"/>
+    </row>
+    <row r="309" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B309" s="6"/>
+    </row>
+    <row r="310" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B310" s="6"/>
+    </row>
+    <row r="311" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B311" s="6"/>
+    </row>
+    <row r="312" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B312" s="6"/>
+    </row>
+    <row r="313" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B313" s="6"/>
+    </row>
+    <row r="314" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B314" s="6"/>
+    </row>
+    <row r="315" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B315" s="6"/>
+    </row>
+    <row r="316" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B316" s="6"/>
+    </row>
+    <row r="317" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B317" s="6"/>
+    </row>
+    <row r="318" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B318" s="6"/>
+    </row>
+    <row r="319" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B319" s="6"/>
+    </row>
+    <row r="320" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B320" s="6"/>
+    </row>
+    <row r="321" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B321" s="6"/>
+    </row>
+    <row r="322" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B322" s="6"/>
+    </row>
+    <row r="323" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B323" s="6"/>
+    </row>
+    <row r="324" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B324" s="6"/>
+    </row>
+    <row r="325" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B325" s="6"/>
+    </row>
+    <row r="326" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B326" s="6"/>
+    </row>
+    <row r="327" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B327" s="6"/>
+    </row>
+    <row r="328" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B328" s="6"/>
+    </row>
+    <row r="329" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B329" s="6"/>
+    </row>
+    <row r="330" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B330" s="6"/>
+    </row>
+    <row r="331" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B331" s="6"/>
+    </row>
+    <row r="332" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B332" s="6"/>
+    </row>
+    <row r="333" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B333" s="6"/>
+    </row>
+    <row r="334" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B334" s="6"/>
+    </row>
+    <row r="335" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B335" s="6"/>
+    </row>
+    <row r="336" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B336" s="6"/>
+    </row>
+    <row r="337" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B337" s="6"/>
+    </row>
+    <row r="338" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B338" s="6"/>
+    </row>
+    <row r="339" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B339" s="6"/>
+    </row>
+    <row r="340" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B340" s="6"/>
+    </row>
+    <row r="341" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B341" s="6"/>
+    </row>
+    <row r="342" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B342" s="6"/>
+    </row>
+    <row r="343" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B343" s="6"/>
+    </row>
+    <row r="344" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B344" s="6"/>
+    </row>
+    <row r="345" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B345" s="6"/>
+    </row>
+    <row r="346" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B346" s="6"/>
+    </row>
+    <row r="347" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B347" s="6"/>
+    </row>
+    <row r="348" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B348" s="6"/>
+    </row>
+    <row r="349" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B349" s="6"/>
+    </row>
+    <row r="350" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B350" s="6"/>
+      <c r="C350" s="7"/>
+    </row>
+    <row r="352" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B352" s="6"/>
+    </row>
+    <row r="353" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B353" s="6"/>
+    </row>
+    <row r="354" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B354" s="6"/>
+    </row>
+    <row r="355" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B355" s="6"/>
+    </row>
+    <row r="356" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B356" s="6"/>
+    </row>
+    <row r="357" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B357" s="6"/>
+    </row>
+    <row r="358" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B358" s="6"/>
+    </row>
+    <row r="359" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B359" s="6"/>
+    </row>
+    <row r="360" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B360" s="6"/>
+    </row>
+    <row r="361" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B361" s="6"/>
+    </row>
+    <row r="362" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B362" s="6"/>
+    </row>
+    <row r="363" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B363" s="6"/>
+    </row>
+    <row r="364" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B364" s="6"/>
+    </row>
+    <row r="365" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B365" s="6"/>
+    </row>
+    <row r="366" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B366" s="6"/>
+    </row>
+    <row r="367" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B367" s="6"/>
+    </row>
+    <row r="368" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B368" s="6"/>
+    </row>
+    <row r="369" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B369" s="6"/>
+    </row>
+    <row r="370" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B370" s="6"/>
+    </row>
+    <row r="371" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B371" s="6"/>
+    </row>
+    <row r="372" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B372" s="6"/>
+    </row>
+    <row r="373" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B373" s="6"/>
+    </row>
+    <row r="374" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B374" s="6"/>
+    </row>
+    <row r="375" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B375" s="6"/>
+    </row>
+    <row r="376" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B376" s="6"/>
+    </row>
+    <row r="377" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B377" s="6"/>
+    </row>
+    <row r="378" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B378" s="6"/>
+    </row>
+    <row r="379" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B379" s="6"/>
+    </row>
+    <row r="380" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B380" s="6"/>
+    </row>
+    <row r="381" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B381" s="6"/>
+    </row>
+    <row r="382" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B382" s="6"/>
+    </row>
+    <row r="383" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B383" s="6"/>
+    </row>
+    <row r="384" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B384" s="6"/>
+    </row>
+    <row r="385" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B385" s="6"/>
+    </row>
+    <row r="386" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B386" s="6"/>
+    </row>
+    <row r="387" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B387" s="6"/>
+    </row>
+    <row r="388" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B388" s="6"/>
+    </row>
+    <row r="389" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B389" s="6"/>
+    </row>
+    <row r="390" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B390" s="6"/>
+    </row>
+    <row r="391" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B391" s="6"/>
+    </row>
+    <row r="392" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B392" s="6"/>
+    </row>
+    <row r="393" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B393" s="6"/>
+    </row>
+    <row r="394" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B394" s="6"/>
+    </row>
+    <row r="395" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B395" s="6"/>
+    </row>
+    <row r="396" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B396" s="6"/>
+    </row>
+    <row r="397" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B397" s="6"/>
+    </row>
+    <row r="398" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B398" s="6"/>
+    </row>
+    <row r="399" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B399" s="6"/>
+    </row>
+    <row r="400" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B400" s="6"/>
+    </row>
+    <row r="401" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B401" s="6"/>
+    </row>
+    <row r="402" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B402" s="6"/>
+    </row>
+    <row r="403" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B403" s="6"/>
+    </row>
+    <row r="404" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B404" s="6"/>
+    </row>
+    <row r="405" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B405" s="6"/>
+    </row>
+    <row r="406" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B406" s="6"/>
+    </row>
+    <row r="407" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B407" s="6"/>
+    </row>
+    <row r="408" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B408" s="6"/>
+    </row>
+    <row r="409" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B409" s="6"/>
+    </row>
+    <row r="410" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B410" s="6"/>
+    </row>
+    <row r="411" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B411" s="6"/>
+    </row>
+    <row r="412" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B412" s="6"/>
+    </row>
+    <row r="413" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B413" s="6"/>
+    </row>
+    <row r="414" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B414" s="6"/>
+    </row>
+    <row r="415" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B415" s="6"/>
+    </row>
+    <row r="416" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B416" s="6"/>
+    </row>
+    <row r="417" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B417" s="6"/>
+    </row>
+    <row r="418" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B418" s="6"/>
+    </row>
+    <row r="419" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B419" s="6"/>
+    </row>
+    <row r="420" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B420" s="6"/>
+    </row>
+    <row r="421" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B421" s="6"/>
+    </row>
+    <row r="422" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B422" s="6"/>
+    </row>
+    <row r="423" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B423" s="6"/>
+    </row>
+    <row r="424" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B424" s="6"/>
+    </row>
+    <row r="425" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B425" s="6"/>
+    </row>
+    <row r="426" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B426" s="6"/>
+    </row>
+    <row r="427" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B427" s="6"/>
+    </row>
+    <row r="428" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B428" s="6"/>
+    </row>
+    <row r="429" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B429" s="6"/>
+    </row>
+    <row r="430" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B430" s="6"/>
+    </row>
+    <row r="431" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B431" s="6"/>
+    </row>
+    <row r="432" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B432" s="6"/>
+    </row>
+    <row r="433" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B433" s="6"/>
+    </row>
+    <row r="434" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B434" s="6"/>
+    </row>
+    <row r="435" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B435" s="6"/>
+    </row>
+    <row r="436" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B436" s="6"/>
+    </row>
+    <row r="437" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B437" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="90" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:J1">
+    <cfRule type="expression" dxfId="89" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="expression" dxfId="88" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="87" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9934,10 +9675,10 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>65</v>
@@ -9969,7 +9710,7 @@
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -10001,7 +9742,7 @@
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -10019,17 +9760,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:D1 F1:J1">
-    <cfRule type="expression" dxfId="89" priority="5">
+    <cfRule type="expression" dxfId="86" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="88" priority="4">
+    <cfRule type="expression" dxfId="85" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="87" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10093,7 +9834,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="83" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10139,10 +9880,10 @@
         <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>65</v>
@@ -10184,27 +9925,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="85" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="84" priority="4">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:J1">
-    <cfRule type="expression" dxfId="83" priority="3">
+    <cfRule type="expression" dxfId="80" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="82" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="81" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10253,12 +9994,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="12" activeTab="24"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="528">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -2482,6 +2482,71 @@
     <rPh sb="0" eb="2">
       <t>シュニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>079-443-1086</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加古郡</t>
+    <rPh sb="0" eb="3">
+      <t>カコグン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稲美町国安111</t>
+    <rPh sb="0" eb="3">
+      <t>イナミチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クニヤス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1114</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰山不動産</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フドウサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課長</t>
+    <rPh sb="0" eb="2">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRR-180326-165310-aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRR-180326-165310-aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRR-180326-165310-aaaab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWN-180326-165310-aaaab</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3708,8 +3773,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:T3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -3865,6 +3930,9 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>524</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>513</v>
@@ -4175,8 +4243,8 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4853,7 +4921,7 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6261,7 +6329,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6383,7 +6451,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
@@ -8216,10 +8284,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:R437"/>
+  <dimension ref="A1:R438"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -8291,6 +8359,9 @@
       <c r="D2" s="1" t="s">
         <v>516</v>
       </c>
+      <c r="E2" s="1">
+        <v>3.5</v>
+      </c>
       <c r="F2" s="11">
         <v>676</v>
       </c>
@@ -8310,8 +8381,40 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B3" s="6"/>
+    <row r="3" spans="1:18" ht="33" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>676</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="20.25" customHeight="1">
       <c r="B4" s="6"/>
@@ -8319,8 +8422,8 @@
     <row r="5" spans="1:18" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="20.25" customHeight="1">
-      <c r="B7" s="6"/>
+    <row r="6" spans="1:18" ht="20.25" customHeight="1">
+      <c r="B6" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="20.25" customHeight="1">
       <c r="B8" s="6"/>
@@ -9350,10 +9453,10 @@
     </row>
     <row r="350" spans="2:3" ht="20.25" customHeight="1">
       <c r="B350" s="6"/>
-      <c r="C350" s="7"/>
-    </row>
-    <row r="352" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B352" s="6"/>
+    </row>
+    <row r="351" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B351" s="6"/>
+      <c r="C351" s="7"/>
     </row>
     <row r="353" spans="2:2" ht="20.25" customHeight="1">
       <c r="B353" s="6"/>
@@ -9609,6 +9712,9 @@
     </row>
     <row r="437" spans="2:2" ht="20.25" customHeight="1">
       <c r="B437" s="6"/>
+    </row>
+    <row r="438" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B438" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -9850,7 +9956,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
@@ -9899,28 +10005,74 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="16"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F2" s="11">
+        <v>675</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="H2" s="1">
+        <v>28</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="16"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F3" s="11">
+        <v>675</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="H3" s="1">
+        <v>28</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>517</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="10"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="547">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -654,14 +654,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>send_address_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>send_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>send_pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -678,14 +670,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>arrive_address_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrive_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>arrive_pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,10 +691,6 @@
   </si>
   <si>
     <t>arrive_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>status_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2548,6 +2528,87 @@
   <si>
     <t>OWN-180326-165310-aaaab</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ORD-180514-195506-Gm3PF</t>
+  </si>
+  <si>
+    <t>OWN-180326-165310-aaaaa</t>
+  </si>
+  <si>
+    <t>土管</t>
+  </si>
+  <si>
+    <t>陰山</t>
+  </si>
+  <si>
+    <t>章人</t>
+  </si>
+  <si>
+    <t>高砂市</t>
+  </si>
+  <si>
+    <t>高砂町浜田町1-7-28</t>
+  </si>
+  <si>
+    <t>079-443-5577</t>
+  </si>
+  <si>
+    <t>午前中</t>
+  </si>
+  <si>
+    <t>ORD-STS-01</t>
+  </si>
+  <si>
+    <t>0022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send_sei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send_mei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrive_sei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrive_mei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send_timezone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrive_timezone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag_hide_owner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGO-180514-195506-NJnhO</t>
+  </si>
+  <si>
+    <t>CGF-170405-135700-abc01</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2621,7 @@
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2639,6 +2700,19 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF7D7D7D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2704,7 +2778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2756,6 +2830,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2774,7 +2869,21 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="101">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3774,7 +3883,7 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -3840,10 +3949,10 @@
         <v>34</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>65</v>
@@ -3903,7 +4012,7 @@
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -3915,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -3932,13 +4041,13 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
@@ -3965,7 +4074,7 @@
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -3977,143 +4086,143 @@
         <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>470</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>475</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>471</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>476</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>477</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>478</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:O1 U1:V1">
-    <cfRule type="expression" dxfId="98" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1">
-    <cfRule type="expression" dxfId="96" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="97" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4148,15 +4257,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4164,10 +4273,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4175,10 +4284,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4186,10 +4295,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4197,10 +4306,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4243,7 +4352,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4266,7 +4375,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4274,7 +4383,7 @@
         <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4348,13 +4457,13 @@
         <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E2" s="14">
         <v>43185.5</v>
@@ -4372,16 +4481,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E3" s="14">
         <v>43120.888888888891</v>
@@ -4393,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4598,10 +4707,10 @@
         <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4621,10 +4730,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -4632,10 +4741,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -4684,7 +4793,7 @@
         <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>148</v>
@@ -4705,13 +4814,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4719,13 +4828,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>198</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -4733,13 +4842,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -4747,13 +4856,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -4761,13 +4870,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>201</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -4775,13 +4884,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -4789,13 +4898,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -4803,13 +4912,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -4817,13 +4926,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -4831,13 +4940,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>204</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>209</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -4886,10 +4995,10 @@
         <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4918,20 +5027,24 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="20" width="9" style="11"/>
+    <col min="21" max="21" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="11"/>
+    <col min="23" max="23" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>42</v>
@@ -4943,81 +5056,174 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
+        <v>534</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="X1" s="3" t="s">
-        <v>9</v>
+        <v>539</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>146</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>165</v>
+        <v>540</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="48">
+      <c r="A2" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="G2" s="17">
+        <v>676</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="I2" s="17">
+        <v>28</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="O2" s="17">
+        <v>676</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>28</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="U2" s="23">
+        <v>43241</v>
+      </c>
+      <c r="V2" s="21"/>
+      <c r="W2" s="23">
+        <v>43242</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>100</v>
+      </c>
+      <c r="AB2" s="22">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="Y6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:G1 I1:O1 Q1:XFD1">
+  <conditionalFormatting sqref="H1:N1 A1:F1 P1:XFD1">
     <cfRule type="expression" dxfId="59" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5027,17 +5233,18 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="G1">
     <cfRule type="expression" dxfId="57" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
+  <conditionalFormatting sqref="O1">
     <cfRule type="expression" dxfId="56" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5046,10 +5253,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5057,19 +5264,235 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>275</v>
-      </c>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="48">
+      <c r="A2" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="48">
+      <c r="A3" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="48">
+      <c r="A4" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="48">
+      <c r="A5" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="11"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="11"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="11"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="11"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5105,605 +5528,605 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5727,10 +6150,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5740,31 +6163,57 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>278</v>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1800</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -5812,7 +6261,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>73</v>
@@ -5823,7 +6272,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -5855,12 +6304,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="96" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="93" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5887,13 +6336,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5917,10 +6366,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5930,10 +6379,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -5972,202 +6429,202 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6211,50 +6668,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6297,13 +6754,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6341,7 +6798,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -6349,82 +6806,82 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6461,40 +6918,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>146</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6532,16 +6989,16 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>145</v>
@@ -6582,10 +7039,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -6629,19 +7086,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
@@ -6942,12 +7399,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="92" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="91" priority="2">
+    <cfRule type="expression" dxfId="93" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,25 +7430,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -7028,16 +7485,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7078,13 +7535,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7321,19 +7778,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7384,7 +7841,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -7431,35 +7888,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -7473,13 +7930,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -7493,13 +7950,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -7513,13 +7970,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -7533,13 +7990,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>453</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>458</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -7553,13 +8010,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -7573,13 +8030,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -7593,13 +8050,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -7723,13 +8180,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8284,10 +8741,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:R438"/>
+  <dimension ref="A1:T438"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -8296,15 +8753,16 @@
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="18" width="11.875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.875" style="1"/>
+    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="20" width="11.875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.25" customHeight="1">
+    <row r="1" spans="1:20" ht="20.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>56</v>
       </c>
@@ -8321,135 +8779,153 @@
         <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" ht="33" customHeight="1">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="11">
         <v>676</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="J2" s="1">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="33" customHeight="1">
+    <row r="3" spans="1:20" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11">
         <v>676</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="I3" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="J3" s="1">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="20.25" customHeight="1">
+    <row r="4" spans="1:20" ht="20.25" customHeight="1">
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="20.25" customHeight="1">
+    <row r="5" spans="1:20" ht="20.25" customHeight="1">
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="20.25" customHeight="1">
+    <row r="6" spans="1:20" ht="20.25" customHeight="1">
       <c r="B6" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="20.25" customHeight="1">
+    <row r="8" spans="1:20" ht="20.25" customHeight="1">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="20.25" customHeight="1">
+    <row r="9" spans="1:20" ht="20.25" customHeight="1">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="20.25" customHeight="1">
+    <row r="10" spans="1:20" ht="20.25" customHeight="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="20.25" customHeight="1">
+    <row r="11" spans="1:20" ht="20.25" customHeight="1">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="20.25" customHeight="1">
+    <row r="12" spans="1:20" ht="20.25" customHeight="1">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="20.25" customHeight="1">
+    <row r="13" spans="1:20" ht="20.25" customHeight="1">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="20.25" customHeight="1">
+    <row r="14" spans="1:20" ht="20.25" customHeight="1">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="20.25" customHeight="1">
+    <row r="15" spans="1:20" ht="20.25" customHeight="1">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="20.25" customHeight="1">
+    <row r="16" spans="1:20" ht="20.25" customHeight="1">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" ht="20.25" customHeight="1">
@@ -9719,22 +10195,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="92" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:J1">
-    <cfRule type="expression" dxfId="89" priority="3">
+  <conditionalFormatting sqref="I1:L1">
+    <cfRule type="expression" dxfId="91" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="88" priority="2">
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="90" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
-    <cfRule type="expression" dxfId="87" priority="1">
+  <conditionalFormatting sqref="M1">
+    <cfRule type="expression" dxfId="89" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="expression" dxfId="88" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9781,10 +10262,10 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>65</v>
@@ -9816,7 +10297,7 @@
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -9848,7 +10329,7 @@
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -9866,17 +10347,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:D1 F1:J1">
-    <cfRule type="expression" dxfId="86" priority="5">
+    <cfRule type="expression" dxfId="87" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="85" priority="4">
+    <cfRule type="expression" dxfId="86" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9940,7 +10421,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="83" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9953,23 +10434,24 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="6" max="8" width="17.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>139</v>
       </c>
@@ -9986,117 +10468,140 @@
         <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E2" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="11">
         <v>675</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="I2" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="J2" s="1">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E3" s="1">
         <v>3.3</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="11">
         <v>675</v>
       </c>
-      <c r="G3" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="I3" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="J3" s="1">
         <v>28</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>519</v>
-      </c>
       <c r="K3" s="11" t="s">
-        <v>517</v>
+        <v>513</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
+    <cfRule type="expression" dxfId="83" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
     <cfRule type="expression" dxfId="82" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
+  <conditionalFormatting sqref="I1:L1">
     <cfRule type="expression" dxfId="81" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:J1">
+  <conditionalFormatting sqref="H1">
     <cfRule type="expression" dxfId="80" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
+  <conditionalFormatting sqref="M1">
     <cfRule type="expression" dxfId="79" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1">
+  <conditionalFormatting sqref="F1:G1">
     <cfRule type="expression" dxfId="78" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -10113,7 +10618,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -30,8 +30,8 @@
     <sheet name="order_to_cargos" sheetId="103" r:id="rId21"/>
     <sheet name="cargo_names" sheetId="104" r:id="rId22"/>
     <sheet name="cargo_forms" sheetId="105" r:id="rId23"/>
-    <sheet name="order_progress" sheetId="92" r:id="rId24"/>
-    <sheet name="order_statuses" sheetId="93" r:id="rId25"/>
+    <sheet name="status_logs" sheetId="92" r:id="rId24"/>
+    <sheet name="statuses" sheetId="93" r:id="rId25"/>
     <sheet name="estimates" sheetId="94" r:id="rId26"/>
     <sheet name="estimate_items" sheetId="95" r:id="rId27"/>
     <sheet name="estimate_temps" sheetId="96" r:id="rId28"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="570">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -985,14 +985,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>applied_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>estimate_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1028,16 +1020,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見積り中</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>発注中</t>
     <rPh sb="0" eb="2">
       <t>ハッチュウ</t>
@@ -1055,104 +1037,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了（クレジット決済）</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケッサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了（未請求）</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミセイキュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了（未入金）</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了（未入金確認）</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>完了（真）</t>
-    <rPh sb="0" eb="2">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>辞退</t>
-    <rPh sb="0" eb="2">
-      <t>ジタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ORD-STS-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ORD-STS-06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ORD-STS-11</t>
-  </si>
-  <si>
-    <t>ORD-STS-16</t>
-  </si>
-  <si>
-    <t>ORD-STS-21</t>
-  </si>
-  <si>
-    <t>ORD-STS-26</t>
-  </si>
-  <si>
-    <t>ORD-STS-31</t>
-  </si>
-  <si>
-    <t>ORD-STS-36</t>
-  </si>
-  <si>
-    <t>ORD-STS-41</t>
-  </si>
-  <si>
-    <t>ORD-STS-46</t>
-  </si>
-  <si>
     <t>order_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2557,9 +2441,6 @@
     <t>午前中</t>
   </si>
   <si>
-    <t>ORD-STS-01</t>
-  </si>
-  <si>
     <t>0022</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2609,6 +2490,220 @@
   </si>
   <si>
     <t>other</t>
+  </si>
+  <si>
+    <t>work_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積受付中</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ウケツケチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積提出済</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-02</t>
+  </si>
+  <si>
+    <t>見積受付終了</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-02</t>
+  </si>
+  <si>
+    <t>荷主検討中</t>
+    <rPh sb="0" eb="2">
+      <t>ニヌシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケントウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-03</t>
+  </si>
+  <si>
+    <t>W-03</t>
+  </si>
+  <si>
+    <t>受注中</t>
+    <rPh sb="0" eb="2">
+      <t>ジュチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-04</t>
+  </si>
+  <si>
+    <t>W-04</t>
+  </si>
+  <si>
+    <t>O-05</t>
+  </si>
+  <si>
+    <t>未入金</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-05</t>
+  </si>
+  <si>
+    <t>入金未確認</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-06</t>
+  </si>
+  <si>
+    <t>入金済</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-07</t>
+  </si>
+  <si>
+    <t>入金確認済</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-07</t>
+  </si>
+  <si>
+    <t>W-99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失注</t>
+    <rPh sb="0" eb="2">
+      <t>シッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point_of_view</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITM-180515-181321-FjiI5</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>商品名1</t>
+  </si>
+  <si>
+    <t>ITM-180515-181321-FjiI6</t>
+  </si>
+  <si>
+    <t>ITM-180515-181321-FjiI7</t>
+  </si>
+  <si>
+    <t>abc124</t>
+  </si>
+  <si>
+    <t>abc125</t>
+  </si>
+  <si>
+    <t>商品名2</t>
+  </si>
+  <si>
+    <t>商品名3</t>
+  </si>
+  <si>
+    <t>estimate_start_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>estimate_close_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-01</t>
   </si>
 </sst>
 </file>
@@ -2778,7 +2873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2851,6 +2946,12 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -2869,7 +2970,14 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3949,10 +4057,10 @@
         <v>34</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>65</v>
@@ -4012,7 +4120,7 @@
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4024,7 +4132,7 @@
         <v>79</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4041,13 +4149,13 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
@@ -4074,7 +4182,7 @@
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -4086,143 +4194,143 @@
         <v>79</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:O1 U1:V1">
-    <cfRule type="expression" dxfId="100" priority="4">
+    <cfRule type="expression" dxfId="101" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="99" priority="3">
+    <cfRule type="expression" dxfId="100" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1">
-    <cfRule type="expression" dxfId="98" priority="2">
+    <cfRule type="expression" dxfId="99" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4265,7 +4373,7 @@
         <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4276,7 +4384,7 @@
         <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4287,7 +4395,7 @@
         <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4295,10 +4403,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4306,10 +4414,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4327,17 +4435,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="75" priority="3">
+    <cfRule type="expression" dxfId="76" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4389,12 +4497,12 @@
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4672,12 +4780,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4710,7 +4818,7 @@
         <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4753,17 +4861,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="68" priority="1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4955,17 +5063,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5004,17 +5112,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="62" priority="2">
+    <cfRule type="expression" dxfId="63" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="61" priority="1">
+    <cfRule type="expression" dxfId="62" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="60" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5029,8 +5137,8 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5039,7 +5147,9 @@
     <col min="21" max="21" width="16.5" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="11"/>
     <col min="23" max="23" width="16.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="11"/>
+    <col min="24" max="29" width="9" style="11"/>
+    <col min="30" max="31" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -5056,16 +5166,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>151</v>
@@ -5080,16 +5190,16 @@
         <v>154</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>155</v>
@@ -5107,19 +5217,19 @@
         <v>159</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>160</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>146</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>161</v>
@@ -5128,69 +5238,75 @@
         <v>162</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>541</v>
+        <v>521</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>186</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="I2" s="17">
         <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="Q2" s="17">
         <v>28</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5200,10 +5316,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5213,32 +5329,41 @@
       </c>
       <c r="AC2" s="11">
         <v>0</v>
+      </c>
+      <c r="AD2" s="23">
+        <v>43235.762314814812</v>
+      </c>
+      <c r="AE2" s="23">
+        <v>43248.416666666664</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="Y6" s="19"/>
       <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H1:N1 A1:F1 P1:XFD1">
+  <conditionalFormatting sqref="H1:N1 A1:F1 P1:AC1 AF1:XFD1">
+    <cfRule type="expression" dxfId="60" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
     <cfRule type="expression" dxfId="59" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
+  <conditionalFormatting sqref="G1">
     <cfRule type="expression" dxfId="58" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
+  <conditionalFormatting sqref="O1">
     <cfRule type="expression" dxfId="57" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="AD1:AE1">
     <cfRule type="expression" dxfId="56" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5266,27 +5391,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -5294,13 +5419,13 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5308,13 +5433,13 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -5322,13 +5447,13 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -5528,605 +5653,605 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6163,39 +6288,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -6213,7 +6338,7 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6386,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>73</v>
@@ -6272,7 +6397,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>74</v>
@@ -6304,12 +6429,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="97" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6336,13 +6461,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6382,15 +6507,15 @@
         <v>217</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -6429,202 +6554,202 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6668,50 +6793,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6740,10 +6865,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -6752,26 +6877,41 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>527</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>219</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="40" priority="1">
+    <cfRule type="expression" dxfId="40" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="expression" dxfId="39" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6784,115 +6924,204 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="31.125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>163</v>
+        <v>553</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>236</v>
+      <c r="C6" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="24" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="39" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6918,7 +7147,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>164</v>
@@ -6989,7 +7218,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>173</v>
@@ -7039,7 +7268,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>175</v>
@@ -7072,10 +7301,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7086,7 +7315,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>41</v>
@@ -7102,6 +7331,57 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7399,12 +7679,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7430,7 +7710,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>164</v>
@@ -7485,16 +7765,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -7535,13 +7815,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7778,7 +8058,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>181</v>
@@ -7787,10 +8067,10 @@
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7841,7 +8121,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -7888,35 +8168,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -7930,13 +8210,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -7950,13 +8230,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -7970,13 +8250,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -7990,13 +8270,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8010,13 +8290,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8030,13 +8310,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8050,13 +8330,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -8180,13 +8460,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8785,10 +9065,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>65</v>
@@ -8812,16 +9092,16 @@
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
@@ -8836,7 +9116,7 @@
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -8853,16 +9133,16 @@
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
@@ -8877,7 +9157,7 @@
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -10195,27 +10475,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="92" priority="6">
+    <cfRule type="expression" dxfId="93" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="91" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10262,10 +10542,10 @@
         <v>64</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>65</v>
@@ -10297,7 +10577,7 @@
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -10329,7 +10609,7 @@
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -10347,17 +10627,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:D1 F1:J1">
-    <cfRule type="expression" dxfId="87" priority="5">
+    <cfRule type="expression" dxfId="88" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="86" priority="4">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="85" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10421,7 +10701,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10474,10 +10754,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>65</v>
@@ -10494,16 +10774,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E2" s="1">
         <v>4.5999999999999996</v>
@@ -10518,33 +10798,33 @@
         <v>675</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E3" s="1">
         <v>3.3</v>
@@ -10559,50 +10839,50 @@
         <v>675</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="83" priority="6">
+    <cfRule type="expression" dxfId="84" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="82" priority="5">
+    <cfRule type="expression" dxfId="83" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="80" priority="3">
+    <cfRule type="expression" dxfId="81" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="78" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10651,12 +10931,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="76" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="15" activeTab="15"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="577">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Harima5577</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>hashed_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -172,28 +168,6 @@
   </si>
   <si>
     <t>a.kageyama@harimanics.co.jp</t>
-  </si>
-  <si>
-    <t>陰山</t>
-    <rPh sb="0" eb="2">
-      <t>カゲヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>章人</t>
-    <rPh sb="0" eb="2">
-      <t>アキヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>かげやま</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あきと</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>開発</t>
@@ -207,10 +181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>080-5718-1597</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>icon_filepath</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -223,14 +193,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>akito</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kosuke</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>carrier_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -240,32 +202,6 @@
   </si>
   <si>
     <t>mobile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハリマのアイドル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>槙</t>
-    <rPh sb="0" eb="1">
-      <t>マキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>康輔</t>
-    <rPh sb="0" eb="2">
-      <t>コウスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>まき</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>こうすけ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -374,14 +310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ADR-180326-165310-aaaaa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADR-180326-165310-aaaab</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録住所</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -392,20 +320,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>陰山</t>
-    <rPh sb="0" eb="2">
-      <t>カゲヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>章人</t>
-    <rPh sb="0" eb="2">
-      <t>アキヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>高砂市</t>
     <rPh sb="0" eb="2">
       <t>タカサゴ</t>
@@ -583,20 +497,6 @@
     <t>沖縄県</t>
   </si>
   <si>
-    <t>槙</t>
-    <rPh sb="0" eb="1">
-      <t>マキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>康輔</t>
-    <rPh sb="0" eb="2">
-      <t>コウスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OWN-180326-165310-aaaab</t>
   </si>
   <si>
@@ -1065,10 +965,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリマのワイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ton</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2195,10 +2091,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Harima5577</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sample02</t>
   </si>
   <si>
@@ -2263,14 +2155,6 @@
     <t>012-3456-0005</t>
   </si>
   <si>
-    <t>http://s3.transporter.fun/img/photo/2018/04/UPL-180406-174003-OekbR_md.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>http://s3.transporter.fun/img/photo/2018/04/UPL-180406-174019-Et9GY_md.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>zip1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2296,10 +2180,6 @@
   </si>
   <si>
     <t>arrive_zip2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_account</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2329,75 +2209,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>企画制作課</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイサク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主任</t>
-    <rPh sb="0" eb="2">
-      <t>シュニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>079-443-1086</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加古郡</t>
-    <rPh sb="0" eb="3">
-      <t>カコグン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>稲美町国安111</t>
-    <rPh sb="0" eb="3">
-      <t>イナミチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クニヤス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1114</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>陰山不動産</t>
-    <rPh sb="0" eb="2">
-      <t>カゲヤマ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>フドウサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課長</t>
-    <rPh sb="0" eb="2">
-      <t>カチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CRR-180326-165310-aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2704,6 +2515,231 @@
   </si>
   <si>
     <t>O-01</t>
+  </si>
+  <si>
+    <t>荷物送るマン</t>
+    <rPh sb="0" eb="2">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷物運ぶマン</t>
+    <rPh sb="0" eb="2">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>産業</t>
+    <rPh sb="0" eb="2">
+      <t>サンギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花子</t>
+    <rPh sb="0" eb="2">
+      <t>ハナコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんぎょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はなこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>播磨</t>
+    <rPh sb="0" eb="2">
+      <t>ハリマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太郎</t>
+    <rPh sb="0" eb="2">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はりま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-0123-4567</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>012-345-6789</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>098-765-4321</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://s3.transporter.fun/img/photo/2018/05/UPL-180518-095315-XdmTY_md.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://s3.transporter.fun/img/photo/2018/05/UPL-180518-095257-BGKvT_md.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒井町新浜2丁目8-25第1高砂菱興ビル5F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菱田産業株式会社</t>
+    <rPh sb="0" eb="2">
+      <t>ヒシダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総務課</t>
+    <rPh sb="0" eb="3">
+      <t>ソウムカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運輸部</t>
+    <rPh sb="0" eb="2">
+      <t>ウンユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部長</t>
+    <rPh sb="0" eb="2">
+      <t>ブチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菱高</t>
+    <rPh sb="0" eb="1">
+      <t>ヒシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一分室</t>
+    <rPh sb="0" eb="2">
+      <t>ダイイチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三分室</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一郎</t>
+    <rPh sb="0" eb="2">
+      <t>イチロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三郎</t>
+    <rPh sb="0" eb="2">
+      <t>サブロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒井町新浜2丁目8-30第3高砂菱興ビル1F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>079-443-3336</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>078-443-7888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa3</t>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa4</t>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa5</t>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa6</t>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADR-180326-165310-aaaa2</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3990,8 +4026,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -4015,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
@@ -4027,10 +4063,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>1</v>
@@ -4051,265 +4087,265 @@
         <v>2</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="V1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>539</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>541</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>537</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>543</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>544</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>48</v>
+        <v>545</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>477</v>
+        <v>556</v>
+      </c>
+      <c r="U2" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>540</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>541</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>235</v>
+        <v>538</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>547</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>548</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>549</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>550</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>476</v>
+        <v>62</v>
+      </c>
+      <c r="U3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="N4" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="N5" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="N6" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="N7" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="N8" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -4359,21 +4395,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4381,10 +4417,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4392,10 +4428,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4403,10 +4439,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4414,10 +4450,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4472,26 +4508,26 @@
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4533,45 +4569,45 @@
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="E2" s="14">
         <v>43185.5</v>
@@ -4589,16 +4625,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E3" s="14">
         <v>43120.888888888891</v>
@@ -4610,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4812,13 +4848,13 @@
   <sheetData>
     <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4838,10 +4874,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -4849,10 +4885,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -4898,16 +4934,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4922,13 +4958,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4936,13 +4972,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -4950,13 +4986,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -4964,13 +5000,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -4978,13 +5014,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -4992,13 +5028,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5006,13 +5042,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5020,13 +5056,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5034,13 +5070,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5048,13 +5084,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5100,13 +5136,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5137,7 +5173,7 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
@@ -5154,159 +5190,159 @@
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="I2" s="17">
         <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="Q2" s="17">
         <v>28</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5316,10 +5352,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5391,27 +5427,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -5419,13 +5455,13 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5433,13 +5469,13 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -5447,13 +5483,13 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -5653,605 +5689,605 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6288,39 +6324,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -6338,7 +6374,7 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -6360,7 +6396,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -6375,32 +6411,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6461,13 +6525,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -6504,18 +6568,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6554,202 +6618,202 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>273</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>275</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6793,50 +6857,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -6879,21 +6943,21 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -6938,103 +7002,103 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7043,79 +7107,79 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="24" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="24" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="24" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -7136,8 +7200,8 @@
   </sheetPr>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
@@ -7147,40 +7211,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7206,8 +7270,8 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7218,19 +7282,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -7268,10 +7332,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -7315,36 +7379,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7352,16 +7416,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7369,16 +7433,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -7421,16 +7485,16 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>99</v>
@@ -7439,7 +7503,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>99</v>
@@ -7699,7 +7763,7 @@
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -7710,25 +7774,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7765,16 +7829,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7812,16 +7876,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7889,10 +7953,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>9</v>
@@ -7952,7 +8016,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8122,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8121,13 +8185,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -8168,35 +8232,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -8210,13 +8274,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -8230,13 +8294,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -8250,13 +8314,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -8270,13 +8334,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8290,13 +8354,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8310,13 +8374,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8330,13 +8394,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -8447,8 +8511,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8460,13 +8524,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -8478,10 +8542,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8489,10 +8553,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8500,10 +8564,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8511,10 +8575,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8522,10 +8586,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -8533,10 +8597,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8544,10 +8608,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -8555,10 +8619,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8566,10 +8630,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -8577,10 +8641,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8588,10 +8652,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -8599,10 +8663,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -8610,10 +8674,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -8621,10 +8685,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -8632,10 +8696,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8643,10 +8707,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8654,10 +8718,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8665,10 +8729,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8676,10 +8740,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8687,10 +8751,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8698,10 +8762,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8709,10 +8773,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8720,10 +8784,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8731,10 +8795,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8742,10 +8806,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8753,10 +8817,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8764,10 +8828,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8775,10 +8839,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8786,10 +8850,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8797,10 +8861,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8808,10 +8872,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8819,10 +8883,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8830,10 +8894,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8841,10 +8905,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8852,10 +8916,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8863,10 +8927,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8874,10 +8938,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8885,10 +8949,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8896,10 +8960,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8907,10 +8971,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8918,10 +8982,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8929,10 +8993,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8940,10 +9004,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8951,10 +9015,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8962,10 +9026,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8973,10 +9037,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8984,10 +9048,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9024,7 +9088,7 @@
   <dimension ref="A1:T438"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -9044,19 +9108,19 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -9065,22 +9129,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -9092,84 +9156,81 @@
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>543</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>80</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>546</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>547</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>80</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
@@ -10509,10 +10570,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -10530,98 +10591,226 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>569</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>77</v>
+        <v>546</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>547</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>570</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>135</v>
+        <v>542</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>543</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>80</v>
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="11">
+        <v>676</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G4" s="1">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="11">
+        <v>676</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G5" s="1">
+        <v>28</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E6" s="11">
+        <v>676</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G6" s="1">
+        <v>28</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="11">
+        <v>676</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="G7" s="1">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -10679,23 +10868,23 @@
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -10716,8 +10905,8 @@
   </sheetPr>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
@@ -10733,19 +10922,19 @@
   <sheetData>
     <row r="1" spans="1:13" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -10754,104 +10943,102 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="E2" s="1">
-        <v>4.5999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>547</v>
       </c>
       <c r="H2" s="11">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>494</v>
+        <v>61</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>495</v>
+        <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>499</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>542</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>543</v>
       </c>
       <c r="H3" s="11">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>494</v>
+        <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>493</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -10898,7 +11085,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="38"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="580">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -2311,10 +2311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積受付中</t>
     <rPh sb="0" eb="2">
       <t>ミツモリ</t>
@@ -2325,10 +2321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積提出済</t>
     <rPh sb="0" eb="2">
       <t>ミツモリ</t>
@@ -2342,9 +2334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-02</t>
-  </si>
-  <si>
     <t>見積受付終了</t>
     <rPh sb="0" eb="2">
       <t>ミツモリ</t>
@@ -2358,9 +2347,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W-02</t>
-  </si>
-  <si>
     <t>荷主検討中</t>
     <rPh sb="0" eb="2">
       <t>ニヌシ</t>
@@ -2371,12 +2357,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-03</t>
-  </si>
-  <si>
-    <t>W-03</t>
-  </si>
-  <si>
     <t>受注中</t>
     <rPh sb="0" eb="2">
       <t>ジュチュウ</t>
@@ -2387,15 +2367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-04</t>
-  </si>
-  <si>
-    <t>W-04</t>
-  </si>
-  <si>
-    <t>O-05</t>
-  </si>
-  <si>
     <t>未入金</t>
     <rPh sb="0" eb="3">
       <t>ミニュウキン</t>
@@ -2403,9 +2374,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W-05</t>
-  </si>
-  <si>
     <t>入金未確認</t>
     <rPh sb="0" eb="2">
       <t>ニュウキン</t>
@@ -2416,9 +2384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-06</t>
-  </si>
-  <si>
     <t>入金済</t>
     <rPh sb="0" eb="2">
       <t>ニュウキン</t>
@@ -2429,9 +2394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-07</t>
-  </si>
-  <si>
     <t>入金確認済</t>
     <rPh sb="0" eb="2">
       <t>ニュウキン</t>
@@ -2445,13 +2407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>W-07</t>
-  </si>
-  <si>
-    <t>W-99</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>失注</t>
     <rPh sb="0" eb="2">
       <t>シッチュウ</t>
@@ -2739,6 +2694,67 @@
   </si>
   <si>
     <t>ADR-180326-165310-aaaa2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-15</t>
+  </si>
+  <si>
+    <t>O-20</t>
+  </si>
+  <si>
+    <t>O-25</t>
+  </si>
+  <si>
+    <t>O-30</t>
+  </si>
+  <si>
+    <t>O-35</t>
+  </si>
+  <si>
+    <t>O-40</t>
+  </si>
+  <si>
+    <t>W-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-15</t>
+  </si>
+  <si>
+    <t>W-20</t>
+  </si>
+  <si>
+    <t>W-25</t>
+  </si>
+  <si>
+    <t>W-30</t>
+  </si>
+  <si>
+    <t>W-00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O-05</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2909,7 +2925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2987,6 +3003,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4120,10 +4139,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>119</v>
@@ -4132,31 +4151,31 @@
         <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4165,10 +4184,10 @@
         <v>61</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="U2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4179,10 +4198,10 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>467</v>
@@ -4191,28 +4210,28 @@
         <v>465</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
@@ -4230,7 +4249,7 @@
         <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
@@ -4244,7 +4263,7 @@
         <v>435</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>440</v>
@@ -4267,7 +4286,7 @@
         <v>436</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>441</v>
@@ -4290,7 +4309,7 @@
         <v>437</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>442</v>
@@ -4313,7 +4332,7 @@
         <v>438</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>443</v>
@@ -4336,7 +4355,7 @@
         <v>439</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>444</v>
@@ -5173,7 +5192,7 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
@@ -5277,10 +5296,10 @@
         <v>488</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
@@ -5355,7 +5374,7 @@
         <v>479</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>496</v>
+        <v>579</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -6423,7 +6442,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6432,7 +6451,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1">
@@ -6440,7 +6459,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
@@ -6448,7 +6467,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
@@ -6456,7 +6475,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -6464,7 +6483,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6957,7 +6976,7 @@
         <v>471</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -6988,10 +7007,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7002,13 +7021,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7016,170 +7035,181 @@
         <v>495</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>206</v>
+        <v>563</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>496</v>
+        <v>564</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>497</v>
+        <v>206</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>207</v>
+        <v>498</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>507</v>
+        <v>567</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>509</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="D8" s="24"/>
+        <v>509</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>523</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>524</v>
-      </c>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>524</v>
+        <v>497</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="24" t="s">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>524</v>
+        <v>499</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>524</v>
+        <v>500</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="24" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>524</v>
+        <v>208</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>524</v>
+        <v>502</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>524</v>
+        <v>504</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="24" t="s">
+        <v>578</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -7399,16 +7429,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7416,16 +7446,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7433,16 +7463,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -8511,7 +8541,7 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9159,25 +9189,25 @@
         <v>465</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -9186,10 +9216,10 @@
         <v>61</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
@@ -9200,19 +9230,19 @@
         <v>466</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
@@ -9230,7 +9260,7 @@
         <v>62</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
@@ -10623,16 +10653,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
@@ -10655,22 +10685,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -10679,30 +10709,30 @@
         <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="E4" s="11">
         <v>676</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -10711,30 +10741,30 @@
         <v>61</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="E5" s="11">
         <v>676</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -10743,30 +10773,30 @@
         <v>61</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="E6" s="11">
         <v>676</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G6" s="1">
         <v>28</v>
@@ -10775,30 +10805,30 @@
         <v>61</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="E7" s="11">
         <v>676</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="G7" s="1">
         <v>28</v>
@@ -10807,10 +10837,10 @@
         <v>61</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -10969,19 +10999,19 @@
         <v>466</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
@@ -10999,7 +11029,7 @@
         <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11007,26 +11037,26 @@
         <v>469</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -11035,10 +11065,10 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/akito/www.transporter.fun/root/laravel/database/seeds/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1452614F-3F72-E04E-9A9E-76BF8703C0F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="15"/>
+    <workbookView xWindow="1360" yWindow="2280" windowWidth="36440" windowHeight="16440" tabRatio="880" firstSheet="15" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -36,16 +42,17 @@
     <sheet name="estimate_items" sheetId="95" r:id="rId27"/>
     <sheet name="estimate_temps" sheetId="96" r:id="rId28"/>
     <sheet name="items" sheetId="97" r:id="rId29"/>
-    <sheet name="reports" sheetId="98" r:id="rId30"/>
-    <sheet name="report_temps" sheetId="99" r:id="rId31"/>
-    <sheet name="boards" sheetId="49" r:id="rId32"/>
-    <sheet name="messages" sheetId="70" r:id="rId33"/>
-    <sheet name="message_unopeneds" sheetId="71" r:id="rId34"/>
-    <sheet name="news" sheetId="51" r:id="rId35"/>
-    <sheet name="evaluations" sheetId="100" r:id="rId36"/>
-    <sheet name="evaluation_stars" sheetId="106" r:id="rId37"/>
-    <sheet name="evaluation_items" sheetId="107" r:id="rId38"/>
-    <sheet name="prefs" sheetId="80" r:id="rId39"/>
+    <sheet name="works" sheetId="110" r:id="rId30"/>
+    <sheet name="reports" sheetId="98" r:id="rId31"/>
+    <sheet name="report_temps" sheetId="99" r:id="rId32"/>
+    <sheet name="boards" sheetId="49" r:id="rId33"/>
+    <sheet name="messages" sheetId="70" r:id="rId34"/>
+    <sheet name="message_unopeneds" sheetId="71" r:id="rId35"/>
+    <sheet name="news" sheetId="51" r:id="rId36"/>
+    <sheet name="evaluations" sheetId="100" r:id="rId37"/>
+    <sheet name="evaluation_stars" sheetId="106" r:id="rId38"/>
+    <sheet name="evaluation_items" sheetId="107" r:id="rId39"/>
+    <sheet name="prefs" sheetId="80" r:id="rId40"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -57,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="603">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -610,10 +617,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>client_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>order_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,10 +638,6 @@
   </si>
   <si>
     <t>limit_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>payment_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2754,21 +2753,124 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-05</t>
-    <phoneticPr fontId="1"/>
+    <t>ETM-180524-185522-Bc2Ec</t>
+  </si>
+  <si>
+    <t>aaaa
+aaaaa
+aaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>suggested_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>placed_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rejected_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETM-180524-185522-Bc301</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETM-180524-185522-Bc302</t>
+  </si>
+  <si>
+    <t>ETM-180524-185522-Bc303</t>
+  </si>
+  <si>
+    <t>ETM-180524-185522-Bc304</t>
+  </si>
+  <si>
+    <t>土管</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fuga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ungaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hongeee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parara</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hello World</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>welcome to the workd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運送費</t>
+    <rPh sb="0" eb="2">
+      <t>ウンソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバー費</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテナンス</t>
+    <rPh sb="0" eb="1">
+      <t>h</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャージ料</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WRK-180524-185522-P5hR1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WRK-180524-185522-P5hR2</t>
+  </si>
+  <si>
+    <t>WRK-180524-185522-P5hR3</t>
+  </si>
+  <si>
+    <t>WRK-180524-185522-P5hR4</t>
+  </si>
+  <si>
+    <t>WRK-180524-185522-P5hR5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\&amp;&quot;0:00:00&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2860,6 +2962,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7D7D7D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2925,7 +3047,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3007,6 +3129,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -3025,7 +3174,14 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="102">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4039,7 +4195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -4049,20 +4205,20 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.375" style="1" customWidth="1"/>
-    <col min="8" max="12" width="13.625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.375" style="1" customWidth="1"/>
-    <col min="16" max="18" width="17.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="48.125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="12" width="13.6640625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.33203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="17.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="48.1640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1">
@@ -4112,10 +4268,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>52</v>
@@ -4139,10 +4295,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>119</v>
@@ -4151,31 +4307,31 @@
         <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4184,10 +4340,10 @@
         <v>61</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="U2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4198,46 +4354,46 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>538</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -4249,143 +4405,143 @@
         <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:O1 U1:V1">
-    <cfRule type="expression" dxfId="101" priority="4">
+    <cfRule type="expression" dxfId="100" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="100" priority="3">
+    <cfRule type="expression" dxfId="99" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1">
-    <cfRule type="expression" dxfId="99" priority="2">
+    <cfRule type="expression" dxfId="98" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="98" priority="1">
+    <cfRule type="expression" dxfId="97" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4395,7 +4551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4405,10 +4561,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4420,15 +4576,15 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4436,10 +4592,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4447,10 +4603,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4458,10 +4614,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4469,10 +4625,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4490,17 +4646,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="76" priority="3">
+    <cfRule type="expression" dxfId="75" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="75" priority="2">
+    <cfRule type="expression" dxfId="74" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="74" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4509,7 +4665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4519,13 +4675,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="31.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:2" s="13" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4538,7 +4694,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4546,18 +4702,18 @@
         <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="72" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="72" priority="2">
+    <cfRule type="expression" dxfId="71" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4566,7 +4722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4576,13 +4732,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="23.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="23.6640625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4620,13 +4776,13 @@
         <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="E2" s="14">
         <v>43185.5</v>
@@ -4644,16 +4800,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="E3" s="14">
         <v>43120.888888888891</v>
@@ -4665,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4835,12 +4991,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="70" priority="2">
+    <cfRule type="expression" dxfId="69" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4849,7 +5005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4859,21 +5015,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:18" s="13" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -4893,10 +5049,10 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -4904,10 +5060,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1">
         <v>8</v>
@@ -4916,17 +5072,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="69" priority="1">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="68" priority="4">
+    <cfRule type="expression" dxfId="67" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="67" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4935,7 +5091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4945,7 +5101,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -4956,7 +5112,7 @@
         <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>129</v>
@@ -4977,13 +5133,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4991,13 +5147,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -5005,13 +5161,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -5019,13 +5175,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -5033,13 +5189,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -5047,13 +5203,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5061,13 +5217,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>180</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5075,13 +5231,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5089,13 +5245,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5103,13 +5259,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5118,17 +5274,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="66" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="65" priority="1">
+    <cfRule type="expression" dxfId="64" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="64" priority="3">
+    <cfRule type="expression" dxfId="63" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5137,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5147,37 +5303,37 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="34.1640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:3" s="13" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="62" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="62" priority="1">
+    <cfRule type="expression" dxfId="61" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="61" priority="3">
+    <cfRule type="expression" dxfId="60" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5186,17 +5342,17 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="20" width="9" style="11"/>
     <col min="21" max="21" width="16.5" style="11" bestFit="1" customWidth="1"/>
@@ -5221,16 +5377,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>132</v>
@@ -5245,16 +5401,16 @@
         <v>135</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>136</v>
@@ -5272,19 +5428,19 @@
         <v>140</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>141</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>127</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>142</v>
@@ -5293,75 +5449,75 @@
         <v>143</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>473</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>475</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="I2" s="17">
         <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>478</v>
-      </c>
       <c r="M2" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="Q2" s="17">
         <v>28</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>476</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>478</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5371,10 +5527,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5399,27 +5555,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:N1 A1:F1 P1:AC1 AF1:XFD1">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="59" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="59" priority="4">
+    <cfRule type="expression" dxfId="58" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="58" priority="3">
+    <cfRule type="expression" dxfId="57" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AE1">
-    <cfRule type="expression" dxfId="56" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5429,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5439,34 +5595,34 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -5474,13 +5630,13 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5488,13 +5644,13 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -5502,13 +5658,13 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -5677,7 +5833,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="54" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5686,7 +5842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5696,628 +5852,628 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>462</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="53" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="52" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6326,7 +6482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6336,46 +6492,46 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -6393,13 +6549,13 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="52" priority="1">
+    <cfRule type="expression" dxfId="51" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6408,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6418,11 +6574,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="47.125" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
@@ -6442,7 +6598,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6451,7 +6607,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1">
@@ -6459,7 +6615,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
@@ -6467,7 +6623,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
@@ -6475,7 +6631,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -6483,7 +6639,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6512,12 +6668,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="97" priority="3">
+    <cfRule type="expression" dxfId="96" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="96" priority="1">
+    <cfRule type="expression" dxfId="95" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6527,7 +6683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6537,31 +6693,31 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="50" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="50" priority="2">
+    <cfRule type="expression" dxfId="49" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6570,7 +6726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6580,36 +6736,36 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="49" priority="1">
+    <cfRule type="expression" dxfId="48" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="48" priority="2">
+    <cfRule type="expression" dxfId="47" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6618,7 +6774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6628,7 +6784,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="1" customWidth="1"/>
@@ -6637,218 +6793,218 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="47" priority="4">
+    <cfRule type="expression" dxfId="46" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="46" priority="1">
+    <cfRule type="expression" dxfId="45" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="45" priority="2">
+    <cfRule type="expression" dxfId="44" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6857,7 +7013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6867,75 +7023,75 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="44" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="43" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="42" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6944,7 +7100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6954,18 +7110,18 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>144</v>
@@ -6973,10 +7129,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -6984,17 +7140,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="40" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="40" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="39" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7003,7 +7159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7013,122 +7169,122 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="1" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>506</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7137,85 +7293,85 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="24" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7224,24 +7380,24 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="18.125" style="1"/>
+    <col min="1" max="16384" width="18.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
@@ -7268,24 +7424,219 @@
         <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>152</v>
+        <v>579</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>153</v>
-      </c>
+    </row>
+    <row r="2" spans="1:16" ht="64">
+      <c r="A2" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2" s="1">
+        <v>201</v>
+      </c>
+      <c r="H2" s="23">
+        <v>43244</v>
+      </c>
+      <c r="I2" s="23">
+        <v>43274</v>
+      </c>
+      <c r="J2" s="23">
+        <v>43244.790138888886</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="64">
+      <c r="A3" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="1">
+        <v>202</v>
+      </c>
+      <c r="H3" s="23">
+        <v>43244</v>
+      </c>
+      <c r="I3" s="23">
+        <v>43274</v>
+      </c>
+      <c r="J3" s="23">
+        <v>43244.809583333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="64">
+      <c r="A4" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G4" s="1">
+        <v>203</v>
+      </c>
+      <c r="H4" s="23">
+        <v>43244</v>
+      </c>
+      <c r="I4" s="23">
+        <v>43274</v>
+      </c>
+      <c r="J4" s="23">
+        <v>43244.829027835651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="64">
+      <c r="A5" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G5" s="1">
+        <v>204</v>
+      </c>
+      <c r="H5" s="23">
+        <v>43244</v>
+      </c>
+      <c r="I5" s="23">
+        <v>43274</v>
+      </c>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" ht="64">
+      <c r="A6" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="G6" s="1">
+        <v>205</v>
+      </c>
+      <c r="H6" s="23">
+        <v>43244</v>
+      </c>
+      <c r="I6" s="23">
+        <v>43274</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="37" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="36" priority="2">
+  <conditionalFormatting sqref="A1:I1 L1:XFD1">
+    <cfRule type="expression" dxfId="36" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7294,37 +7645,209 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="5" width="24.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="27">
+        <v>300</v>
+      </c>
+      <c r="E2" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="1">
+        <v>400</v>
+      </c>
+      <c r="E3" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="27">
+        <v>500</v>
+      </c>
+      <c r="E4" s="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D5" s="1">
+        <v>600</v>
+      </c>
+      <c r="E5" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="D6" s="27">
+        <v>700</v>
+      </c>
+      <c r="E6" s="27">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" s="1">
+        <v>800</v>
+      </c>
+      <c r="E7" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="D8" s="27">
+        <v>900</v>
+      </c>
+      <c r="E8" s="27">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1300</v>
+      </c>
+      <c r="E12" s="27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1400</v>
+      </c>
+      <c r="E13" s="1">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -7344,7 +7867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7354,7 +7877,7 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -7362,10 +7885,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -7391,7 +7914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7401,27 +7924,27 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="1" max="6" width="21.1640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>127</v>
@@ -7429,16 +7952,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7446,16 +7969,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7463,16 +7986,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -7495,7 +8018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7505,12 +8028,12 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7773,12 +8296,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="95" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="94" priority="2">
+    <cfRule type="expression" dxfId="93" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7787,7 +8310,217 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAAA795-B278-634D-A468-8B0A3FD46CE6}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7797,14 +8530,14 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="19.625" style="1"/>
+    <col min="1" max="16384" width="19.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
@@ -7813,16 +8546,16 @@
         <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -7841,8 +8574,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7852,23 +8585,23 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="23.125" style="1"/>
+    <col min="1" max="16384" width="23.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7887,8 +8620,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7898,10 +8631,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="33.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="4" width="33.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7909,13 +8642,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -7957,8 +8690,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7968,14 +8701,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="10" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -8022,8 +8755,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8033,12 +8766,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="35.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="3" max="4" width="39.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8065,8 +8798,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8076,11 +8809,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8133,8 +8866,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8144,27 +8877,27 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="8" width="17.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8196,8 +8929,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8207,15 +8940,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="4" width="17.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -8241,8 +8974,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8252,45 +8985,45 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="22.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -8304,13 +9037,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -8324,13 +9057,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -8344,13 +9077,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -8364,13 +9097,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8384,13 +9117,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8404,13 +9137,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8424,13 +9157,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -8534,8 +9267,1493 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:T438"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
+    <col min="14" max="20" width="11.83203125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" ht="33" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="11">
+        <v>676</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="J2" s="1">
+        <v>28</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="33" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H3" s="11">
+        <v>676</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="J3" s="1">
+        <v>28</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B6" s="6"/>
+    </row>
+    <row r="8" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B105" s="6"/>
+    </row>
+    <row r="106" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B113" s="6"/>
+    </row>
+    <row r="114" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B114" s="6"/>
+    </row>
+    <row r="115" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B115" s="6"/>
+    </row>
+    <row r="116" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B116" s="6"/>
+    </row>
+    <row r="117" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B133" s="6"/>
+    </row>
+    <row r="134" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B137" s="6"/>
+    </row>
+    <row r="138" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B142" s="6"/>
+    </row>
+    <row r="143" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B143" s="6"/>
+    </row>
+    <row r="144" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B147" s="6"/>
+    </row>
+    <row r="148" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B148" s="6"/>
+    </row>
+    <row r="149" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B149" s="6"/>
+    </row>
+    <row r="150" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B150" s="6"/>
+    </row>
+    <row r="151" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B154" s="6"/>
+    </row>
+    <row r="155" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B155" s="6"/>
+    </row>
+    <row r="156" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B158" s="6"/>
+    </row>
+    <row r="159" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B160" s="6"/>
+    </row>
+    <row r="161" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B161" s="6"/>
+    </row>
+    <row r="162" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B162" s="6"/>
+    </row>
+    <row r="163" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B163" s="6"/>
+    </row>
+    <row r="164" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B164" s="6"/>
+    </row>
+    <row r="165" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B165" s="6"/>
+    </row>
+    <row r="166" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B166" s="6"/>
+    </row>
+    <row r="167" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B167" s="6"/>
+    </row>
+    <row r="168" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B171" s="6"/>
+    </row>
+    <row r="172" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B173" s="6"/>
+    </row>
+    <row r="174" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B174" s="6"/>
+    </row>
+    <row r="175" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B175" s="6"/>
+    </row>
+    <row r="176" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B176" s="6"/>
+    </row>
+    <row r="177" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B177" s="6"/>
+    </row>
+    <row r="178" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B178" s="6"/>
+    </row>
+    <row r="179" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B181" s="6"/>
+    </row>
+    <row r="182" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B182" s="6"/>
+    </row>
+    <row r="183" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B185" s="6"/>
+    </row>
+    <row r="186" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B186" s="6"/>
+    </row>
+    <row r="187" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B187" s="6"/>
+    </row>
+    <row r="188" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B188" s="6"/>
+    </row>
+    <row r="189" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B189" s="6"/>
+    </row>
+    <row r="190" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B190" s="6"/>
+    </row>
+    <row r="191" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B191" s="6"/>
+    </row>
+    <row r="192" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B192" s="6"/>
+    </row>
+    <row r="193" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B193" s="6"/>
+    </row>
+    <row r="194" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B194" s="6"/>
+    </row>
+    <row r="195" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B195" s="6"/>
+    </row>
+    <row r="196" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B196" s="6"/>
+    </row>
+    <row r="197" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B197" s="6"/>
+    </row>
+    <row r="198" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B198" s="6"/>
+    </row>
+    <row r="199" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B199" s="6"/>
+    </row>
+    <row r="200" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B200" s="6"/>
+    </row>
+    <row r="201" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B201" s="6"/>
+    </row>
+    <row r="202" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B202" s="6"/>
+    </row>
+    <row r="203" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B203" s="6"/>
+    </row>
+    <row r="204" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B204" s="6"/>
+    </row>
+    <row r="205" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B205" s="6"/>
+    </row>
+    <row r="206" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B206" s="6"/>
+    </row>
+    <row r="207" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B207" s="6"/>
+    </row>
+    <row r="208" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B208" s="6"/>
+    </row>
+    <row r="209" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B209" s="6"/>
+    </row>
+    <row r="210" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B211" s="6"/>
+    </row>
+    <row r="212" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B212" s="6"/>
+    </row>
+    <row r="213" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B213" s="6"/>
+    </row>
+    <row r="214" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B214" s="6"/>
+    </row>
+    <row r="215" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B215" s="6"/>
+    </row>
+    <row r="216" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B216" s="6"/>
+    </row>
+    <row r="217" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B217" s="6"/>
+    </row>
+    <row r="218" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B218" s="6"/>
+    </row>
+    <row r="219" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B219" s="6"/>
+    </row>
+    <row r="220" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B220" s="6"/>
+    </row>
+    <row r="221" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B221" s="6"/>
+    </row>
+    <row r="222" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B222" s="6"/>
+    </row>
+    <row r="223" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B223" s="6"/>
+    </row>
+    <row r="224" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B224" s="6"/>
+    </row>
+    <row r="225" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B225" s="6"/>
+    </row>
+    <row r="226" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B227" s="6"/>
+    </row>
+    <row r="228" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B228" s="6"/>
+    </row>
+    <row r="229" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B229" s="6"/>
+    </row>
+    <row r="230" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B230" s="6"/>
+    </row>
+    <row r="231" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B231" s="6"/>
+    </row>
+    <row r="232" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B232" s="6"/>
+    </row>
+    <row r="233" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B233" s="6"/>
+    </row>
+    <row r="234" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B235" s="6"/>
+    </row>
+    <row r="236" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B238" s="6"/>
+    </row>
+    <row r="239" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B239" s="6"/>
+    </row>
+    <row r="240" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B241" s="6"/>
+    </row>
+    <row r="242" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B243" s="6"/>
+    </row>
+    <row r="244" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B244" s="6"/>
+    </row>
+    <row r="245" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B245" s="6"/>
+    </row>
+    <row r="246" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B246" s="6"/>
+    </row>
+    <row r="247" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B247" s="6"/>
+    </row>
+    <row r="248" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B248" s="6"/>
+    </row>
+    <row r="249" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B249" s="6"/>
+    </row>
+    <row r="250" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B250" s="6"/>
+    </row>
+    <row r="251" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B251" s="6"/>
+    </row>
+    <row r="252" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B252" s="6"/>
+    </row>
+    <row r="253" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B253" s="6"/>
+    </row>
+    <row r="254" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B254" s="6"/>
+    </row>
+    <row r="255" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B255" s="6"/>
+    </row>
+    <row r="256" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B256" s="6"/>
+    </row>
+    <row r="257" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B257" s="6"/>
+    </row>
+    <row r="258" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B258" s="6"/>
+    </row>
+    <row r="259" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B259" s="6"/>
+    </row>
+    <row r="260" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B260" s="6"/>
+    </row>
+    <row r="261" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B261" s="6"/>
+    </row>
+    <row r="262" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B262" s="6"/>
+    </row>
+    <row r="263" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B263" s="6"/>
+    </row>
+    <row r="264" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B264" s="6"/>
+    </row>
+    <row r="265" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B265" s="6"/>
+    </row>
+    <row r="266" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B266" s="6"/>
+    </row>
+    <row r="267" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B267" s="6"/>
+    </row>
+    <row r="268" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B268" s="6"/>
+    </row>
+    <row r="269" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B269" s="6"/>
+    </row>
+    <row r="270" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B270" s="6"/>
+    </row>
+    <row r="271" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="272" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B272" s="6"/>
+    </row>
+    <row r="273" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B273" s="6"/>
+    </row>
+    <row r="274" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B274" s="6"/>
+    </row>
+    <row r="275" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B275" s="6"/>
+    </row>
+    <row r="276" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B276" s="6"/>
+    </row>
+    <row r="277" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B277" s="6"/>
+    </row>
+    <row r="278" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B278" s="6"/>
+    </row>
+    <row r="279" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B279" s="6"/>
+    </row>
+    <row r="280" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B280" s="6"/>
+    </row>
+    <row r="281" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B281" s="6"/>
+    </row>
+    <row r="282" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B282" s="6"/>
+    </row>
+    <row r="283" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B283" s="6"/>
+    </row>
+    <row r="284" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B284" s="6"/>
+    </row>
+    <row r="285" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B285" s="6"/>
+    </row>
+    <row r="286" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B286" s="6"/>
+    </row>
+    <row r="287" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B287" s="6"/>
+    </row>
+    <row r="288" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B288" s="6"/>
+    </row>
+    <row r="289" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B289" s="6"/>
+    </row>
+    <row r="290" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B290" s="6"/>
+    </row>
+    <row r="291" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B291" s="6"/>
+    </row>
+    <row r="292" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B292" s="6"/>
+    </row>
+    <row r="293" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B293" s="6"/>
+    </row>
+    <row r="294" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B294" s="6"/>
+    </row>
+    <row r="295" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B295" s="6"/>
+    </row>
+    <row r="296" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B296" s="6"/>
+    </row>
+    <row r="297" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B297" s="6"/>
+    </row>
+    <row r="298" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B298" s="6"/>
+    </row>
+    <row r="299" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B299" s="6"/>
+    </row>
+    <row r="300" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B300" s="6"/>
+    </row>
+    <row r="301" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B301" s="6"/>
+    </row>
+    <row r="302" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B302" s="6"/>
+    </row>
+    <row r="303" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B303" s="6"/>
+    </row>
+    <row r="304" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B304" s="6"/>
+    </row>
+    <row r="305" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B305" s="6"/>
+    </row>
+    <row r="306" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B306" s="6"/>
+    </row>
+    <row r="307" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B307" s="6"/>
+    </row>
+    <row r="308" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B308" s="6"/>
+    </row>
+    <row r="309" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B309" s="6"/>
+    </row>
+    <row r="310" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B310" s="6"/>
+    </row>
+    <row r="311" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B311" s="6"/>
+    </row>
+    <row r="312" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B312" s="6"/>
+    </row>
+    <row r="313" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B313" s="6"/>
+    </row>
+    <row r="314" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B314" s="6"/>
+    </row>
+    <row r="315" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B315" s="6"/>
+    </row>
+    <row r="316" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B316" s="6"/>
+    </row>
+    <row r="317" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B317" s="6"/>
+    </row>
+    <row r="318" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B318" s="6"/>
+    </row>
+    <row r="319" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B319" s="6"/>
+    </row>
+    <row r="320" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B320" s="6"/>
+    </row>
+    <row r="321" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B321" s="6"/>
+    </row>
+    <row r="322" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B322" s="6"/>
+    </row>
+    <row r="323" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B323" s="6"/>
+    </row>
+    <row r="324" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B324" s="6"/>
+    </row>
+    <row r="325" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B325" s="6"/>
+    </row>
+    <row r="326" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B326" s="6"/>
+    </row>
+    <row r="327" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B327" s="6"/>
+    </row>
+    <row r="328" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B328" s="6"/>
+    </row>
+    <row r="329" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B329" s="6"/>
+    </row>
+    <row r="330" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B330" s="6"/>
+    </row>
+    <row r="331" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B331" s="6"/>
+    </row>
+    <row r="332" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B332" s="6"/>
+    </row>
+    <row r="333" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B333" s="6"/>
+    </row>
+    <row r="334" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B334" s="6"/>
+    </row>
+    <row r="335" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B335" s="6"/>
+    </row>
+    <row r="336" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B336" s="6"/>
+    </row>
+    <row r="337" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B337" s="6"/>
+    </row>
+    <row r="338" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B338" s="6"/>
+    </row>
+    <row r="339" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B339" s="6"/>
+    </row>
+    <row r="340" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B340" s="6"/>
+    </row>
+    <row r="341" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B341" s="6"/>
+    </row>
+    <row r="342" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B342" s="6"/>
+    </row>
+    <row r="343" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B343" s="6"/>
+    </row>
+    <row r="344" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B344" s="6"/>
+    </row>
+    <row r="345" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B345" s="6"/>
+    </row>
+    <row r="346" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B346" s="6"/>
+    </row>
+    <row r="347" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B347" s="6"/>
+    </row>
+    <row r="348" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B348" s="6"/>
+    </row>
+    <row r="349" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B349" s="6"/>
+    </row>
+    <row r="350" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B350" s="6"/>
+    </row>
+    <row r="351" spans="2:3" ht="20.25" customHeight="1">
+      <c r="B351" s="6"/>
+      <c r="C351" s="7"/>
+    </row>
+    <row r="353" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B353" s="6"/>
+    </row>
+    <row r="354" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B354" s="6"/>
+    </row>
+    <row r="355" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B355" s="6"/>
+    </row>
+    <row r="356" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B356" s="6"/>
+    </row>
+    <row r="357" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B357" s="6"/>
+    </row>
+    <row r="358" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B358" s="6"/>
+    </row>
+    <row r="359" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B359" s="6"/>
+    </row>
+    <row r="360" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B360" s="6"/>
+    </row>
+    <row r="361" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B361" s="6"/>
+    </row>
+    <row r="362" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B362" s="6"/>
+    </row>
+    <row r="363" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B363" s="6"/>
+    </row>
+    <row r="364" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B364" s="6"/>
+    </row>
+    <row r="365" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B365" s="6"/>
+    </row>
+    <row r="366" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B366" s="6"/>
+    </row>
+    <row r="367" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B367" s="6"/>
+    </row>
+    <row r="368" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B368" s="6"/>
+    </row>
+    <row r="369" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B369" s="6"/>
+    </row>
+    <row r="370" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B370" s="6"/>
+    </row>
+    <row r="371" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B371" s="6"/>
+    </row>
+    <row r="372" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B372" s="6"/>
+    </row>
+    <row r="373" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B373" s="6"/>
+    </row>
+    <row r="374" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B374" s="6"/>
+    </row>
+    <row r="375" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B375" s="6"/>
+    </row>
+    <row r="376" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B376" s="6"/>
+    </row>
+    <row r="377" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B377" s="6"/>
+    </row>
+    <row r="378" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B378" s="6"/>
+    </row>
+    <row r="379" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B379" s="6"/>
+    </row>
+    <row r="380" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B380" s="6"/>
+    </row>
+    <row r="381" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B381" s="6"/>
+    </row>
+    <row r="382" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B382" s="6"/>
+    </row>
+    <row r="383" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B383" s="6"/>
+    </row>
+    <row r="384" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B384" s="6"/>
+    </row>
+    <row r="385" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B385" s="6"/>
+    </row>
+    <row r="386" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B386" s="6"/>
+    </row>
+    <row r="387" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B387" s="6"/>
+    </row>
+    <row r="388" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B388" s="6"/>
+    </row>
+    <row r="389" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B389" s="6"/>
+    </row>
+    <row r="390" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B390" s="6"/>
+    </row>
+    <row r="391" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B391" s="6"/>
+    </row>
+    <row r="392" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B392" s="6"/>
+    </row>
+    <row r="393" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B393" s="6"/>
+    </row>
+    <row r="394" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B394" s="6"/>
+    </row>
+    <row r="395" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B395" s="6"/>
+    </row>
+    <row r="396" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B396" s="6"/>
+    </row>
+    <row r="397" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B397" s="6"/>
+    </row>
+    <row r="398" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B398" s="6"/>
+    </row>
+    <row r="399" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B399" s="6"/>
+    </row>
+    <row r="400" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B400" s="6"/>
+    </row>
+    <row r="401" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B401" s="6"/>
+    </row>
+    <row r="402" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B402" s="6"/>
+    </row>
+    <row r="403" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B403" s="6"/>
+    </row>
+    <row r="404" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B404" s="6"/>
+    </row>
+    <row r="405" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B405" s="6"/>
+    </row>
+    <row r="406" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B406" s="6"/>
+    </row>
+    <row r="407" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B407" s="6"/>
+    </row>
+    <row r="408" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B408" s="6"/>
+    </row>
+    <row r="409" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B409" s="6"/>
+    </row>
+    <row r="410" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B410" s="6"/>
+    </row>
+    <row r="411" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B411" s="6"/>
+    </row>
+    <row r="412" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B412" s="6"/>
+    </row>
+    <row r="413" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B413" s="6"/>
+    </row>
+    <row r="414" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B414" s="6"/>
+    </row>
+    <row r="415" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B415" s="6"/>
+    </row>
+    <row r="416" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B416" s="6"/>
+    </row>
+    <row r="417" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B417" s="6"/>
+    </row>
+    <row r="418" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B418" s="6"/>
+    </row>
+    <row r="419" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B419" s="6"/>
+    </row>
+    <row r="420" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B420" s="6"/>
+    </row>
+    <row r="421" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B421" s="6"/>
+    </row>
+    <row r="422" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B422" s="6"/>
+    </row>
+    <row r="423" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B423" s="6"/>
+    </row>
+    <row r="424" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B424" s="6"/>
+    </row>
+    <row r="425" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B425" s="6"/>
+    </row>
+    <row r="426" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B426" s="6"/>
+    </row>
+    <row r="427" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B427" s="6"/>
+    </row>
+    <row r="428" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B428" s="6"/>
+    </row>
+    <row r="429" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B429" s="6"/>
+    </row>
+    <row r="430" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B430" s="6"/>
+    </row>
+    <row r="431" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B431" s="6"/>
+    </row>
+    <row r="432" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B432" s="6"/>
+    </row>
+    <row r="433" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B433" s="6"/>
+    </row>
+    <row r="434" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B434" s="6"/>
+    </row>
+    <row r="435" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B435" s="6"/>
+    </row>
+    <row r="436" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B436" s="6"/>
+    </row>
+    <row r="437" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B437" s="6"/>
+    </row>
+    <row r="438" spans="2:2" ht="20.25" customHeight="1">
+      <c r="B438" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1:E1">
+    <cfRule type="expression" dxfId="92" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:L1">
+    <cfRule type="expression" dxfId="91" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="90" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="expression" dxfId="89" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="expression" dxfId="88" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -8545,22 +10763,22 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -9110,1493 +11328,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:T438"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="17.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
-    <col min="14" max="20" width="11.875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" ht="33" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="H2" s="11">
-        <v>676</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="J2" s="1">
-        <v>28</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="33" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="H3" s="11">
-        <v>676</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="8" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B187" s="6"/>
-    </row>
-    <row r="188" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B188" s="6"/>
-    </row>
-    <row r="189" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B189" s="6"/>
-    </row>
-    <row r="190" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B190" s="6"/>
-    </row>
-    <row r="191" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B191" s="6"/>
-    </row>
-    <row r="192" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B192" s="6"/>
-    </row>
-    <row r="193" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B193" s="6"/>
-    </row>
-    <row r="194" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B194" s="6"/>
-    </row>
-    <row r="195" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B195" s="6"/>
-    </row>
-    <row r="196" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B197" s="6"/>
-    </row>
-    <row r="198" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B198" s="6"/>
-    </row>
-    <row r="199" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B199" s="6"/>
-    </row>
-    <row r="200" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B200" s="6"/>
-    </row>
-    <row r="201" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B201" s="6"/>
-    </row>
-    <row r="202" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B202" s="6"/>
-    </row>
-    <row r="203" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B203" s="6"/>
-    </row>
-    <row r="204" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B204" s="6"/>
-    </row>
-    <row r="205" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B206" s="6"/>
-    </row>
-    <row r="207" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B207" s="6"/>
-    </row>
-    <row r="208" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B208" s="6"/>
-    </row>
-    <row r="209" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B209" s="6"/>
-    </row>
-    <row r="210" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B210" s="6"/>
-    </row>
-    <row r="211" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B211" s="6"/>
-    </row>
-    <row r="212" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B212" s="6"/>
-    </row>
-    <row r="213" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B213" s="6"/>
-    </row>
-    <row r="214" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B214" s="6"/>
-    </row>
-    <row r="215" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B215" s="6"/>
-    </row>
-    <row r="216" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B216" s="6"/>
-    </row>
-    <row r="217" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B217" s="6"/>
-    </row>
-    <row r="218" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B218" s="6"/>
-    </row>
-    <row r="219" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B219" s="6"/>
-    </row>
-    <row r="220" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B220" s="6"/>
-    </row>
-    <row r="221" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B221" s="6"/>
-    </row>
-    <row r="222" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B222" s="6"/>
-    </row>
-    <row r="223" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B223" s="6"/>
-    </row>
-    <row r="224" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B225" s="6"/>
-    </row>
-    <row r="226" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B230" s="6"/>
-    </row>
-    <row r="231" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B233" s="6"/>
-    </row>
-    <row r="234" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B234" s="6"/>
-    </row>
-    <row r="235" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B238" s="6"/>
-    </row>
-    <row r="239" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B239" s="6"/>
-    </row>
-    <row r="240" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B247" s="6"/>
-    </row>
-    <row r="248" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B248" s="6"/>
-    </row>
-    <row r="249" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B249" s="6"/>
-    </row>
-    <row r="250" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B250" s="6"/>
-    </row>
-    <row r="251" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B251" s="6"/>
-    </row>
-    <row r="252" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B252" s="6"/>
-    </row>
-    <row r="253" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B253" s="6"/>
-    </row>
-    <row r="254" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B254" s="6"/>
-    </row>
-    <row r="255" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B255" s="6"/>
-    </row>
-    <row r="256" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B256" s="6"/>
-    </row>
-    <row r="257" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B258" s="6"/>
-    </row>
-    <row r="259" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B259" s="6"/>
-    </row>
-    <row r="260" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B260" s="6"/>
-    </row>
-    <row r="261" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B261" s="6"/>
-    </row>
-    <row r="262" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B262" s="6"/>
-    </row>
-    <row r="263" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B263" s="6"/>
-    </row>
-    <row r="264" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B264" s="6"/>
-    </row>
-    <row r="265" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B265" s="6"/>
-    </row>
-    <row r="266" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B266" s="6"/>
-    </row>
-    <row r="267" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B267" s="6"/>
-    </row>
-    <row r="268" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B268" s="6"/>
-    </row>
-    <row r="269" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B269" s="6"/>
-    </row>
-    <row r="270" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B270" s="6"/>
-    </row>
-    <row r="271" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="272" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="273" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B273" s="6"/>
-    </row>
-    <row r="274" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="275" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="276" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B276" s="6"/>
-    </row>
-    <row r="277" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B277" s="6"/>
-    </row>
-    <row r="278" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B278" s="6"/>
-    </row>
-    <row r="279" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B279" s="6"/>
-    </row>
-    <row r="280" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B280" s="6"/>
-    </row>
-    <row r="281" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B281" s="6"/>
-    </row>
-    <row r="282" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B282" s="6"/>
-    </row>
-    <row r="283" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B283" s="6"/>
-    </row>
-    <row r="284" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B284" s="6"/>
-    </row>
-    <row r="285" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B285" s="6"/>
-    </row>
-    <row r="286" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B286" s="6"/>
-    </row>
-    <row r="287" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B287" s="6"/>
-    </row>
-    <row r="288" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B288" s="6"/>
-    </row>
-    <row r="289" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B289" s="6"/>
-    </row>
-    <row r="290" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B290" s="6"/>
-    </row>
-    <row r="291" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B291" s="6"/>
-    </row>
-    <row r="292" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B292" s="6"/>
-    </row>
-    <row r="293" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B293" s="6"/>
-    </row>
-    <row r="294" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B294" s="6"/>
-    </row>
-    <row r="295" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B295" s="6"/>
-    </row>
-    <row r="296" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B296" s="6"/>
-    </row>
-    <row r="297" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B297" s="6"/>
-    </row>
-    <row r="298" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B298" s="6"/>
-    </row>
-    <row r="299" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B299" s="6"/>
-    </row>
-    <row r="300" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B300" s="6"/>
-    </row>
-    <row r="301" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B301" s="6"/>
-    </row>
-    <row r="302" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B302" s="6"/>
-    </row>
-    <row r="303" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B303" s="6"/>
-    </row>
-    <row r="304" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B304" s="6"/>
-    </row>
-    <row r="305" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B305" s="6"/>
-    </row>
-    <row r="306" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B306" s="6"/>
-    </row>
-    <row r="307" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B307" s="6"/>
-    </row>
-    <row r="308" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B308" s="6"/>
-    </row>
-    <row r="309" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B309" s="6"/>
-    </row>
-    <row r="310" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B310" s="6"/>
-    </row>
-    <row r="311" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B311" s="6"/>
-    </row>
-    <row r="312" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B312" s="6"/>
-    </row>
-    <row r="313" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B313" s="6"/>
-    </row>
-    <row r="314" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B314" s="6"/>
-    </row>
-    <row r="315" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B315" s="6"/>
-    </row>
-    <row r="316" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B316" s="6"/>
-    </row>
-    <row r="317" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="318" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B318" s="6"/>
-    </row>
-    <row r="319" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B319" s="6"/>
-    </row>
-    <row r="320" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B320" s="6"/>
-    </row>
-    <row r="321" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="322" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B322" s="6"/>
-    </row>
-    <row r="323" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B323" s="6"/>
-    </row>
-    <row r="324" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B324" s="6"/>
-    </row>
-    <row r="325" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B325" s="6"/>
-    </row>
-    <row r="326" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B326" s="6"/>
-    </row>
-    <row r="327" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B327" s="6"/>
-    </row>
-    <row r="328" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B328" s="6"/>
-    </row>
-    <row r="329" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B329" s="6"/>
-    </row>
-    <row r="330" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B330" s="6"/>
-    </row>
-    <row r="331" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B331" s="6"/>
-    </row>
-    <row r="332" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B332" s="6"/>
-    </row>
-    <row r="333" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B333" s="6"/>
-    </row>
-    <row r="334" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B334" s="6"/>
-    </row>
-    <row r="335" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B335" s="6"/>
-    </row>
-    <row r="336" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B336" s="6"/>
-    </row>
-    <row r="337" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B337" s="6"/>
-    </row>
-    <row r="338" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B338" s="6"/>
-    </row>
-    <row r="339" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B339" s="6"/>
-    </row>
-    <row r="340" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B340" s="6"/>
-    </row>
-    <row r="341" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B341" s="6"/>
-    </row>
-    <row r="342" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B342" s="6"/>
-    </row>
-    <row r="343" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B343" s="6"/>
-    </row>
-    <row r="344" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B344" s="6"/>
-    </row>
-    <row r="345" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B345" s="6"/>
-    </row>
-    <row r="346" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B346" s="6"/>
-    </row>
-    <row r="347" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B347" s="6"/>
-    </row>
-    <row r="348" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B348" s="6"/>
-    </row>
-    <row r="349" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B349" s="6"/>
-    </row>
-    <row r="350" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B350" s="6"/>
-    </row>
-    <row r="351" spans="2:3" ht="20.25" customHeight="1">
-      <c r="B351" s="6"/>
-      <c r="C351" s="7"/>
-    </row>
-    <row r="353" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B353" s="6"/>
-    </row>
-    <row r="354" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B354" s="6"/>
-    </row>
-    <row r="355" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B355" s="6"/>
-    </row>
-    <row r="356" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B356" s="6"/>
-    </row>
-    <row r="357" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B357" s="6"/>
-    </row>
-    <row r="358" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B358" s="6"/>
-    </row>
-    <row r="359" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B359" s="6"/>
-    </row>
-    <row r="360" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B360" s="6"/>
-    </row>
-    <row r="361" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B361" s="6"/>
-    </row>
-    <row r="362" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B362" s="6"/>
-    </row>
-    <row r="363" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B363" s="6"/>
-    </row>
-    <row r="364" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="365" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B365" s="6"/>
-    </row>
-    <row r="366" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B366" s="6"/>
-    </row>
-    <row r="367" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="368" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B368" s="6"/>
-    </row>
-    <row r="369" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B369" s="6"/>
-    </row>
-    <row r="370" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B370" s="6"/>
-    </row>
-    <row r="371" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B371" s="6"/>
-    </row>
-    <row r="372" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B372" s="6"/>
-    </row>
-    <row r="373" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B373" s="6"/>
-    </row>
-    <row r="374" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B374" s="6"/>
-    </row>
-    <row r="375" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B375" s="6"/>
-    </row>
-    <row r="376" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B376" s="6"/>
-    </row>
-    <row r="377" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B377" s="6"/>
-    </row>
-    <row r="378" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B378" s="6"/>
-    </row>
-    <row r="379" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B379" s="6"/>
-    </row>
-    <row r="380" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B380" s="6"/>
-    </row>
-    <row r="381" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B381" s="6"/>
-    </row>
-    <row r="382" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B382" s="6"/>
-    </row>
-    <row r="383" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B383" s="6"/>
-    </row>
-    <row r="384" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B384" s="6"/>
-    </row>
-    <row r="385" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B385" s="6"/>
-    </row>
-    <row r="386" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B386" s="6"/>
-    </row>
-    <row r="387" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B387" s="6"/>
-    </row>
-    <row r="388" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B388" s="6"/>
-    </row>
-    <row r="389" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B389" s="6"/>
-    </row>
-    <row r="390" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B390" s="6"/>
-    </row>
-    <row r="391" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B391" s="6"/>
-    </row>
-    <row r="392" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B392" s="6"/>
-    </row>
-    <row r="393" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B393" s="6"/>
-    </row>
-    <row r="394" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B394" s="6"/>
-    </row>
-    <row r="395" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B395" s="6"/>
-    </row>
-    <row r="396" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B396" s="6"/>
-    </row>
-    <row r="397" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B397" s="6"/>
-    </row>
-    <row r="398" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B398" s="6"/>
-    </row>
-    <row r="399" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B399" s="6"/>
-    </row>
-    <row r="400" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B400" s="6"/>
-    </row>
-    <row r="401" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B401" s="6"/>
-    </row>
-    <row r="402" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B402" s="6"/>
-    </row>
-    <row r="403" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B403" s="6"/>
-    </row>
-    <row r="404" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B404" s="6"/>
-    </row>
-    <row r="405" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B405" s="6"/>
-    </row>
-    <row r="406" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B406" s="6"/>
-    </row>
-    <row r="407" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B407" s="6"/>
-    </row>
-    <row r="408" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B408" s="6"/>
-    </row>
-    <row r="409" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B409" s="6"/>
-    </row>
-    <row r="410" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B410" s="6"/>
-    </row>
-    <row r="411" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B411" s="6"/>
-    </row>
-    <row r="412" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B412" s="6"/>
-    </row>
-    <row r="413" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B413" s="6"/>
-    </row>
-    <row r="414" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B414" s="6"/>
-    </row>
-    <row r="415" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B415" s="6"/>
-    </row>
-    <row r="416" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B416" s="6"/>
-    </row>
-    <row r="417" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B417" s="6"/>
-    </row>
-    <row r="418" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B418" s="6"/>
-    </row>
-    <row r="419" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B419" s="6"/>
-    </row>
-    <row r="420" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B420" s="6"/>
-    </row>
-    <row r="421" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B421" s="6"/>
-    </row>
-    <row r="422" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B422" s="6"/>
-    </row>
-    <row r="423" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B423" s="6"/>
-    </row>
-    <row r="424" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B424" s="6"/>
-    </row>
-    <row r="425" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B425" s="6"/>
-    </row>
-    <row r="426" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B426" s="6"/>
-    </row>
-    <row r="427" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B427" s="6"/>
-    </row>
-    <row r="428" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B428" s="6"/>
-    </row>
-    <row r="429" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B429" s="6"/>
-    </row>
-    <row r="430" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B430" s="6"/>
-    </row>
-    <row r="431" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B431" s="6"/>
-    </row>
-    <row r="432" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B432" s="6"/>
-    </row>
-    <row r="433" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B433" s="6"/>
-    </row>
-    <row r="434" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B434" s="6"/>
-    </row>
-    <row r="435" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B435" s="6"/>
-    </row>
-    <row r="436" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B436" s="6"/>
-    </row>
-    <row r="437" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B437" s="6"/>
-    </row>
-    <row r="438" spans="2:2" ht="20.25" customHeight="1">
-      <c r="B438" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="93" priority="6">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:L1">
-    <cfRule type="expression" dxfId="92" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="91" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="90" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="89" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10606,17 +11339,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10633,10 +11366,10 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>52</v>
@@ -10653,22 +11386,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -10685,22 +11418,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -10709,30 +11442,30 @@
         <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>550</v>
       </c>
       <c r="E4" s="11">
         <v>676</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -10741,30 +11474,30 @@
         <v>61</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>550</v>
       </c>
       <c r="E5" s="11">
         <v>676</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -10773,30 +11506,30 @@
         <v>61</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>549</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>551</v>
       </c>
       <c r="E6" s="11">
         <v>676</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G6" s="1">
         <v>28</v>
@@ -10805,30 +11538,30 @@
         <v>61</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>549</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>551</v>
       </c>
       <c r="E7" s="11">
         <v>676</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G7" s="1">
         <v>28</v>
@@ -10837,26 +11570,26 @@
         <v>61</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:D1 F1:J1">
-    <cfRule type="expression" dxfId="88" priority="5">
+    <cfRule type="expression" dxfId="87" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="87" priority="4">
+    <cfRule type="expression" dxfId="86" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="86" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10866,7 +11599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10876,12 +11609,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.875" style="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10920,7 +11653,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="85" priority="1">
+    <cfRule type="expression" dxfId="84" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10929,7 +11662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -10939,18 +11672,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="17.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="12" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
@@ -10973,10 +11706,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>52</v>
@@ -10993,31 +11726,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -11029,34 +11762,34 @@
         <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -11065,41 +11798,41 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="84" priority="6">
+    <cfRule type="expression" dxfId="83" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="83" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="expression" dxfId="82" priority="4">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="81" priority="3">
+    <cfRule type="expression" dxfId="80" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="80" priority="2">
+    <cfRule type="expression" dxfId="79" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="79" priority="1">
+    <cfRule type="expression" dxfId="78" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11108,7 +11841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -11118,13 +11851,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="12" customFormat="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11148,12 +11881,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="78" priority="2">
+    <cfRule type="expression" dxfId="77" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="77" priority="1">
+    <cfRule type="expression" dxfId="76" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11162,7 +11895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -11172,7 +11905,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/WebServer/Documents/akito/www.transporter.fun/root/laravel/database/seeds/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1452614F-3F72-E04E-9A9E-76BF8703C0F6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2280" windowWidth="36440" windowHeight="16440" tabRatio="880" firstSheet="15" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -64,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="606">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -2227,9 +2221,6 @@
     <t>ORD-180514-195506-Gm3PF</t>
   </si>
   <si>
-    <t>OWN-180326-165310-aaaaa</t>
-  </si>
-  <si>
     <t>土管</t>
   </si>
   <si>
@@ -2320,19 +2311,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>見積提出済</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>見積受付終了</t>
     <rPh sb="0" eb="2">
       <t>ミツモリ</t>
@@ -2366,46 +2344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未入金</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入金未確認</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウキン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ミカクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入金済</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウキン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入金確認済</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>失注</t>
     <rPh sb="0" eb="2">
       <t>シッチュウ</t>
@@ -2468,9 +2406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O-01</t>
-  </si>
-  <si>
     <t>荷物送るマン</t>
     <rPh sb="0" eb="2">
       <t>ニモツ</t>
@@ -2729,15 +2664,8 @@
     <t>O-40</t>
   </si>
   <si>
-    <t>W-05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>W-10</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>W-15</t>
   </si>
   <si>
     <t>W-20</t>
@@ -2858,12 +2786,85 @@
   </si>
   <si>
     <t>WRK-180524-185522-P5hR5</t>
+  </si>
+  <si>
+    <t>id_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unique_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W-35</t>
+  </si>
+  <si>
+    <t>W-40</t>
+  </si>
+  <si>
+    <t>未着金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未払い</t>
+    <rPh sb="0" eb="2">
+      <t>ミバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着金あり（未確認）</t>
+    <rPh sb="0" eb="2">
+      <t>チャッキン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金通知済</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引終了</t>
+    <rPh sb="0" eb="2">
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OWN-180326-165310-aaaab</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\&amp;&quot;0:00:00&quot;"/>
@@ -3174,21 +3175,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="103">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="101">
     <dxf>
       <fill>
         <patternFill>
@@ -4195,30 +4182,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="12" width="13.6640625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.33203125" style="1" customWidth="1"/>
-    <col min="16" max="18" width="17.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="48.1640625" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.375" style="1" customWidth="1"/>
+    <col min="8" max="12" width="13.625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="17.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="48.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25" customHeight="1">
@@ -4295,10 +4282,10 @@
         <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>119</v>
@@ -4307,31 +4294,31 @@
         <v>117</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4340,10 +4327,10 @@
         <v>61</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="U2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4354,10 +4341,10 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>465</v>
@@ -4366,28 +4353,28 @@
         <v>463</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
@@ -4405,7 +4392,7 @@
         <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
@@ -4419,7 +4406,7 @@
         <v>433</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>438</v>
@@ -4442,7 +4429,7 @@
         <v>434</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>439</v>
@@ -4465,7 +4452,7 @@
         <v>435</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>440</v>
@@ -4488,7 +4475,7 @@
         <v>436</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>441</v>
@@ -4511,7 +4498,7 @@
         <v>437</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>442</v>
@@ -4551,7 +4538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4561,10 +4548,10 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4665,7 +4652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4675,13 +4662,13 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="31.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1">
+    <row r="1" spans="1:2" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -4722,7 +4709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4732,13 +4719,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="23.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="16.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5005,7 +4992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5015,13 +5002,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="4" width="25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1">
+    <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
@@ -5091,7 +5078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5101,7 +5088,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -5293,7 +5280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -5303,13 +5290,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="34.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -5342,17 +5329,17 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="20" width="9" style="11"/>
     <col min="21" max="21" width="16.5" style="11" bestFit="1" customWidth="1"/>
@@ -5377,10 +5364,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>456</v>
@@ -5401,10 +5388,10 @@
         <v>135</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>458</v>
@@ -5428,19 +5415,19 @@
         <v>140</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>141</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>127</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>142</v>
@@ -5449,13 +5436,13 @@
         <v>143</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
@@ -5463,61 +5450,61 @@
         <v>469</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>470</v>
+        <v>605</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I2" s="17">
         <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>476</v>
-      </c>
       <c r="M2" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>473</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q2" s="17">
         <v>28</v>
       </c>
       <c r="R2" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="T2" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>476</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5527,10 +5514,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5585,7 +5572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5595,7 +5582,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -5619,7 +5606,7 @@
         <v>469</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>314</v>
@@ -5633,7 +5620,7 @@
         <v>469</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>346</v>
@@ -5647,7 +5634,7 @@
         <v>469</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>351</v>
@@ -5661,7 +5648,7 @@
         <v>469</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>352</v>
@@ -5842,7 +5829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -5852,13 +5839,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6482,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6492,7 +6479,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6528,7 +6515,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>263</v>
@@ -6549,7 +6536,7 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -6564,7 +6551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6574,11 +6561,11 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="47.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1">
@@ -6598,7 +6585,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6607,7 +6594,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1">
@@ -6615,7 +6602,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
@@ -6623,7 +6610,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
@@ -6631,7 +6618,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -6639,7 +6626,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6683,7 +6670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6693,7 +6680,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6726,7 +6713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6736,7 +6723,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -6754,7 +6741,7 @@
         <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -6784,7 +6771,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="35" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.5" style="1" customWidth="1"/>
@@ -7013,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7023,9 +7010,9 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -7100,40 +7087,40 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="20.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>594</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>492</v>
+        <v>595</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
     </row>
@@ -7159,132 +7146,134 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>206</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>499</v>
+        <v>601</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>501</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>507</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>502</v>
+        <v>604</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7293,79 +7282,85 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>508</v>
-      </c>
+      <c r="A13" s="24"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>508</v>
-      </c>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>502</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>503</v>
+        <v>600</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>508</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="24" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7380,7 +7375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7390,9 +7385,9 @@
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="18.1640625" style="1"/>
+    <col min="1" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -7424,21 +7419,21 @@
         <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="64">
+    <row r="2" spans="1:16" ht="60">
       <c r="A2" s="32" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>469</v>
@@ -7447,10 +7442,10 @@
         <v>118</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G2" s="1">
         <v>201</v>
@@ -7465,9 +7460,9 @@
         <v>43244.790138888886</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="64">
+    <row r="3" spans="1:16" ht="60">
       <c r="A3" s="32" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>469</v>
@@ -7476,10 +7471,10 @@
         <v>118</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G3" s="1">
         <v>202</v>
@@ -7494,9 +7489,9 @@
         <v>43244.809583333335</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="64">
+    <row r="4" spans="1:16" ht="60">
       <c r="A4" s="32" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>469</v>
@@ -7505,10 +7500,10 @@
         <v>118</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G4" s="1">
         <v>203</v>
@@ -7523,9 +7518,9 @@
         <v>43244.829027835651</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="64">
+    <row r="5" spans="1:16" ht="60">
       <c r="A5" s="32" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>469</v>
@@ -7534,10 +7529,10 @@
         <v>118</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G5" s="1">
         <v>204</v>
@@ -7550,9 +7545,9 @@
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:16" ht="64">
+    <row r="6" spans="1:16" ht="60">
       <c r="A6" s="32" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>469</v>
@@ -7561,10 +7556,10 @@
         <v>118</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G6" s="1">
         <v>205</v>
@@ -7645,7 +7640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7655,9 +7650,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.875" style="1" customWidth="1"/>
     <col min="2" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -7681,13 +7676,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D2" s="27">
         <v>300</v>
@@ -7698,10 +7693,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
@@ -7712,10 +7707,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D4" s="27">
         <v>500</v>
@@ -7726,10 +7721,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
@@ -7740,10 +7735,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D6" s="27">
         <v>700</v>
@@ -7754,10 +7749,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="D7" s="1">
         <v>800</v>
@@ -7768,10 +7763,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>583</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>592</v>
       </c>
       <c r="D8" s="27">
         <v>900</v>
@@ -7782,10 +7777,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>584</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>593</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
@@ -7796,10 +7791,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="D10" s="27">
         <v>1100</v>
@@ -7810,10 +7805,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D11" s="1">
         <v>1200</v>
@@ -7824,10 +7819,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="D12" s="27">
         <v>1300</v>
@@ -7838,10 +7833,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D13" s="1">
         <v>1400</v>
@@ -7867,7 +7862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7877,7 +7872,7 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="4" width="25.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -7914,7 +7909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -7924,9 +7919,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="6" width="21.1640625" style="1" customWidth="1"/>
+    <col min="1" max="6" width="21.125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -7952,16 +7947,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7969,16 +7964,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7986,16 +7981,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -8018,7 +8013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8028,12 +8023,12 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8310,28 +8305,28 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAAA795-B278-634D-A468-8B0A3FD46CE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="38" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.1640625" style="1"/>
+    <col min="2" max="2" width="35.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
@@ -8348,19 +8343,19 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="27" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>469</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>118</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8368,19 +8363,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="27" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>469</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -8388,19 +8383,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="27" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>469</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -8408,13 +8403,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>469</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>118</v>
@@ -8426,13 +8421,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>469</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>118</v>
@@ -8520,7 +8515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -8530,9 +8525,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="19.6640625" style="1"/>
+    <col min="1" max="16384" width="19.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -8575,7 +8570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
@@ -8585,9 +8580,9 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="23.1640625" style="1"/>
+    <col min="1" max="16384" width="23.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
@@ -8621,7 +8616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8631,10 +8626,10 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="4" width="33.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="33.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8691,7 +8686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8701,14 +8696,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="33.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1">
@@ -8756,7 +8751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -8766,12 +8761,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="2" width="35.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="39.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="4" width="39.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8799,7 +8794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8809,11 +8804,11 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8867,7 +8862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8877,10 +8872,10 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -8930,7 +8925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8940,10 +8935,10 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -8975,7 +8970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -8985,12 +8980,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="22.83203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="22.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -9268,7 +9263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9278,19 +9273,19 @@
       <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="21.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
-    <col min="14" max="20" width="11.83203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
+    <col min="14" max="20" width="11.875" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.25" customHeight="1">
@@ -9346,25 +9341,25 @@
         <v>463</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E2" s="1">
         <v>3.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -9373,10 +9368,10 @@
         <v>61</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
@@ -9387,19 +9382,19 @@
         <v>464</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E3" s="1">
         <v>0.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
@@ -9417,7 +9412,7 @@
         <v>62</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
@@ -10753,7 +10748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
@@ -10763,11 +10758,11 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="31" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11329,7 +11324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11339,17 +11334,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="33.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11386,16 +11381,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
@@ -11418,22 +11413,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -11442,30 +11437,30 @@
         <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E4" s="11">
         <v>676</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -11474,30 +11469,30 @@
         <v>61</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="E5" s="11">
         <v>676</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -11506,30 +11501,30 @@
         <v>61</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E6" s="11">
         <v>676</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G6" s="1">
         <v>28</v>
@@ -11538,30 +11533,30 @@
         <v>61</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E7" s="11">
         <v>676</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G7" s="1">
         <v>28</v>
@@ -11570,10 +11565,10 @@
         <v>61</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -11599,7 +11594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11609,12 +11604,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11662,7 +11657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -11672,18 +11667,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="6" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="17.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="6" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="17.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>120</v>
       </c>
@@ -11732,19 +11727,19 @@
         <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
@@ -11762,7 +11757,7 @@
         <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -11770,26 +11765,26 @@
         <v>467</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -11798,10 +11793,10 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -11841,7 +11836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -11851,13 +11846,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="12" customFormat="1">
+    <row r="1" spans="1:5" s="12" customFormat="1" ht="18">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11895,7 +11890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -11905,7 +11900,7 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="15"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="22" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="576">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -2047,105 +2047,6 @@
   </si>
   <si>
     <t>EVI-08</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa02</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa03</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa04</t>
-  </si>
-  <si>
-    <t>USR-180407-132400-aaa05</t>
-  </si>
-  <si>
-    <t>cbb632cabf5a840c31ca51de75676bb190efa14c</t>
-  </si>
-  <si>
-    <t>bd91ae9844aaf04c122e5350eea93703886c6851</t>
-  </si>
-  <si>
-    <t>fb5f93bee821c21fe1d143733c7ecec4e842b108</t>
-  </si>
-  <si>
-    <t>0b6f699fb54192607a61b6401565bf4b8b0728ae</t>
-  </si>
-  <si>
-    <t>77e151c34f73f7620f47311ccd383b32f107010e</t>
-  </si>
-  <si>
-    <t>sample01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample02</t>
-  </si>
-  <si>
-    <t>sample03</t>
-  </si>
-  <si>
-    <t>sample04</t>
-  </si>
-  <si>
-    <t>sample05</t>
-  </si>
-  <si>
-    <t>イチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヨン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample01@hoge.com</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sample02@hoge.com</t>
-  </si>
-  <si>
-    <t>sample03@hoge.com</t>
-  </si>
-  <si>
-    <t>sample04@hoge.com</t>
-  </si>
-  <si>
-    <t>sample05@hoge.com</t>
-  </si>
-  <si>
-    <t>012-3456-0001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>012-3456-0002</t>
-  </si>
-  <si>
-    <t>012-3456-0003</t>
-  </si>
-  <si>
-    <t>012-3456-0004</t>
-  </si>
-  <si>
-    <t>012-3456-0005</t>
   </si>
   <si>
     <t>zip1</t>
@@ -4188,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -4255,10 +4156,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>52</v>
@@ -4276,49 +4177,52 @@
     </row>
     <row r="2" spans="1:22" ht="20.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>435</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>433</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>497</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>532</v>
+        <v>425</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4327,60 +4231,57 @@
         <v>61</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>533</v>
+        <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>465</v>
+        <v>119</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>463</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>515</v>
+        <v>484</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>527</v>
+        <v>36</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -4389,126 +4290,30 @@
         <v>61</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
       <c r="U3" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>448</v>
-      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>449</v>
-      </c>
+      <c r="B5" s="15"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>450</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>451</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="20.25" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>452</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="H8" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5335,8 +5140,8 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5364,16 +5169,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>132</v>
@@ -5388,16 +5193,16 @@
         <v>135</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>136</v>
@@ -5415,19 +5220,19 @@
         <v>140</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>141</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>127</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>142</v>
@@ -5436,75 +5241,75 @@
         <v>143</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>165</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="I2" s="17">
         <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="Q2" s="17">
         <v>28</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5514,10 +5319,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5603,10 +5408,10 @@
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>314</v>
@@ -5617,10 +5422,10 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>346</v>
@@ -5631,10 +5436,10 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>351</v>
@@ -5645,10 +5450,10 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>352</v>
@@ -5868,16 +5673,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6515,7 +6320,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>263</v>
@@ -6536,7 +6341,7 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -6585,7 +6390,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6594,7 +6399,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1">
@@ -6602,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
@@ -6610,7 +6415,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
@@ -6618,7 +6423,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -6626,7 +6431,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6738,10 +6543,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -7105,19 +6910,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7166,114 +6971,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>205</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>206</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7282,13 +7087,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7296,13 +7101,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7310,57 +7115,57 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>206</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="24" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="24" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7419,13 +7224,13 @@
         <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>127</v>
@@ -7433,19 +7238,19 @@
     </row>
     <row r="2" spans="1:16" ht="60">
       <c r="A2" s="32" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="G2" s="1">
         <v>201</v>
@@ -7462,19 +7267,19 @@
     </row>
     <row r="3" spans="1:16" ht="60">
       <c r="A3" s="32" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="G3" s="1">
         <v>202</v>
@@ -7491,19 +7296,19 @@
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="32" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="G4" s="1">
         <v>203</v>
@@ -7520,19 +7325,19 @@
     </row>
     <row r="5" spans="1:16" ht="60">
       <c r="A5" s="32" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="G5" s="1">
         <v>204</v>
@@ -7547,19 +7352,19 @@
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="32" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="G6" s="1">
         <v>205</v>
@@ -7676,13 +7481,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="D2" s="27">
         <v>300</v>
@@ -7693,10 +7498,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
@@ -7707,10 +7512,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="D4" s="27">
         <v>500</v>
@@ -7721,10 +7526,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
@@ -7735,10 +7540,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="D6" s="27">
         <v>700</v>
@@ -7749,10 +7554,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="D7" s="1">
         <v>800</v>
@@ -7763,10 +7568,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="D8" s="27">
         <v>900</v>
@@ -7777,10 +7582,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
@@ -7791,10 +7596,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="D10" s="27">
         <v>1100</v>
@@ -7805,10 +7610,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="D11" s="1">
         <v>1200</v>
@@ -7819,10 +7624,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="D12" s="27">
         <v>1300</v>
@@ -7833,10 +7638,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="D13" s="1">
         <v>1400</v>
@@ -7947,16 +7752,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7964,16 +7769,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7981,16 +7786,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -8326,7 +8131,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
@@ -8343,19 +8148,19 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="27" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>118</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8363,19 +8168,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="27" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -8383,19 +8188,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="27" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -8403,13 +8208,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>118</v>
@@ -8421,13 +8226,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>118</v>
@@ -8976,8 +8781,8 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -9270,7 +9075,7 @@
   <dimension ref="A1:T438"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -9311,10 +9116,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>52</v>
@@ -9338,28 +9143,31 @@
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>535</v>
+        <v>506</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="E2" s="1">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>532</v>
+        <v>425</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -9368,39 +9176,36 @@
         <v>61</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>533</v>
+        <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="E3" s="1">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -9409,10 +9214,10 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>62</v>
+        <v>503</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
@@ -11361,10 +11166,10 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>52</v>
@@ -11381,22 +11186,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -11413,22 +11218,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -11437,30 +11242,30 @@
         <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="E4" s="11">
         <v>676</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -11469,30 +11274,30 @@
         <v>61</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="E5" s="11">
         <v>676</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -11501,30 +11306,30 @@
         <v>61</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="E6" s="11">
         <v>676</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="G6" s="1">
         <v>28</v>
@@ -11533,30 +11338,30 @@
         <v>61</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="E7" s="11">
         <v>676</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="G7" s="1">
         <v>28</v>
@@ -11565,10 +11370,10 @@
         <v>61</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -11664,7 +11469,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
@@ -11701,10 +11506,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>52</v>
@@ -11721,31 +11526,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -11757,34 +11562,34 @@
         <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -11793,10 +11598,10 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="22" activeTab="38"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -15,40 +15,40 @@
     <sheet name="authorities" sheetId="17" r:id="rId6"/>
     <sheet name="carriers" sheetId="81" r:id="rId7"/>
     <sheet name="carrier_equipments" sheetId="88" r:id="rId8"/>
-    <sheet name="carrier_equipment_values" sheetId="89" r:id="rId9"/>
+    <sheet name="carrier_to_areas" sheetId="89" r:id="rId9"/>
     <sheet name="carrier_classes" sheetId="87" r:id="rId10"/>
     <sheet name="carrier_to_class" sheetId="86" r:id="rId11"/>
     <sheet name="car_empties" sheetId="85" r:id="rId12"/>
     <sheet name="cars" sheetId="84" r:id="rId13"/>
     <sheet name="car_values" sheetId="83" r:id="rId14"/>
-    <sheet name="carrier_to_cars" sheetId="82" r:id="rId15"/>
-    <sheet name="orders" sheetId="90" r:id="rId16"/>
-    <sheet name="order_requests" sheetId="109" r:id="rId17"/>
-    <sheet name="order_request_options" sheetId="108" r:id="rId18"/>
-    <sheet name="cargos" sheetId="101" r:id="rId19"/>
-    <sheet name="cargo_values" sheetId="91" r:id="rId20"/>
-    <sheet name="order_to_cargos" sheetId="103" r:id="rId21"/>
-    <sheet name="cargo_names" sheetId="104" r:id="rId22"/>
-    <sheet name="cargo_forms" sheetId="105" r:id="rId23"/>
-    <sheet name="status_logs" sheetId="92" r:id="rId24"/>
-    <sheet name="statuses" sheetId="93" r:id="rId25"/>
-    <sheet name="estimates" sheetId="94" r:id="rId26"/>
-    <sheet name="estimate_items" sheetId="95" r:id="rId27"/>
-    <sheet name="estimate_temps" sheetId="96" r:id="rId28"/>
-    <sheet name="items" sheetId="97" r:id="rId29"/>
-    <sheet name="works" sheetId="110" r:id="rId30"/>
-    <sheet name="reports" sheetId="98" r:id="rId31"/>
-    <sheet name="report_temps" sheetId="99" r:id="rId32"/>
-    <sheet name="boards" sheetId="49" r:id="rId33"/>
-    <sheet name="messages" sheetId="70" r:id="rId34"/>
-    <sheet name="message_unopeneds" sheetId="71" r:id="rId35"/>
-    <sheet name="news" sheetId="51" r:id="rId36"/>
-    <sheet name="evaluations" sheetId="100" r:id="rId37"/>
-    <sheet name="evaluation_stars" sheetId="106" r:id="rId38"/>
-    <sheet name="evaluation_items" sheetId="107" r:id="rId39"/>
-    <sheet name="prefs" sheetId="80" r:id="rId40"/>
+    <sheet name="orders" sheetId="90" r:id="rId15"/>
+    <sheet name="order_requests" sheetId="109" r:id="rId16"/>
+    <sheet name="order_request_options" sheetId="108" r:id="rId17"/>
+    <sheet name="cargos" sheetId="101" r:id="rId18"/>
+    <sheet name="cargo_values" sheetId="91" r:id="rId19"/>
+    <sheet name="order_to_cargos" sheetId="103" r:id="rId20"/>
+    <sheet name="cargo_names" sheetId="104" r:id="rId21"/>
+    <sheet name="cargo_forms" sheetId="105" r:id="rId22"/>
+    <sheet name="status_logs" sheetId="92" r:id="rId23"/>
+    <sheet name="statuses" sheetId="93" r:id="rId24"/>
+    <sheet name="estimates" sheetId="94" r:id="rId25"/>
+    <sheet name="estimate_items" sheetId="95" r:id="rId26"/>
+    <sheet name="estimate_temps" sheetId="96" r:id="rId27"/>
+    <sheet name="items" sheetId="97" r:id="rId28"/>
+    <sheet name="works" sheetId="110" r:id="rId29"/>
+    <sheet name="reports" sheetId="98" r:id="rId30"/>
+    <sheet name="report_temps" sheetId="99" r:id="rId31"/>
+    <sheet name="boards" sheetId="49" r:id="rId32"/>
+    <sheet name="messages" sheetId="70" r:id="rId33"/>
+    <sheet name="message_unopeneds" sheetId="71" r:id="rId34"/>
+    <sheet name="news" sheetId="51" r:id="rId35"/>
+    <sheet name="evaluations" sheetId="100" r:id="rId36"/>
+    <sheet name="evaluation_stars" sheetId="106" r:id="rId37"/>
+    <sheet name="evaluation_items" sheetId="107" r:id="rId38"/>
+    <sheet name="prefs" sheetId="80" r:id="rId39"/>
+    <sheet name="areas" sheetId="111" r:id="rId40"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="584">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -675,10 +675,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>car_id</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>CLS-01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -781,10 +777,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>CAR-01</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -958,10 +950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ton</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>order_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2759,6 +2747,45 @@
   </si>
   <si>
     <t>OWN-180326-165310-aaaab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area-15</t>
+  </si>
+  <si>
+    <t>area-20</t>
+  </si>
+  <si>
+    <t>area-25</t>
+  </si>
+  <si>
+    <t>area-30</t>
+  </si>
+  <si>
+    <t>area-35</t>
+  </si>
+  <si>
+    <t>filepath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carrier_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3076,7 +3103,14 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4156,10 +4190,10 @@
         <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>52</v>
@@ -4183,46 +4217,46 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="R2" s="1">
         <v>28</v>
@@ -4234,7 +4268,7 @@
         <v>62</v>
       </c>
       <c r="U2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4245,10 +4279,10 @@
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>119</v>
@@ -4257,31 +4291,31 @@
         <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="R3" s="1">
         <v>28</v>
@@ -4290,10 +4324,10 @@
         <v>61</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="U3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
@@ -4318,22 +4352,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1 D1:O1 U1:V1">
-    <cfRule type="expression" dxfId="100" priority="4">
+    <cfRule type="expression" dxfId="101" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="99" priority="3">
+    <cfRule type="expression" dxfId="100" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:T1">
-    <cfRule type="expression" dxfId="98" priority="2">
+    <cfRule type="expression" dxfId="99" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="expression" dxfId="97" priority="1">
+    <cfRule type="expression" dxfId="98" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4373,10 +4407,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4384,10 +4418,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4395,10 +4429,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4406,10 +4440,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4417,10 +4451,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4438,17 +4472,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="75" priority="3">
+    <cfRule type="expression" dxfId="76" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="74" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:V1">
-    <cfRule type="expression" dxfId="73" priority="1">
+    <cfRule type="expression" dxfId="74" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4486,7 +4520,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4494,18 +4528,18 @@
         <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="72" priority="1">
+    <cfRule type="expression" dxfId="73" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="71" priority="2">
+    <cfRule type="expression" dxfId="72" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4568,13 +4602,13 @@
         <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="E2" s="14">
         <v>43185.5</v>
@@ -4592,16 +4626,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="E3" s="14">
         <v>43120.888888888891</v>
@@ -4613,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
@@ -4783,12 +4817,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="70" priority="1">
+    <cfRule type="expression" dxfId="71" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="69" priority="2">
+    <cfRule type="expression" dxfId="70" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4801,30 +4835,34 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="4" width="25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="13" customFormat="1" ht="18">
+    <row r="1" spans="1:19" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>582</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -4838,43 +4876,50 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
+      <c r="E3" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E1:R1">
-    <cfRule type="expression" dxfId="68" priority="1">
+  <conditionalFormatting sqref="F1:S1">
+    <cfRule type="expression" dxfId="69" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="67" priority="4">
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="expression" dxfId="68" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="66" priority="2">
+  <conditionalFormatting sqref="C1:E1">
+    <cfRule type="expression" dxfId="67" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4925,13 +4970,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4939,13 +4984,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -4953,13 +4998,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -4967,13 +5012,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -4981,13 +5026,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -4995,13 +5040,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5009,13 +5054,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5023,13 +5068,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5037,13 +5082,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5051,13 +5096,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5066,17 +5111,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="66" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:N1">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="65" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="63" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5085,55 +5130,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="13" customFormat="1" ht="18">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="62" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="61" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="60" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5169,16 +5165,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>132</v>
@@ -5193,16 +5189,16 @@
         <v>135</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>136</v>
@@ -5220,19 +5216,19 @@
         <v>140</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>141</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>127</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>142</v>
@@ -5241,75 +5237,75 @@
         <v>143</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>442</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I2" s="17">
         <v>28</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="Q2" s="17">
         <v>28</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5319,10 +5315,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5347,27 +5343,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H1:N1 A1:F1 P1:AC1 AF1:XFD1">
-    <cfRule type="expression" dxfId="59" priority="5">
+    <cfRule type="expression" dxfId="63" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="58" priority="4">
+    <cfRule type="expression" dxfId="62" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="57" priority="3">
+    <cfRule type="expression" dxfId="61" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="60" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AE1">
-    <cfRule type="expression" dxfId="55" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5376,7 +5372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5394,27 +5390,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -5422,13 +5418,13 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5436,13 +5432,13 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -5450,13 +5446,13 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -5625,7 +5621,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="54" priority="1">
+    <cfRule type="expression" dxfId="58" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5633,7 +5629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -5656,616 +5652,616 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="53" priority="1">
+    <cfRule type="expression" dxfId="57" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="52" priority="2">
+    <cfRule type="expression" dxfId="56" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6273,7 +6269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6291,39 +6287,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -6341,13 +6337,56 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="51" priority="1">
+    <cfRule type="expression" dxfId="55" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="expression" dxfId="54" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="expression" dxfId="53" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6390,7 +6429,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6399,7 +6438,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1">
@@ -6407,7 +6446,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
@@ -6415,7 +6454,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
@@ -6423,7 +6462,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -6431,7 +6470,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6460,12 +6499,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:C1">
-    <cfRule type="expression" dxfId="96" priority="3">
+    <cfRule type="expression" dxfId="97" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="95" priority="1">
+    <cfRule type="expression" dxfId="96" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6475,49 +6514,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="50" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="49" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6535,29 +6531,29 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="48" priority="1">
+    <cfRule type="expression" dxfId="52" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="47" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6565,7 +6561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6585,218 +6581,218 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="46" priority="4">
+    <cfRule type="expression" dxfId="50" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="45" priority="1">
+    <cfRule type="expression" dxfId="49" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="44" priority="2">
+    <cfRule type="expression" dxfId="48" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6804,7 +6800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6824,66 +6820,66 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G1:XFD1">
-    <cfRule type="expression" dxfId="43" priority="4">
+    <cfRule type="expression" dxfId="47" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="42" priority="1">
+    <cfRule type="expression" dxfId="46" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:F1">
-    <cfRule type="expression" dxfId="41" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6891,7 +6887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6910,19 +6906,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6932,17 +6928,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="40" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="39" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="38" priority="1">
+    <cfRule type="expression" dxfId="42" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6950,7 +6946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -6971,114 +6967,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7087,13 +7083,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7101,13 +7097,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7115,63 +7111,63 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="24" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="24" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="41" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7179,7 +7175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -7197,7 +7193,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
@@ -7224,13 +7220,13 @@
         <v>151</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>127</v>
@@ -7238,19 +7234,19 @@
     </row>
     <row r="2" spans="1:16" ht="60">
       <c r="A2" s="32" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G2" s="1">
         <v>201</v>
@@ -7267,19 +7263,19 @@
     </row>
     <row r="3" spans="1:16" ht="60">
       <c r="A3" s="32" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G3" s="1">
         <v>202</v>
@@ -7296,19 +7292,19 @@
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G4" s="1">
         <v>203</v>
@@ -7325,19 +7321,19 @@
     </row>
     <row r="5" spans="1:16" ht="60">
       <c r="A5" s="32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G5" s="1">
         <v>204</v>
@@ -7352,19 +7348,19 @@
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="32" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>118</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G6" s="1">
         <v>205</v>
@@ -7436,7 +7432,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:I1 L1:XFD1">
-    <cfRule type="expression" dxfId="36" priority="1">
+    <cfRule type="expression" dxfId="40" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7444,7 +7440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -7464,7 +7460,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>152</v>
@@ -7481,13 +7477,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D2" s="27">
         <v>300</v>
@@ -7498,10 +7494,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
@@ -7512,10 +7508,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D4" s="27">
         <v>500</v>
@@ -7526,10 +7522,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
@@ -7540,10 +7536,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D6" s="27">
         <v>700</v>
@@ -7554,10 +7550,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D7" s="1">
         <v>800</v>
@@ -7568,10 +7564,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D8" s="27">
         <v>900</v>
@@ -7582,10 +7578,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
@@ -7596,10 +7592,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D10" s="27">
         <v>1100</v>
@@ -7610,10 +7606,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D11" s="1">
         <v>1200</v>
@@ -7624,10 +7620,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D12" s="27">
         <v>1300</v>
@@ -7638,10 +7634,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D13" s="1">
         <v>1400</v>
@@ -7653,12 +7649,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="34" priority="1">
+    <cfRule type="expression" dxfId="38" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7666,7 +7662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -7685,7 +7681,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>154</v>
@@ -7700,12 +7696,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="33" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="32" priority="2">
+    <cfRule type="expression" dxfId="36" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7713,7 +7709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -7732,7 +7728,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>33</v>
@@ -7752,16 +7748,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7769,16 +7765,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7786,16 +7782,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -7804,15 +7800,225 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="18.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="30"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="30"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8096,12 +8302,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="94" priority="3">
+    <cfRule type="expression" dxfId="95" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="94" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8110,216 +8316,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:P11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.125" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="38" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="18.125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>543</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="27" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>544</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>533</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>545</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>546</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="30"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="30"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="30"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="30"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="30"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -8337,7 +8333,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
@@ -8361,12 +8357,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="29" priority="1">
+    <cfRule type="expression" dxfId="33" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="28" priority="2">
+    <cfRule type="expression" dxfId="32" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8374,7 +8370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -8392,27 +8388,27 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="expression" dxfId="26" priority="2">
+    <cfRule type="expression" dxfId="30" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8420,7 +8416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8442,13 +8438,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>209</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8471,17 +8467,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="29" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="28" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:L1">
-    <cfRule type="expression" dxfId="23" priority="1">
+    <cfRule type="expression" dxfId="27" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8490,7 +8486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8532,22 +8528,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="26" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8555,7 +8551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -8585,12 +8581,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="18" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="17" priority="1">
+    <cfRule type="expression" dxfId="21" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8598,7 +8594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -8638,6 +8634,69 @@
       <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="20" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="expression" dxfId="19" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="expression" dxfId="18" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8671,69 +8730,6 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="12" priority="4">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:D1">
-    <cfRule type="expression" dxfId="11" priority="3">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:F1">
-    <cfRule type="expression" dxfId="10" priority="2">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8748,7 +8744,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -8760,12 +8756,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="expression" dxfId="8" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8774,14 +8770,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8795,35 +8791,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -8837,13 +8833,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -8857,13 +8853,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -8877,13 +8873,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -8897,13 +8893,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8917,13 +8913,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8937,13 +8933,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8957,13 +8953,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -9048,22 +9044,598 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="31" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:D1">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="expression" dxfId="5" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
+  <conditionalFormatting sqref="G1">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9116,10 +9688,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>52</v>
@@ -9143,31 +9715,31 @@
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -9179,33 +9751,33 @@
         <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -9214,10 +9786,10 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
@@ -10523,27 +11095,27 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:E1">
-    <cfRule type="expression" dxfId="92" priority="6">
+    <cfRule type="expression" dxfId="93" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="92" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="90" priority="3">
+    <cfRule type="expression" dxfId="91" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="89" priority="2">
+    <cfRule type="expression" dxfId="90" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="88" priority="1">
+    <cfRule type="expression" dxfId="89" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10557,10 +11129,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -10572,533 +11144,70 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>573</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>574</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>575</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -11166,10 +11275,10 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>52</v>
@@ -11186,22 +11295,22 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G2" s="1">
         <v>28</v>
@@ -11218,22 +11327,22 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G3" s="1">
         <v>28</v>
@@ -11242,30 +11351,30 @@
         <v>61</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>511</v>
       </c>
       <c r="E4" s="11">
         <v>676</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G4" s="1">
         <v>28</v>
@@ -11274,30 +11383,30 @@
         <v>61</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>511</v>
       </c>
       <c r="E5" s="11">
         <v>676</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G5" s="1">
         <v>28</v>
@@ -11306,30 +11415,30 @@
         <v>61</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E6" s="11">
         <v>676</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G6" s="1">
         <v>28</v>
@@ -11338,30 +11447,30 @@
         <v>61</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E7" s="11">
         <v>676</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G7" s="1">
         <v>28</v>
@@ -11370,26 +11479,26 @@
         <v>61</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:D1 F1:J1">
-    <cfRule type="expression" dxfId="87" priority="5">
+    <cfRule type="expression" dxfId="88" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="86" priority="4">
+    <cfRule type="expression" dxfId="87" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="expression" dxfId="85" priority="1">
+    <cfRule type="expression" dxfId="86" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11453,7 +11562,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="84" priority="1">
+    <cfRule type="expression" dxfId="85" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11469,7 +11578,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
@@ -11506,10 +11615,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>52</v>
@@ -11526,31 +11635,31 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J2" s="1">
         <v>28</v>
@@ -11562,34 +11671,34 @@
         <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J3" s="1">
         <v>28</v>
@@ -11598,41 +11707,41 @@
         <v>61</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="83" priority="6">
+    <cfRule type="expression" dxfId="84" priority="6">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="82" priority="5">
+    <cfRule type="expression" dxfId="83" priority="5">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="82" priority="4">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="expression" dxfId="80" priority="3">
+    <cfRule type="expression" dxfId="81" priority="3">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="79" priority="2">
+    <cfRule type="expression" dxfId="80" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G1">
-    <cfRule type="expression" dxfId="78" priority="1">
+    <cfRule type="expression" dxfId="79" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11681,12 +11790,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B1:E1">
-    <cfRule type="expression" dxfId="77" priority="2">
+    <cfRule type="expression" dxfId="78" priority="2">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="76" priority="1">
+    <cfRule type="expression" dxfId="77" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" activeTab="12"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="622">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -270,10 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>pref_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>city</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -519,10 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>area</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>start_at</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,10 +547,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>send_pref_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>send_city</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -568,10 +556,6 @@
   </si>
   <si>
     <t>send_tel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>arrive_pref_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -748,9 +732,6 @@
   </si>
   <si>
     <t>CAR-02</t>
-  </si>
-  <si>
-    <t>CAR-02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -777,95 +758,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CAR-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60tトレーラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8tは小型トラック</t>
-    <rPh sb="3" eb="5">
-      <t>コガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山下さん横浜から帰る</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマシタ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨコハマ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CAR-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>横浜</t>
-    <rPh sb="0" eb="2">
-      <t>ヨコハマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CRR-180326-165310-aaaab</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>斎藤さん九州から帰る</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CAR-02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北九州市</t>
-    <rPh sb="0" eb="1">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>早期切り上げ有り</t>
-    <rPh sb="0" eb="2">
-      <t>ソウキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>order_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -946,10 +838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>order_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2786,6 +2674,181 @@
   </si>
   <si>
     <t>carrier_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>area_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p-03</t>
+  </si>
+  <si>
+    <t>p-04</t>
+  </si>
+  <si>
+    <t>p-05</t>
+  </si>
+  <si>
+    <t>p-06</t>
+  </si>
+  <si>
+    <t>p-07</t>
+  </si>
+  <si>
+    <t>p-08</t>
+  </si>
+  <si>
+    <t>p-09</t>
+  </si>
+  <si>
+    <t>p-10</t>
+  </si>
+  <si>
+    <t>p-11</t>
+  </si>
+  <si>
+    <t>p-12</t>
+  </si>
+  <si>
+    <t>p-13</t>
+  </si>
+  <si>
+    <t>p-14</t>
+  </si>
+  <si>
+    <t>p-15</t>
+  </si>
+  <si>
+    <t>p-16</t>
+  </si>
+  <si>
+    <t>p-17</t>
+  </si>
+  <si>
+    <t>p-18</t>
+  </si>
+  <si>
+    <t>p-19</t>
+  </si>
+  <si>
+    <t>p-20</t>
+  </si>
+  <si>
+    <t>p-21</t>
+  </si>
+  <si>
+    <t>p-22</t>
+  </si>
+  <si>
+    <t>p-23</t>
+  </si>
+  <si>
+    <t>p-24</t>
+  </si>
+  <si>
+    <t>p-25</t>
+  </si>
+  <si>
+    <t>p-26</t>
+  </si>
+  <si>
+    <t>p-27</t>
+  </si>
+  <si>
+    <t>p-28</t>
+  </si>
+  <si>
+    <t>p-29</t>
+  </si>
+  <si>
+    <t>p-30</t>
+  </si>
+  <si>
+    <t>p-31</t>
+  </si>
+  <si>
+    <t>p-32</t>
+  </si>
+  <si>
+    <t>p-33</t>
+  </si>
+  <si>
+    <t>p-34</t>
+  </si>
+  <si>
+    <t>p-35</t>
+  </si>
+  <si>
+    <t>p-36</t>
+  </si>
+  <si>
+    <t>p-37</t>
+  </si>
+  <si>
+    <t>p-38</t>
+  </si>
+  <si>
+    <t>p-39</t>
+  </si>
+  <si>
+    <t>p-40</t>
+  </si>
+  <si>
+    <t>p-41</t>
+  </si>
+  <si>
+    <t>p-42</t>
+  </si>
+  <si>
+    <t>p-43</t>
+  </si>
+  <si>
+    <t>p-44</t>
+  </si>
+  <si>
+    <t>p-45</t>
+  </si>
+  <si>
+    <t>p-46</t>
+  </si>
+  <si>
+    <t>p-47</t>
+  </si>
+  <si>
+    <t>pref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>send_pref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>arrive_pref_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4123,8 +4186,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -4190,19 +4253,19 @@
         <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>30</v>
@@ -4217,58 +4280,58 @@
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="R2" s="1">
-        <v>28</v>
+        <v>405</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="S2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="U2" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4279,55 +4342,55 @@
         <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>36</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="R3" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="U3" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.25" customHeight="1">
@@ -4396,21 +4459,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4418,10 +4481,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4429,10 +4492,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4440,10 +4503,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4451,10 +4514,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4512,23 +4575,23 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4555,7 +4618,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4576,79 +4639,38 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="14">
-        <v>43185.5</v>
-      </c>
-      <c r="F2" s="14">
-        <v>43187.5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14">
-        <v>43185.5</v>
-      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="14">
-        <v>43120.888888888891</v>
-      </c>
-      <c r="F3" s="14">
-        <v>43127.888888888891</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
@@ -4835,10 +4857,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4849,19 +4871,19 @@
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4877,34 +4899,6 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4946,16 +4940,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4970,13 +4964,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4984,13 +4978,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -4998,13 +4992,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -5012,13 +5006,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -5026,13 +5020,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -5040,13 +5034,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5054,13 +5048,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5068,13 +5062,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5082,13 +5076,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5096,13 +5090,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5136,8 +5130,8 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5153,159 +5147,159 @@
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="I2" s="17">
-        <v>28</v>
+        <v>427</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q2" s="17">
-        <v>28</v>
+        <v>427</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5315,10 +5309,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5390,27 +5384,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -5418,13 +5412,13 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5432,13 +5426,13 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -5446,13 +5440,13 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -5652,605 +5646,605 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>383</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -6287,39 +6281,39 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -6337,7 +6331,7 @@
         <v>3000</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -6369,13 +6363,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6423,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
@@ -6438,7 +6432,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="20.25" customHeight="1">
@@ -6446,7 +6440,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1">
@@ -6454,7 +6448,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="20.25" customHeight="1">
@@ -6462,7 +6456,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1">
@@ -6470,7 +6464,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1">
@@ -6531,18 +6525,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6581,202 +6575,202 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -6820,50 +6814,50 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6906,19 +6900,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6967,114 +6961,114 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="24" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="24" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="24" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="24" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="24" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="24" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="24" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="24" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="24" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7083,13 +7077,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="24" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7097,13 +7091,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="24" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -7111,57 +7105,57 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="24" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="24" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="24" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="24" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -7193,60 +7187,60 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="60">
       <c r="A2" s="32" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G2" s="1">
         <v>201</v>
@@ -7263,19 +7257,19 @@
     </row>
     <row r="3" spans="1:16" ht="60">
       <c r="A3" s="32" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G3" s="1">
         <v>202</v>
@@ -7292,19 +7286,19 @@
     </row>
     <row r="4" spans="1:16" ht="60">
       <c r="A4" s="32" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G4" s="1">
         <v>203</v>
@@ -7321,19 +7315,19 @@
     </row>
     <row r="5" spans="1:16" ht="60">
       <c r="A5" s="32" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G5" s="1">
         <v>204</v>
@@ -7348,19 +7342,19 @@
     </row>
     <row r="6" spans="1:16" ht="60">
       <c r="A6" s="32" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="G6" s="1">
         <v>205</v>
@@ -7448,7 +7442,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7460,30 +7454,30 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="27" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D2" s="27">
         <v>300</v>
@@ -7494,10 +7488,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="32" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="D3" s="1">
         <v>400</v>
@@ -7508,10 +7502,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="32" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="D4" s="27">
         <v>500</v>
@@ -7522,10 +7516,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="32" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="D5" s="1">
         <v>600</v>
@@ -7536,10 +7530,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="32" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="D6" s="27">
         <v>700</v>
@@ -7550,10 +7544,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="32" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="D7" s="1">
         <v>800</v>
@@ -7564,10 +7558,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="32" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="D8" s="27">
         <v>900</v>
@@ -7578,10 +7572,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="32" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
@@ -7592,10 +7586,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="32" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="D10" s="27">
         <v>1100</v>
@@ -7606,10 +7600,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="32" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="D11" s="1">
         <v>1200</v>
@@ -7620,10 +7614,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="D12" s="27">
         <v>1300</v>
@@ -7634,10 +7628,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="D13" s="1">
         <v>1400</v>
@@ -7681,10 +7675,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
@@ -7717,7 +7711,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7728,36 +7722,36 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
@@ -7765,16 +7759,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="E3" s="1">
         <v>20000</v>
@@ -7782,16 +7776,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="E4" s="1">
         <v>300</v>
@@ -7835,36 +7829,36 @@
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="27" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7872,19 +7866,19 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="27" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
@@ -7892,19 +7886,19 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="27" t="s">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
@@ -7912,16 +7906,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="27" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="33"/>
       <c r="H5" s="23"/>
@@ -7930,16 +7924,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="27" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="33"/>
       <c r="H6" s="23"/>
@@ -8333,25 +8327,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -8388,16 +8382,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -8438,13 +8432,13 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -8681,19 +8675,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8744,7 +8738,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -8791,35 +8785,35 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="D2" s="6">
         <v>43196.375</v>
@@ -8833,13 +8827,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="D3" s="6">
         <v>43196.375</v>
@@ -8853,13 +8847,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="D4" s="6">
         <v>43196.375</v>
@@ -8873,13 +8867,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="D5" s="6">
         <v>43196.375</v>
@@ -8893,13 +8887,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D6" s="6">
         <v>43196.375</v>
@@ -8913,13 +8907,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="D7" s="6">
         <v>43196.375</v>
@@ -8933,13 +8927,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="D8" s="6">
         <v>43196.375</v>
@@ -8953,13 +8947,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="D9" s="6">
         <v>43196.375</v>
@@ -9071,7 +9065,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -9083,13 +9077,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>211</v>
+        <v>615</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -9097,520 +9091,520 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9647,7 +9641,7 @@
   <dimension ref="A1:T438"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -9688,19 +9682,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>29</v>
@@ -9715,81 +9709,81 @@
     </row>
     <row r="2" spans="1:20" ht="33" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" s="1">
-        <v>28</v>
+        <v>405</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="20.25" customHeight="1">
@@ -11144,7 +11138,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -11157,58 +11151,58 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -11245,7 +11239,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -11275,214 +11269,214 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E2" s="11">
         <v>676</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="G2" s="1">
-        <v>28</v>
+        <v>405</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="E3" s="11">
         <v>676</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="G3" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="E4" s="11">
         <v>676</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="G4" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="E5" s="11">
         <v>676</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="G5" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="E6" s="11">
         <v>676</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="G6" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="E7" s="11">
         <v>676</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="G7" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -11545,18 +11539,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -11578,7 +11572,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="18.75"/>
@@ -11594,7 +11588,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="12" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>44</v>
@@ -11615,19 +11609,19 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>29</v>
@@ -11635,82 +11629,82 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E2" s="1">
         <v>0.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="H2" s="11">
         <v>676</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="J2" s="1">
-        <v>28</v>
+        <v>405</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>617</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="M2" s="11" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
         <v>3.5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="H3" s="11">
         <v>676</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="J3" s="1">
-        <v>28</v>
+        <v>482</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/root/laravel/database/seeds/masters.xlsx
+++ b/root/laravel/database/seeds/masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="1365" yWindow="2280" windowWidth="36435" windowHeight="16440" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="14" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="630">
   <si>
     <t>user_id</t>
     <phoneticPr fontId="1"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>k.maki@harimanics.co.jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>631ba0008db2a7cdedc31c7d2f2c79ba8ba1955a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -279,31 +275,6 @@
   </si>
   <si>
     <t>tel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荷主</t>
-    <rPh sb="0" eb="2">
-      <t>ニヌシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>運送会社</t>
-    <rPh sb="0" eb="2">
-      <t>ウンソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>owner</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>carrier</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2849,6 +2820,67 @@
   </si>
   <si>
     <t>arrive_pref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USR-180326-165310-zzzzz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a5f7b52a1470871cdbc0f4ed56e4ec8e5820ffd8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Harimanics5577</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発するマン</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰山</t>
+    <rPh sb="0" eb="2">
+      <t>カゲヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>章人</t>
+    <rPh sb="0" eb="2">
+      <t>アキヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かげやま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あきと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc@email.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>def@email.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-5718-1597</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USR-180326-165310-zzzzz</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4186,8 +4218,8 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="20.25" customHeight="1"/>
@@ -4253,19 +4285,19 @@
         <v>29</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>30</v>
@@ -4277,61 +4309,61 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M2" t="s">
+        <v>626</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>479</v>
       </c>
       <c r="P2" s="11">
         <v>676</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="U2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="20.25" customHeight="1">
@@ -4339,62 +4371,115 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
+        <v>467</v>
+      </c>
+      <c r="M3" t="s">
+        <v>627</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P3" s="11">
         <v>676</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="U3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20.25" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="S3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="U3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="20.25" customHeight="1">
-      <c r="B4" s="15"/>
+      <c r="B4" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="11">
+        <v>676</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="20.25" customHeight="1">
       <c r="B5" s="15"/>
@@ -4459,21 +4544,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C2" s="1">
         <v>6000</v>
@@ -4481,10 +4566,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1">
         <v>6000</v>
@@ -4492,10 +4577,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C4" s="11">
         <v>10000</v>
@@ -4503,10 +4588,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C5" s="11">
         <v>30000</v>
@@ -4514,10 +4599,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C6" s="11">
         <v>50000</v>
@@ -4575,23 +4660,23 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4639,25 +4724,25 @@
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4871,19 +4956,19 @@
   <sheetData>
     <row r="1" spans="1:19" s="13" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4940,16 +5025,16 @@
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="21" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4964,13 +5049,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -4978,13 +5063,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>167</v>
       </c>
       <c r="D3" s="11">
         <v>4</v>
@@ -4992,13 +5077,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="D4" s="11">
         <v>5</v>
@@ -5006,13 +5091,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>169</v>
       </c>
       <c r="D5" s="11">
         <v>6</v>
@@ -5020,13 +5105,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
@@ -5034,13 +5119,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -5048,13 +5133,13 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D8" s="11">
         <v>4</v>
@@ -5062,13 +5147,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D9" s="11">
         <v>5</v>
@@ -5076,13 +5161,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D10" s="11">
         <v>6</v>
@@ -5090,13 +5175,13 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
@@ -5130,7 +5215,7 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -5147,159 +5232,159 @@
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>435</v>
-      </c>
       <c r="AD1" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="48">
       <c r="A2" s="17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G2" s="17">
         <v>676</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="O2" s="17">
         <v>676</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="U2" s="23">
         <v>43241</v>
@@ -5309,10 +5394,10 @@
         <v>43242</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="AA2" s="22">
         <v>100</v>
@@ -5384,27 +5469,27 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="48">
       <c r="A2" s="17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D2" s="22">
         <v>1</v>
@@ -5412,13 +5497,13 @@
     </row>
     <row r="3" spans="1:12" ht="48">
       <c r="A3" s="17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D3" s="22">
         <v>1</v>
@@ -5426,13 +5511,13 @@
     </row>
     <row r="4" spans="1:12" ht="48">
       <c r="A4" s="17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D4" s="22">
         <v>1</v>
@@ -5440,13 +5525,13 @@
     </row>
     <row r="5" spans="1:12" ht="48">
       <c r="A5" s="17" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D5" s="22">
         <v>1</v>
@@ -5646,605 +5731,605 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>379</v>
+        <v>3